--- a/data/RecordCorrection.orig.xlsx
+++ b/data/RecordCorrection.orig.xlsx
@@ -5,12 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ideaproj\BLEUEvaluation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luocheng\IdeaProjects\BLEUAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12450" activeTab="2"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="voice2text" sheetId="1" r:id="rId1"/>
@@ -18,12 +17,11 @@
     <sheet name="finished" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="348">
   <si>
     <t>想，僵尸，携程，再冲需要，现在转，任，一高的人瘦，还有些偏瘦的地方，瘦，然后选购的话，一般是，他们名字，后面的，小鱼转，了一家，那就约炮，然后一般来说从三十岁开始投保，啊，大概平均每年，</t>
   </si>
@@ -37,12 +35,6 @@
     <t>可以选择，要，畜牲，呀，哦，一云南，的时候，采摘花果，然后，来说，比较近，结束了然后，时间也不会太干的，</t>
   </si>
   <si>
-    <t>就是，说，好，</t>
-  </si>
-  <si>
-    <t>他一向对深圳一个破冰游戏叫做九个圆点，就是让首先让大家自己，把就准备就是要有一张图上面有三行每行有三个圆点构成一个正方形，然后让大家动脑筋去想用一条线把九个点连起来两条线连起来三条线连起来，绕线开始大家分头像，然后如果都想不出来的话就分成小组想，在这游戏为问题就是还是不能够帮助大家认识，互相认识对方，但是如果用一种病似乎想叫对方名字或者是，松鼠和大树发生火灾什么的，有么有启发意义，岁还是九个月的比较有启发意义，</t>
-  </si>
-  <si>
     <t>啊如果有一周的假期的话可以去内蒙古玩因为内幕去内蒙古的话费首先比较小，然后如果假定小明是一个学生的话那我去那蒙古的花费比较小，然后可以啊他们，旅行社有很多种去的方法比如说空调大巴或者火车或者飞机选择也比较多，然后住宿也很有特色鱼类比较多因为现在草原可以骑马呀什麽的，然后它的方便程度也比较高瑜我们离内蒙古比较近要过去不论是什么交通方式都可以过去找你，玩的时间可长可短如果你想细致的玩的话可以玩的比较久又说十五天如果想就是主要领略一下风光就两三天也可以回来，然后话费也从一千多到三四千不到而且去哪网址个好地方去哪就什么都可以找到，</t>
   </si>
   <si>
@@ -67,9 +59,6 @@
     <t>嗯长期护理保险是，健康保险的一种然后主要针对的是一些，哦老人因为行动不便或者是疾病，然后需要长期照顾，哦，哦形成了一种长期护理保险，那有哪些公司带来使用，恩国台，城国泰人寿保险公司杨忠国，嗯太平保险公司，还有瑞，一个走，瑞和什么攻速的，二如何选购长期护理保险，一，这个主要联系提供长期护理保险的公司，然后主要是我需要关注每年需要支付的保险金额以及等确认行动不便的时候，嗯保险公司能够支付的保险金的百分比，</t>
   </si>
   <si>
-    <t>哦，给我印象最深的一个普通游戏的名称是，接受了，而然后这个游戏需要做的准备就是，哦韧带拉成一个圈儿，好像么有什么特别需要的道具和什么然后主要就是，哦靠大家团队协作，</t>
-  </si>
-  <si>
     <t>嗯，港版ｉｐｈｏｎｅ，而对于国内三大营商可完美支持中国移动和中国联通但是，非常费劲这人不知是重点线，然后，观世音，哦关税的话，在网上查到的中国海关给出的信息是需要缴纳关税疗效的那百分十的关税，</t>
   </si>
   <si>
@@ -91,9 +80,6 @@
     <t>我给你交，北京周边的旅游地包括铃铛蒙山大道与长城，而近期草原等等，我觉得比较好的方式进行草原，余罪地方可以去骑马，了吃烤全羊，做，野丽莎定是个我感觉非常有意思，而且交通肯定是七八十公里有公交车鬼知道，一日游两日游的话，你非常非常厚实，</t>
   </si>
   <si>
-    <t>我印象最深的个朋友系叫我是谁，而这游戏不下任何的准备，只消把也我们带到一个，教室或者狐狸地方，然后给大家五分钟的时间，让她在教室里随便找样东西，好说明最能代表自己的东西然后，最后大家聚得起来说明这东西为什么不代表自己，哪个特点比较符合，这特别，这个考研的大的那个想象力还有展示自我能力表示核心团队和人，</t>
-  </si>
-  <si>
     <t>在轻抚你购买，死飞自行车的话可以选择区，死飞公园等症的店面，或者去，选购二手的水平尺，然后，二十岁雷霆车的价格大概一天一百到六百左右，然后新款的四零零车载，就大于等于千万元，生蜂蜜，</t>
   </si>
   <si>
@@ -103,13 +89,7 @@
     <t>欧洲的很多地方都可以吃的苦数度，哦青龙峡红螺寺大兴野生动物园，恩还有长城，城城里的滑雪场等等，我觉得如果是我，我的话我可能会想去十渡因为那个季节的话首先是毒水个风景优美的地方五月之后是春天，让胡路，但是我又不招水文是怎样是不是和划水负责那个地方的有对象么表躲不起吗还说，蹦极啊等等，然后，但交通也还算比较方便可以做地铁然后倒倒公交过去大概花两个小时左右，然后住宿的话可以住的农家院还可以吃那种农家菜，然后，嗯费用的话也还比较的，就是如果去玩儿那些个人项目的话门票，门票加住宿大概四百元左右吃饭的话，如果是团体一起去黄估计每人五十块就够然后，嗯，我觉着出行列表方便你带来一点，</t>
   </si>
   <si>
-    <t>嗯就是解手链，嗯就是需要大家围城一圈，然后，ｏｎ就是，每个人伸出右手去了对面的那个人的手然后左手则拉着旁边的临边的女人的手然后就而出现列表复杂的锁链型网状的东西然后需要大家不能松开手解开这个我，</t>
-  </si>
-  <si>
     <t>恩当然可以，这是两路直到把一个是我刚查的情话来的西门那边有个叫杜思贝公园的店，然后在阜成门好像有点渴去实体店购买只有一种就是可以，去五八同城这种二手市场去购买，大概ｎ二手的话起步价是八百左右如果是阿星说撸管，嗯就是那种入门级的车好像是一种一千五左右而之后的就是，根据级别的不同好像就是在两千到五千之间不懂，</t>
-  </si>
-  <si>
-    <t>唉我印象最深的一个普遍游戏就是，嗯就是而能够很有效的帮助大家尽快，记住彼此名字，就是第一个人先说我是，啊生什么样的事是谁，哦哦名称名称就是，名称名称是什么？嗯，呢，哦，哦就是新人是我是什么样的身世然后第二个人，按在按要记着的人说，那就是说我是，是么什么样的是谁旁边的什么样了谁是，然后因为他们人不是很多所以，俺就接到最后一个人大概，也，不算太长，然后，嗯做这个游戏，也不需要做任何的准备，按就可以让大家很快的记住名字然后还有，那个那个人对自己非常简单的一个词评价，</t>
   </si>
   <si>
     <t>嗯哪搞首先网上他很多都是二手自行车，嗯就是一辆二手死飞的话就，基本上不到三百块钱就可以买到，嗯但是就在清华附近的那个卖二手死飞的地方还是挺少的，嗯，就二就在那里买好像没有太大区别吧，然后，嗯，恩就是还有，关于，啊一手二手车做很多网上，的就是网上那个，嗯商家，哦卖家的信息给的并不是特别充分，按就有可能根本就判断不出来到底是不是二手，嗯我觉得最好还是就是清华附近他反正自行车买自行车的地方还是挺多的就，更好花八百左右，买辆新车比较好，</t>
@@ -1483,6 +1463,34 @@
   </si>
   <si>
     <t>辽宁号的前身是原苏联的一艘没有建完的航母，叫做瓦良格号，苏联解体后，停留在乌克兰，后被中国购买并改造，在许多方面都有比较大的进步，辽宁号的排水量大概是60000吨，舰长大概300米，舷宽大概70米，可以承载若干战斗机和直升机，如中国的歼-15飞机等，航速达到最高29节，最大马力20万，船员1960人。辽宁号上有各种我国自主研发的导弹设备，包括空战雷达滑跃式起飞装置。辽宁号是一艘常规动力潜艇，不是核动力潜艇。它的技术与美国等发达国家的航母相比还有一定差距，其战略地位主要是可以在一定长度上突破其他国家对中国的海洋封锁，保持威慑或震慑，捍卫国家利益。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>印象最深的是大树与松鼠，这个游戏事先把大家分组，三个人一组，给大家讲解游戏规则。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>印象最深的一个破冰游戏叫做九个圆点，就是让首先让大家自己做准备，要有一张图上面有三行每行有三个圆点构成一个正方形，然后让大家动脑筋去想用一条线把九个点连起来，两条线连起来，三条线连起来，开始大家分头想，然后如果都想不出来的话就分成小组想，在这游戏有一个问题就是还是不能够帮助大家认识，互相认识对方，但是如果用一种比如说互相叫对方名字或者是，松鼠和大树，发生火灾什么的，又没有什么启发意义，所以还是九个大树比较有启发意义。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍一个十人参与的破冰游戏，十个人围坐成一个圈，每一个人在这个游戏中的名字是她右边那个人的名字，这时候主持人在游戏过程中会问一些问题，比如说小明今天早上几点起床，真实的小明不用回答，在这个游戏中使用小明名字的人回答，如果违反了这个规则，那个人就被淘汰了，最后留下的人取得了胜利。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦，给我印象最深的一个破冰游戏的名称是，解手链，而然后这个游戏需要做的准备就是，让大家拉成一个圈儿，好像没有什么特别需要的道具和什么然后主要就是，靠大家团队协作，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我印象最深的个破冰游戏叫我是谁，而这游戏不需要任何的准备，只需要把员工们带到一个，教室或者一个地方，然后给大家五分钟的时间，让他在教室里随便找样东西，好说明最能代表自己的东西然后，最后大家聚得起来说明这东西为什么代表自己，哪个特点比较符合，这个考验了大家的想象力还有展示自我能力，比较适合新的团队互相认识。，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯就是解手链就是需要大家围成一圈，然后，每个人伸出右手去拉对面的那个人的手，然后左手则拉着旁边的、临边的人的手然后就而出现非常复杂的锁链型网状的东西然后需要大家不能松开手解开这个网。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>唉我印象最深的一个普遍游戏就是，嗯就是而能够很有效的帮助大家尽快，记住彼此名字，就是第一个人先说我是，啊生什么样的事是谁，哦哦名称名称就是，名称名称是什么？嗯，呢，哦，哦就是新人是我是什么样的身世然后第二个人，按在按要记着的人说，那就是说我是，是么什么样的是谁旁边的什么样了谁是，然后因为他们人不是很多所以，俺就接到最后一个人大概，也，不算太长，然后，嗯做这个游戏，也不需要做任何的准备，按就可以让大家很快的记住名字然后还有，那个那个人对自己非常简单的一个词评价，</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2443,10 +2451,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F348"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F174" sqref="B1:F174"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="E232" sqref="E232"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2457,7 +2464,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B1" s="1">
         <v>2011010412</v>
@@ -2469,16 +2476,16 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F1" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B1 &amp; "/" &amp; C1 &amp; "_" &amp; D1 &amp; ".wav"</f>
+        <f t="shared" ref="F1:F32" si="0">"http://59.66.209.26:23380/wav/" &amp; B1 &amp; "/" &amp; C1 &amp; "_" &amp; D1 &amp; ".wav"</f>
         <v>http://59.66.209.26:23380/wav/2011010412/6_5.wav</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B2" s="1">
         <v>2011011235</v>
@@ -2490,16 +2497,16 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B2 &amp; "/" &amp; C2 &amp; "_" &amp; D2 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2011011235/8_5.wav</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B3" s="1">
         <v>2011011239</v>
@@ -2511,16 +2518,16 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B3 &amp; "/" &amp; C3 &amp; "_" &amp; D3 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2011011239/11_5.wav</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B4" s="1">
         <v>2011011254</v>
@@ -2532,16 +2539,16 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B4 &amp; "/" &amp; C4 &amp; "_" &amp; D4 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2011011254/2_5.wav</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B5" s="1">
         <v>2011011268</v>
@@ -2553,16 +2560,16 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B5 &amp; "/" &amp; C5 &amp; "_" &amp; D5 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2011011268/9_5.wav</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B6" s="1">
         <v>2011012703</v>
@@ -2574,16 +2581,16 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B6 &amp; "/" &amp; C6 &amp; "_" &amp; D6 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2011012703/1_5.wav</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B7" s="1">
         <v>2012011297</v>
@@ -2595,16 +2602,16 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B7 &amp; "/" &amp; C7 &amp; "_" &amp; D7 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2012011297/4_5.wav</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B8" s="1">
         <v>2012012731</v>
@@ -2616,16 +2623,16 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B8 &amp; "/" &amp; C8 &amp; "_" &amp; D8 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2012012731/12_5.wav</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B9" s="1">
         <v>2013010773</v>
@@ -2637,16 +2644,16 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B9 &amp; "/" &amp; C9 &amp; "_" &amp; D9 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2013010773/11_5.wav</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B10" s="1">
         <v>2013010775</v>
@@ -2658,16 +2665,16 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B10 &amp; "/" &amp; C10 &amp; "_" &amp; D10 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2013010775/11_5.wav</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B11" s="1">
         <v>2013011103</v>
@@ -2679,16 +2686,16 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B11 &amp; "/" &amp; C11 &amp; "_" &amp; D11 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2013011103/6_5.wav</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B12" s="1">
         <v>2013011392</v>
@@ -2700,16 +2707,16 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B12 &amp; "/" &amp; C12 &amp; "_" &amp; D12 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2013011392/1_5.wav</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B13" s="1">
         <v>2013011395</v>
@@ -2721,16 +2728,16 @@
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B13 &amp; "/" &amp; C13 &amp; "_" &amp; D13 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2013011395/11_5.wav</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B14" s="1">
         <v>2013011400</v>
@@ -2742,16 +2749,16 @@
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B14 &amp; "/" &amp; C14 &amp; "_" &amp; D14 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2013011400/12_5.wav</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B15" s="1">
         <v>2013011429</v>
@@ -2763,16 +2770,16 @@
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B15 &amp; "/" &amp; C15 &amp; "_" &amp; D15 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2013011429/5_5.wav</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B16" s="1">
         <v>2013011437</v>
@@ -2784,16 +2791,16 @@
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B16 &amp; "/" &amp; C16 &amp; "_" &amp; D16 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2013011437/1_5.wav</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B17" s="1">
         <v>2013012946</v>
@@ -2805,16 +2812,16 @@
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B17 &amp; "/" &amp; C17 &amp; "_" &amp; D17 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2013012946/5_5.wav</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B18" s="1">
         <v>2013012949</v>
@@ -2826,16 +2833,16 @@
         <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B18 &amp; "/" &amp; C18 &amp; "_" &amp; D18 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2013012949/6_5.wav</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B19" s="1">
         <v>2013013014</v>
@@ -2847,16 +2854,16 @@
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B19 &amp; "/" &amp; C19 &amp; "_" &amp; D19 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2013013014/5_5.wav</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B20" s="1">
         <v>2014010219</v>
@@ -2868,16 +2875,16 @@
         <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B20 &amp; "/" &amp; C20 &amp; "_" &amp; D20 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2014010219/12_5.wav</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B21" s="1">
         <v>2014010728</v>
@@ -2889,16 +2896,16 @@
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B21 &amp; "/" &amp; C21 &amp; "_" &amp; D21 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2014010728/12_5.wav</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B22" s="1">
         <v>2014011004</v>
@@ -2910,16 +2917,16 @@
         <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B22 &amp; "/" &amp; C22 &amp; "_" &amp; D22 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2014011004/3_5.wav</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B23" s="1">
         <v>2014012173</v>
@@ -2931,16 +2938,16 @@
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B23 &amp; "/" &amp; C23 &amp; "_" &amp; D23 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2014012173/3_5.wav</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B24" s="1">
         <v>2014012337</v>
@@ -2952,16 +2959,16 @@
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B24 &amp; "/" &amp; C24 &amp; "_" &amp; D24 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2014012337/5_5.wav</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B25" s="1">
         <v>2014012991</v>
@@ -2973,16 +2980,16 @@
         <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B25 &amp; "/" &amp; C25 &amp; "_" &amp; D25 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2014012991/6_5.wav</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B26" s="1">
         <v>2014013072</v>
@@ -2994,16 +3001,16 @@
         <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B26 &amp; "/" &amp; C26 &amp; "_" &amp; D26 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2014013072/1_5.wav</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B27" s="1">
         <v>2014013076</v>
@@ -3015,16 +3022,16 @@
         <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B27 &amp; "/" &amp; C27 &amp; "_" &amp; D27 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2014013076/12_5.wav</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B28" s="1">
         <v>2014013409</v>
@@ -3036,16 +3043,16 @@
         <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B28 &amp; "/" &amp; C28 &amp; "_" &amp; D28 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2014013409/9_5.wav</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B29" s="1">
         <v>2014620840</v>
@@ -3057,16 +3064,16 @@
         <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B29 &amp; "/" &amp; C29 &amp; "_" &amp; D29 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2014620840/7_5.wav</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B30" s="1">
         <v>2011010412</v>
@@ -3078,16 +3085,16 @@
         <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B30 &amp; "/" &amp; C30 &amp; "_" &amp; D30 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2011010412/1_7.wav</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B31" s="1">
         <v>2011011235</v>
@@ -3099,16 +3106,16 @@
         <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B31 &amp; "/" &amp; C31 &amp; "_" &amp; D31 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2011011235/5_7.wav</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B32" s="1">
         <v>2011011239</v>
@@ -3120,16 +3127,16 @@
         <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B32 &amp; "/" &amp; C32 &amp; "_" &amp; D32 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2011011239/5_7.wav</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B33" s="1">
         <v>2011011254</v>
@@ -3141,7 +3148,7 @@
         <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F33" s="1" t="str">
         <f>F31</f>
@@ -3150,7 +3157,7 @@
     </row>
     <row r="34" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B34" s="1">
         <v>2011011268</v>
@@ -3162,16 +3169,16 @@
         <v>7</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B34 &amp; "/" &amp; C34 &amp; "_" &amp; D34 &amp; ".wav"</f>
+        <f t="shared" ref="F34:F97" si="1">"http://59.66.209.26:23380/wav/" &amp; B34 &amp; "/" &amp; C34 &amp; "_" &amp; D34 &amp; ".wav"</f>
         <v>http://59.66.209.26:23380/wav/2011011268/7_7.wav</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B35" s="1">
         <v>2011012703</v>
@@ -3183,16 +3190,16 @@
         <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B35 &amp; "/" &amp; C35 &amp; "_" &amp; D35 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2011012703/5_7.wav</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B36" s="1">
         <v>2012011297</v>
@@ -3204,16 +3211,16 @@
         <v>7</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B36 &amp; "/" &amp; C36 &amp; "_" &amp; D36 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2012011297/11_7.wav</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B37" s="1">
         <v>2012012731</v>
@@ -3225,16 +3232,16 @@
         <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B37 &amp; "/" &amp; C37 &amp; "_" &amp; D37 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2012012731/1_7.wav</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B38" s="1">
         <v>2013010773</v>
@@ -3246,16 +3253,16 @@
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B38 &amp; "/" &amp; C38 &amp; "_" &amp; D38 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013010773/5_7.wav</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B39" s="1">
         <v>2013010775</v>
@@ -3267,16 +3274,16 @@
         <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B39 &amp; "/" &amp; C39 &amp; "_" &amp; D39 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013010775/6_7.wav</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B40" s="1">
         <v>2013011103</v>
@@ -3288,16 +3295,16 @@
         <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F40" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B40 &amp; "/" &amp; C40 &amp; "_" &amp; D40 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013011103/5_7.wav</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B41" s="1">
         <v>2013011392</v>
@@ -3309,16 +3316,16 @@
         <v>7</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B41 &amp; "/" &amp; C41 &amp; "_" &amp; D41 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013011392/2_7.wav</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B42" s="1">
         <v>2013011395</v>
@@ -3330,16 +3337,16 @@
         <v>7</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B42 &amp; "/" &amp; C42 &amp; "_" &amp; D42 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013011395/2_7.wav</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B43" s="1">
         <v>2013011400</v>
@@ -3351,16 +3358,16 @@
         <v>7</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B43 &amp; "/" &amp; C43 &amp; "_" &amp; D43 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013011400/1_7.wav</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B44" s="1">
         <v>2013011429</v>
@@ -3372,16 +3379,16 @@
         <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B44 &amp; "/" &amp; C44 &amp; "_" &amp; D44 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013011429/11_7.wav</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B45" s="1">
         <v>2013011437</v>
@@ -3393,16 +3400,16 @@
         <v>7</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B45 &amp; "/" &amp; C45 &amp; "_" &amp; D45 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013011437/12_7.wav</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B46" s="1">
         <v>2013012946</v>
@@ -3414,16 +3421,16 @@
         <v>7</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B46 &amp; "/" &amp; C46 &amp; "_" &amp; D46 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013012946/9_7.wav</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B47" s="1">
         <v>2013012949</v>
@@ -3435,16 +3442,16 @@
         <v>7</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B47 &amp; "/" &amp; C47 &amp; "_" &amp; D47 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013012949/8_7.wav</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B48" s="1">
         <v>2013013014</v>
@@ -3456,16 +3463,16 @@
         <v>7</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B48 &amp; "/" &amp; C48 &amp; "_" &amp; D48 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013013014/11_7.wav</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B49" s="1">
         <v>2014010219</v>
@@ -3477,16 +3484,16 @@
         <v>7</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B49 &amp; "/" &amp; C49 &amp; "_" &amp; D49 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014010219/2_7.wav</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B50" s="1">
         <v>2014010728</v>
@@ -3498,16 +3505,16 @@
         <v>7</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B50 &amp; "/" &amp; C50 &amp; "_" &amp; D50 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014010728/3_7.wav</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B51" s="1">
         <v>2014011004</v>
@@ -3519,16 +3526,16 @@
         <v>7</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B51 &amp; "/" &amp; C51 &amp; "_" &amp; D51 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014011004/8_7.wav</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B52" s="1">
         <v>2014012173</v>
@@ -3540,16 +3547,16 @@
         <v>7</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B52 &amp; "/" &amp; C52 &amp; "_" &amp; D52 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014012173/7_7.wav</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B53" s="1">
         <v>2014012337</v>
@@ -3561,16 +3568,16 @@
         <v>7</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B53 &amp; "/" &amp; C53 &amp; "_" &amp; D53 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014012337/4_7.wav</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B54" s="1">
         <v>2014012991</v>
@@ -3582,16 +3589,16 @@
         <v>7</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B54 &amp; "/" &amp; C54 &amp; "_" &amp; D54 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014012991/3_7.wav</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B55" s="1">
         <v>2014013072</v>
@@ -3603,16 +3610,16 @@
         <v>7</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B55 &amp; "/" &amp; C55 &amp; "_" &amp; D55 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014013072/12_7.wav</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B56" s="1">
         <v>2014013076</v>
@@ -3624,16 +3631,16 @@
         <v>7</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B56 &amp; "/" &amp; C56 &amp; "_" &amp; D56 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014013076/10_7.wav</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B57" s="1">
         <v>2014013409</v>
@@ -3645,16 +3652,16 @@
         <v>7</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B57 &amp; "/" &amp; C57 &amp; "_" &amp; D57 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014013409/8_7.wav</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B58" s="1">
         <v>2014620840</v>
@@ -3666,16 +3673,16 @@
         <v>7</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B58 &amp; "/" &amp; C58 &amp; "_" &amp; D58 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014620840/8_7.wav</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B59" s="1">
         <v>2011010412</v>
@@ -3687,16 +3694,16 @@
         <v>8</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B59 &amp; "/" &amp; C59 &amp; "_" &amp; D59 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2011010412/10_8.wav</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B60" s="1">
         <v>2011011235</v>
@@ -3708,16 +3715,16 @@
         <v>8</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B60 &amp; "/" &amp; C60 &amp; "_" &amp; D60 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2011011235/4_8.wav</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B61" s="1">
         <v>2011011239</v>
@@ -3729,16 +3736,16 @@
         <v>8</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B61 &amp; "/" &amp; C61 &amp; "_" &amp; D61 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2011011239/1_8.wav</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B62" s="1">
         <v>2011011254</v>
@@ -3750,16 +3757,16 @@
         <v>8</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B62 &amp; "/" &amp; C62 &amp; "_" &amp; D62 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2011011254/8_8.wav</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B63" s="1">
         <v>2011011268</v>
@@ -3771,16 +3778,16 @@
         <v>8</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B63 &amp; "/" &amp; C63 &amp; "_" &amp; D63 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2011011268/1_8.wav</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B64" s="1">
         <v>2011012703</v>
@@ -3792,16 +3799,16 @@
         <v>8</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B64 &amp; "/" &amp; C64 &amp; "_" &amp; D64 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2011012703/6_8.wav</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B65" s="1">
         <v>2012011297</v>
@@ -3813,16 +3820,16 @@
         <v>8</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B65 &amp; "/" &amp; C65 &amp; "_" &amp; D65 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2012011297/3_8.wav</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B66" s="1">
         <v>2012012731</v>
@@ -3834,16 +3841,16 @@
         <v>8</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B66 &amp; "/" &amp; C66 &amp; "_" &amp; D66 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2012012731/8_8.wav</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B67" s="1">
         <v>2013010773</v>
@@ -3855,16 +3862,16 @@
         <v>8</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B67 &amp; "/" &amp; C67 &amp; "_" &amp; D67 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013010773/7_8.wav</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B68" s="1">
         <v>2013010775</v>
@@ -3876,16 +3883,16 @@
         <v>8</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B68 &amp; "/" &amp; C68 &amp; "_" &amp; D68 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013010775/12_8.wav</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B69" s="1">
         <v>2013011103</v>
@@ -3897,16 +3904,16 @@
         <v>8</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B69 &amp; "/" &amp; C69 &amp; "_" &amp; D69 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013011103/7_8.wav</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B70" s="1">
         <v>2013011392</v>
@@ -3918,16 +3925,16 @@
         <v>8</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B70 &amp; "/" &amp; C70 &amp; "_" &amp; D70 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013011392/8_8.wav</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B71" s="1">
         <v>2013011395</v>
@@ -3939,16 +3946,16 @@
         <v>8</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B71 &amp; "/" &amp; C71 &amp; "_" &amp; D71 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013011395/8_8.wav</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B72" s="1">
         <v>2013011400</v>
@@ -3960,16 +3967,16 @@
         <v>8</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B72 &amp; "/" &amp; C72 &amp; "_" &amp; D72 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013011400/4_8.wav</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B73" s="1">
         <v>2013011429</v>
@@ -3981,16 +3988,16 @@
         <v>8</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B73 &amp; "/" &amp; C73 &amp; "_" &amp; D73 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013011429/12_8.wav</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B74" s="1">
         <v>2013011437</v>
@@ -4002,16 +4009,16 @@
         <v>8</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F74" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B74 &amp; "/" &amp; C74 &amp; "_" &amp; D74 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013011437/4_8.wav</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B75" s="1">
         <v>2013012946</v>
@@ -4023,16 +4030,16 @@
         <v>8</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F75" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B75 &amp; "/" &amp; C75 &amp; "_" &amp; D75 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013012946/8_8.wav</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B76" s="1">
         <v>2013012949</v>
@@ -4044,16 +4051,16 @@
         <v>8</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B76 &amp; "/" &amp; C76 &amp; "_" &amp; D76 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013012949/3_8.wav</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B77" s="1">
         <v>2013013014</v>
@@ -4065,16 +4072,16 @@
         <v>8</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F77" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B77 &amp; "/" &amp; C77 &amp; "_" &amp; D77 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013013014/3_8.wav</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B78" s="1">
         <v>2014010219</v>
@@ -4086,16 +4093,16 @@
         <v>8</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F78" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B78 &amp; "/" &amp; C78 &amp; "_" &amp; D78 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014010219/5_8.wav</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B79" s="1">
         <v>2014010728</v>
@@ -4107,16 +4114,16 @@
         <v>8</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B79 &amp; "/" &amp; C79 &amp; "_" &amp; D79 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014010728/4_8.wav</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B80" s="1">
         <v>2014011004</v>
@@ -4128,16 +4135,16 @@
         <v>8</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B80 &amp; "/" &amp; C80 &amp; "_" &amp; D80 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014011004/12_8.wav</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B81" s="1">
         <v>2014012173</v>
@@ -4149,16 +4156,16 @@
         <v>8</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F81" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B81 &amp; "/" &amp; C81 &amp; "_" &amp; D81 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014012173/6_8.wav</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B82" s="1">
         <v>2014012337</v>
@@ -4170,16 +4177,16 @@
         <v>8</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F82" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B82 &amp; "/" &amp; C82 &amp; "_" &amp; D82 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014012337/10_8.wav</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B83" s="1">
         <v>2014012991</v>
@@ -4191,16 +4198,16 @@
         <v>8</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F83" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B83 &amp; "/" &amp; C83 &amp; "_" &amp; D83 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014012991/1_8.wav</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B84" s="1">
         <v>2014013072</v>
@@ -4212,16 +4219,16 @@
         <v>8</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F84" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B84 &amp; "/" &amp; C84 &amp; "_" &amp; D84 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014013072/7_8.wav</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B85" s="1">
         <v>2014013076</v>
@@ -4233,16 +4240,16 @@
         <v>8</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F85" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B85 &amp; "/" &amp; C85 &amp; "_" &amp; D85 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014013076/3_8.wav</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B86" s="1">
         <v>2014013409</v>
@@ -4254,16 +4261,16 @@
         <v>8</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F86" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B86 &amp; "/" &amp; C86 &amp; "_" &amp; D86 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014013409/5_8.wav</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B87" s="1">
         <v>2014620840</v>
@@ -4275,16 +4282,16 @@
         <v>8</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F87" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B87 &amp; "/" &amp; C87 &amp; "_" &amp; D87 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014620840/4_8.wav</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B88" s="1">
         <v>2011010412</v>
@@ -4296,16 +4303,16 @@
         <v>9</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F88" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B88 &amp; "/" &amp; C88 &amp; "_" &amp; D88 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2011010412/3_9.wav</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B89" s="1">
         <v>2011011235</v>
@@ -4317,16 +4324,16 @@
         <v>9</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F89" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B89 &amp; "/" &amp; C89 &amp; "_" &amp; D89 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2011011235/3_9.wav</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B90" s="1">
         <v>2011011239</v>
@@ -4338,16 +4345,16 @@
         <v>9</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F90" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B90 &amp; "/" &amp; C90 &amp; "_" &amp; D90 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2011011239/3_9.wav</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B91" s="1">
         <v>2011011254</v>
@@ -4359,16 +4366,16 @@
         <v>9</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B91 &amp; "/" &amp; C91 &amp; "_" &amp; D91 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2011011254/4_9.wav</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B92" s="1">
         <v>2011011268</v>
@@ -4380,16 +4387,16 @@
         <v>9</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F92" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B92 &amp; "/" &amp; C92 &amp; "_" &amp; D92 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2011011268/8_9.wav</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B93" s="1">
         <v>2011012703</v>
@@ -4401,16 +4408,16 @@
         <v>9</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F93" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B93 &amp; "/" &amp; C93 &amp; "_" &amp; D93 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2011012703/3_9.wav</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B94" s="1">
         <v>2012011297</v>
@@ -4422,16 +4429,16 @@
         <v>9</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B94 &amp; "/" &amp; C94 &amp; "_" &amp; D94 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2012011297/2_9.wav</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B95" s="1">
         <v>2012012731</v>
@@ -4443,16 +4450,16 @@
         <v>9</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B95 &amp; "/" &amp; C95 &amp; "_" &amp; D95 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2012012731/5_9.wav</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B96" s="1">
         <v>2013010773</v>
@@ -4464,16 +4471,16 @@
         <v>9</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B96 &amp; "/" &amp; C96 &amp; "_" &amp; D96 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013010773/1_9.wav</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B97" s="1">
         <v>2013010775</v>
@@ -4485,16 +4492,16 @@
         <v>9</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F97" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B97 &amp; "/" &amp; C97 &amp; "_" &amp; D97 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013010775/5_9.wav</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B98" s="1">
         <v>2013011103</v>
@@ -4506,16 +4513,16 @@
         <v>9</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F98" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B98 &amp; "/" &amp; C98 &amp; "_" &amp; D98 &amp; ".wav"</f>
+        <f t="shared" ref="F98:F161" si="2">"http://59.66.209.26:23380/wav/" &amp; B98 &amp; "/" &amp; C98 &amp; "_" &amp; D98 &amp; ".wav"</f>
         <v>http://59.66.209.26:23380/wav/2013011103/3_9.wav</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B99" s="1">
         <v>2013011392</v>
@@ -4527,16 +4534,16 @@
         <v>9</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F99" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B99 &amp; "/" &amp; C99 &amp; "_" &amp; D99 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013011392/9_9.wav</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B100" s="1">
         <v>2013011395</v>
@@ -4548,16 +4555,16 @@
         <v>9</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F100" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B100 &amp; "/" &amp; C100 &amp; "_" &amp; D100 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013011395/12_9.wav</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B101" s="1">
         <v>2013011400</v>
@@ -4569,16 +4576,16 @@
         <v>9</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F101" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B101 &amp; "/" &amp; C101 &amp; "_" &amp; D101 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013011400/10_9.wav</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B102" s="1">
         <v>2013011429</v>
@@ -4590,16 +4597,16 @@
         <v>9</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F102" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B102 &amp; "/" &amp; C102 &amp; "_" &amp; D102 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013011429/10_9.wav</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B103" s="1">
         <v>2013011437</v>
@@ -4611,16 +4618,16 @@
         <v>9</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F103" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B103 &amp; "/" &amp; C103 &amp; "_" &amp; D103 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013011437/2_9.wav</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B104" s="1">
         <v>2013012946</v>
@@ -4632,16 +4639,16 @@
         <v>9</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F104" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B104 &amp; "/" &amp; C104 &amp; "_" &amp; D104 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013012946/6_9.wav</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B105" s="1">
         <v>2013012949</v>
@@ -4653,16 +4660,16 @@
         <v>9</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F105" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B105 &amp; "/" &amp; C105 &amp; "_" &amp; D105 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013012949/10_9.wav</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B106" s="1">
         <v>2013013014</v>
@@ -4674,16 +4681,16 @@
         <v>9</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F106" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B106 &amp; "/" &amp; C106 &amp; "_" &amp; D106 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013013014/10_9.wav</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B107" s="1">
         <v>2014010219</v>
@@ -4695,16 +4702,16 @@
         <v>9</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F107" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B107 &amp; "/" &amp; C107 &amp; "_" &amp; D107 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014010219/3_9.wav</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B108" s="1">
         <v>2014010728</v>
@@ -4716,16 +4723,16 @@
         <v>9</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F108" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B108 &amp; "/" &amp; C108 &amp; "_" &amp; D108 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014010728/8_9.wav</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B109" s="1">
         <v>2014011004</v>
@@ -4737,16 +4744,16 @@
         <v>9</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F109" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B109 &amp; "/" &amp; C109 &amp; "_" &amp; D109 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014011004/6_9.wav</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B110" s="1">
         <v>2014012173</v>
@@ -4758,16 +4765,16 @@
         <v>9</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F110" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B110 &amp; "/" &amp; C110 &amp; "_" &amp; D110 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014012173/9_9.wav</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B111" s="1">
         <v>2014012337</v>
@@ -4779,16 +4786,16 @@
         <v>9</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F111" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B111 &amp; "/" &amp; C111 &amp; "_" &amp; D111 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014012337/11_9.wav</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B112" s="1">
         <v>2014012991</v>
@@ -4800,16 +4807,16 @@
         <v>9</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F112" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B112 &amp; "/" &amp; C112 &amp; "_" &amp; D112 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014012991/8_9.wav</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B113" s="1">
         <v>2014013072</v>
@@ -4821,16 +4828,16 @@
         <v>9</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F113" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B113 &amp; "/" &amp; C113 &amp; "_" &amp; D113 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014013072/3_9.wav</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B114" s="1">
         <v>2014013076</v>
@@ -4842,16 +4849,16 @@
         <v>9</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F114" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B114 &amp; "/" &amp; C114 &amp; "_" &amp; D114 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014013076/5_9.wav</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B115" s="1">
         <v>2014013409</v>
@@ -4863,16 +4870,16 @@
         <v>9</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F115" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B115 &amp; "/" &amp; C115 &amp; "_" &amp; D115 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014013409/6_9.wav</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B116" s="1">
         <v>2014620840</v>
@@ -4884,16 +4891,16 @@
         <v>9</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F116" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B116 &amp; "/" &amp; C116 &amp; "_" &amp; D116 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014620840/12_9.wav</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B117" s="1">
         <v>2011010412</v>
@@ -4905,16 +4912,16 @@
         <v>11</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F117" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B117 &amp; "/" &amp; C117 &amp; "_" &amp; D117 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2011010412/11_11.wav</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B118" s="1">
         <v>2011011235</v>
@@ -4926,16 +4933,16 @@
         <v>11</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F118" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B118 &amp; "/" &amp; C118 &amp; "_" &amp; D118 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2011011235/7_11.wav</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B119" s="1">
         <v>2011011239</v>
@@ -4947,16 +4954,16 @@
         <v>11</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F119" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B119 &amp; "/" &amp; C119 &amp; "_" &amp; D119 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2011011239/8_11.wav</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B120" s="1">
         <v>2011011254</v>
@@ -4968,16 +4975,16 @@
         <v>11</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F120" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B120 &amp; "/" &amp; C120 &amp; "_" &amp; D120 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2011011254/1_11.wav</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B121" s="1">
         <v>2011011268</v>
@@ -4989,16 +4996,16 @@
         <v>11</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F121" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B121 &amp; "/" &amp; C121 &amp; "_" &amp; D121 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2011011268/3_11.wav</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B122" s="1">
         <v>2011012703</v>
@@ -5010,16 +5017,16 @@
         <v>11</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F122" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B122 &amp; "/" &amp; C122 &amp; "_" &amp; D122 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2011012703/4_11.wav</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B123" s="1">
         <v>2012011297</v>
@@ -5031,16 +5038,16 @@
         <v>11</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F123" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B123 &amp; "/" &amp; C123 &amp; "_" &amp; D123 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2012011297/6_11.wav</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B124" s="1">
         <v>2012012731</v>
@@ -5052,16 +5059,16 @@
         <v>11</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F124" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B124 &amp; "/" &amp; C124 &amp; "_" &amp; D124 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2012012731/9_11.wav</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B125" s="1">
         <v>2013010773</v>
@@ -5073,16 +5080,16 @@
         <v>11</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F125" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B125 &amp; "/" &amp; C125 &amp; "_" &amp; D125 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013010773/10_11.wav</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B126" s="1">
         <v>2013010775</v>
@@ -5094,16 +5101,16 @@
         <v>11</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F126" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B126 &amp; "/" &amp; C126 &amp; "_" &amp; D126 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013010775/3_11.wav</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B127" s="1">
         <v>2013011103</v>
@@ -5115,16 +5122,16 @@
         <v>11</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F127" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B127 &amp; "/" &amp; C127 &amp; "_" &amp; D127 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013011103/8_11.wav</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B128" s="1">
         <v>2013011392</v>
@@ -5136,16 +5143,16 @@
         <v>11</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F128" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B128 &amp; "/" &amp; C128 &amp; "_" &amp; D128 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013011392/3_11.wav</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B129" s="1">
         <v>2013011395</v>
@@ -5157,16 +5164,16 @@
         <v>11</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F129" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B129 &amp; "/" &amp; C129 &amp; "_" &amp; D129 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013011395/1_11.wav</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B130" s="1">
         <v>2013011400</v>
@@ -5178,16 +5185,16 @@
         <v>11</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F130" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B130 &amp; "/" &amp; C130 &amp; "_" &amp; D130 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013011400/9_11.wav</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B131" s="1">
         <v>2013011429</v>
@@ -5199,16 +5206,16 @@
         <v>11</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F131" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B131 &amp; "/" &amp; C131 &amp; "_" &amp; D131 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013011429/7_11.wav</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B132" s="1">
         <v>2013011437</v>
@@ -5220,16 +5227,16 @@
         <v>11</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F132" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B132 &amp; "/" &amp; C132 &amp; "_" &amp; D132 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013011437/3_11.wav</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B133" s="1">
         <v>2013012946</v>
@@ -5241,16 +5248,16 @@
         <v>11</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F133" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B133 &amp; "/" &amp; C133 &amp; "_" &amp; D133 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013012946/3_11.wav</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B134" s="1">
         <v>2013012949</v>
@@ -5262,16 +5269,16 @@
         <v>11</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F134" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B134 &amp; "/" &amp; C134 &amp; "_" &amp; D134 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013012949/12_11.wav</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B135" s="1">
         <v>2013013014</v>
@@ -5283,16 +5290,16 @@
         <v>11</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F135" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B135 &amp; "/" &amp; C135 &amp; "_" &amp; D135 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013013014/6_11.wav</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B136" s="1">
         <v>2014010219</v>
@@ -5304,16 +5311,16 @@
         <v>11</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F136" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B136 &amp; "/" &amp; C136 &amp; "_" &amp; D136 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014010219/7_11.wav</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B137" s="1">
         <v>2014010728</v>
@@ -5325,16 +5332,16 @@
         <v>11</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F137" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B137 &amp; "/" &amp; C137 &amp; "_" &amp; D137 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014010728/9_11.wav</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B138" s="1">
         <v>2014011004</v>
@@ -5346,16 +5353,16 @@
         <v>11</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F138" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B138 &amp; "/" &amp; C138 &amp; "_" &amp; D138 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014011004/4_11.wav</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B139" s="1">
         <v>2014012173</v>
@@ -5367,16 +5374,16 @@
         <v>11</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F139" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B139 &amp; "/" &amp; C139 &amp; "_" &amp; D139 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014012173/11_11.wav</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B140" s="1">
         <v>2014012337</v>
@@ -5388,16 +5395,16 @@
         <v>11</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F140" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B140 &amp; "/" &amp; C140 &amp; "_" &amp; D140 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014012337/3_11.wav</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B141" s="1">
         <v>2014012991</v>
@@ -5409,16 +5416,16 @@
         <v>11</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F141" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B141 &amp; "/" &amp; C141 &amp; "_" &amp; D141 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014012991/12_11.wav</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B142" s="1">
         <v>2014013072</v>
@@ -5430,16 +5437,16 @@
         <v>11</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F142" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B142 &amp; "/" &amp; C142 &amp; "_" &amp; D142 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014013072/8_11.wav</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B143" s="1">
         <v>2014013076</v>
@@ -5451,16 +5458,16 @@
         <v>11</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F143" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B143 &amp; "/" &amp; C143 &amp; "_" &amp; D143 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014013076/7_11.wav</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B144" s="1">
         <v>2014013409</v>
@@ -5472,16 +5479,16 @@
         <v>11</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F144" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B144 &amp; "/" &amp; C144 &amp; "_" &amp; D144 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014013409/11_11.wav</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B145" s="1">
         <v>2014620840</v>
@@ -5493,16 +5500,16 @@
         <v>11</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F145" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B145 &amp; "/" &amp; C145 &amp; "_" &amp; D145 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014620840/9_11.wav</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B146" s="1">
         <v>2011010412</v>
@@ -5514,16 +5521,16 @@
         <v>12</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F146" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B146 &amp; "/" &amp; C146 &amp; "_" &amp; D146 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2011010412/8_12.wav</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B147" s="1">
         <v>2011011235</v>
@@ -5535,16 +5542,16 @@
         <v>12</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F147" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B147 &amp; "/" &amp; C147 &amp; "_" &amp; D147 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2011011235/1_12.wav</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B148" s="1">
         <v>2011011239</v>
@@ -5556,16 +5563,16 @@
         <v>12</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F148" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B148 &amp; "/" &amp; C148 &amp; "_" &amp; D148 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2011011239/2_12.wav</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B149" s="1">
         <v>2011011254</v>
@@ -5577,16 +5584,16 @@
         <v>12</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F149" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B149 &amp; "/" &amp; C149 &amp; "_" &amp; D149 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2011011254/11_12.wav</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B150" s="1">
         <v>2011011268</v>
@@ -5598,16 +5605,16 @@
         <v>12</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F150" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B150 &amp; "/" &amp; C150 &amp; "_" &amp; D150 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2011011268/11_12.wav</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B151" s="1">
         <v>2011012703</v>
@@ -5619,16 +5626,16 @@
         <v>12</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F151" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B151 &amp; "/" &amp; C151 &amp; "_" &amp; D151 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2011012703/12_12.wav</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B152" s="1">
         <v>2012011297</v>
@@ -5640,16 +5647,16 @@
         <v>12</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F152" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B152 &amp; "/" &amp; C152 &amp; "_" &amp; D152 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2012011297/9_12.wav</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B153" s="1">
         <v>2012012731</v>
@@ -5661,16 +5668,16 @@
         <v>12</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F153" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B153 &amp; "/" &amp; C153 &amp; "_" &amp; D153 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2012012731/11_12.wav</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B154" s="1">
         <v>2013010773</v>
@@ -5682,16 +5689,16 @@
         <v>12</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F154" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B154 &amp; "/" &amp; C154 &amp; "_" &amp; D154 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013010773/12_12.wav</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B155" s="1">
         <v>2013010775</v>
@@ -5703,16 +5710,16 @@
         <v>12</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F155" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B155 &amp; "/" &amp; C155 &amp; "_" &amp; D155 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013010775/7_12.wav</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B156" s="1">
         <v>2013011103</v>
@@ -5724,16 +5731,16 @@
         <v>12</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F156" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B156 &amp; "/" &amp; C156 &amp; "_" &amp; D156 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013011103/11_12.wav</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B157" s="1">
         <v>2013011392</v>
@@ -5745,16 +5752,16 @@
         <v>12</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F157" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B157 &amp; "/" &amp; C157 &amp; "_" &amp; D157 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013011392/11_12.wav</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B158" s="1">
         <v>2013011395</v>
@@ -5766,16 +5773,16 @@
         <v>12</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F158" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B158 &amp; "/" &amp; C158 &amp; "_" &amp; D158 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013011395/5_12.wav</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B159" s="1">
         <v>2013011400</v>
@@ -5787,16 +5794,16 @@
         <v>12</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F159" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B159 &amp; "/" &amp; C159 &amp; "_" &amp; D159 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013011400/2_12.wav</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B160" s="1">
         <v>2013011429</v>
@@ -5808,16 +5815,16 @@
         <v>12</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F160" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B160 &amp; "/" &amp; C160 &amp; "_" &amp; D160 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013011429/8_12.wav</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B161" s="1">
         <v>2013011437</v>
@@ -5829,16 +5836,16 @@
         <v>12</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F161" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B161 &amp; "/" &amp; C161 &amp; "_" &amp; D161 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013011437/10_12.wav</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B162" s="1">
         <v>2013012946</v>
@@ -5850,16 +5857,16 @@
         <v>12</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F162" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B162 &amp; "/" &amp; C162 &amp; "_" &amp; D162 &amp; ".wav"</f>
+        <f t="shared" ref="F162:F225" si="3">"http://59.66.209.26:23380/wav/" &amp; B162 &amp; "/" &amp; C162 &amp; "_" &amp; D162 &amp; ".wav"</f>
         <v>http://59.66.209.26:23380/wav/2013012946/4_12.wav</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B163" s="1">
         <v>2013012949</v>
@@ -5871,16 +5878,16 @@
         <v>12</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F163" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B163 &amp; "/" &amp; C163 &amp; "_" &amp; D163 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013012949/9_12.wav</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B164" s="1">
         <v>2013013014</v>
@@ -5892,16 +5899,16 @@
         <v>12</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F164" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B164 &amp; "/" &amp; C164 &amp; "_" &amp; D164 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013013014/1_12.wav</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B165" s="1">
         <v>2014010219</v>
@@ -5913,16 +5920,16 @@
         <v>12</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F165" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B165 &amp; "/" &amp; C165 &amp; "_" &amp; D165 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014010219/11_12.wav</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B166" s="1">
         <v>2014010728</v>
@@ -5934,16 +5941,16 @@
         <v>12</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F166" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B166 &amp; "/" &amp; C166 &amp; "_" &amp; D166 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014010728/1_12.wav</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B167" s="1">
         <v>2014011004</v>
@@ -5955,16 +5962,16 @@
         <v>12</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F167" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B167 &amp; "/" &amp; C167 &amp; "_" &amp; D167 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014011004/11_12.wav</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B168" s="1">
         <v>2014012173</v>
@@ -5976,16 +5983,16 @@
         <v>12</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F168" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B168 &amp; "/" &amp; C168 &amp; "_" &amp; D168 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014012173/8_12.wav</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B169" s="1">
         <v>2014012337</v>
@@ -5997,16 +6004,16 @@
         <v>12</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F169" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B169 &amp; "/" &amp; C169 &amp; "_" &amp; D169 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014012337/8_12.wav</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B170" s="1">
         <v>2014012991</v>
@@ -6018,16 +6025,16 @@
         <v>12</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F170" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B170 &amp; "/" &amp; C170 &amp; "_" &amp; D170 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014012991/11_12.wav</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B171" s="1">
         <v>2014013072</v>
@@ -6039,16 +6046,16 @@
         <v>12</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F171" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B171 &amp; "/" &amp; C171 &amp; "_" &amp; D171 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014013072/2_12.wav</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B172" s="1">
         <v>2014013076</v>
@@ -6060,16 +6067,16 @@
         <v>12</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F172" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B172 &amp; "/" &amp; C172 &amp; "_" &amp; D172 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014013076/6_12.wav</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B173" s="1">
         <v>2014013409</v>
@@ -6081,31 +6088,31 @@
         <v>12</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F173" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B173 &amp; "/" &amp; C173 &amp; "_" &amp; D173 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014013409/2_12.wav</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B174" s="1">
         <v>2014620840</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D174" s="2">
         <v>12</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F174" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B174 &amp; "/" &amp; C174 &amp; "_" &amp; D174 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014620840/ _12.wav</v>
       </c>
     </row>
@@ -6117,14 +6124,14 @@
       <c r="C175" s="1">
         <v>9</v>
       </c>
-      <c r="D175" s="1">
+      <c r="D175" s="2">
         <v>1</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>4</v>
+        <v>341</v>
       </c>
       <c r="F175" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B175 &amp; "/" &amp; C175 &amp; "_" &amp; D175 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2011010412/9_1.wav</v>
       </c>
     </row>
@@ -6136,18 +6143,18 @@
       <c r="C176" s="1">
         <v>10</v>
       </c>
-      <c r="D176" s="1">
+      <c r="D176" s="2">
         <v>1</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>5</v>
+        <v>342</v>
       </c>
       <c r="F176" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B176 &amp; "/" &amp; C176 &amp; "_" &amp; D176 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2011011235/10_1.wav</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A177" s="1"/>
       <c r="B177" s="1">
         <v>2011011239</v>
@@ -6155,12 +6162,14 @@
       <c r="C177" s="1">
         <v>7</v>
       </c>
-      <c r="D177" s="1">
+      <c r="D177" s="2">
         <v>1</v>
       </c>
-      <c r="E177" s="1"/>
+      <c r="E177" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="F177" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B177 &amp; "/" &amp; C177 &amp; "_" &amp; D177 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2011011239/7_1.wav</v>
       </c>
     </row>
@@ -6172,14 +6181,14 @@
       <c r="C178" s="1">
         <v>10</v>
       </c>
-      <c r="D178" s="1">
+      <c r="D178" s="2">
         <v>1</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>14</v>
+        <v>344</v>
       </c>
       <c r="F178" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B178 &amp; "/" &amp; C178 &amp; "_" &amp; D178 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2011011254/10_1.wav</v>
       </c>
     </row>
@@ -6191,14 +6200,14 @@
       <c r="C179" s="1">
         <v>5</v>
       </c>
-      <c r="D179" s="1">
+      <c r="D179" s="2">
         <v>1</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>22</v>
+        <v>345</v>
       </c>
       <c r="F179" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B179 &amp; "/" &amp; C179 &amp; "_" &amp; D179 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2011011268/5_1.wav</v>
       </c>
     </row>
@@ -6210,14 +6219,14 @@
       <c r="C180" s="1">
         <v>2</v>
       </c>
-      <c r="D180" s="1">
+      <c r="D180" s="2">
         <v>1</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>26</v>
+        <v>346</v>
       </c>
       <c r="F180" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B180 &amp; "/" &amp; C180 &amp; "_" &amp; D180 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2011012703/2_1.wav</v>
       </c>
     </row>
@@ -6233,10 +6242,10 @@
         <v>1</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>28</v>
+        <v>347</v>
       </c>
       <c r="F181" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B181 &amp; "/" &amp; C181 &amp; "_" &amp; D181 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2012011297/10_1.wav</v>
       </c>
     </row>
@@ -6252,10 +6261,10 @@
         <v>1</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F182" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B182 &amp; "/" &amp; C182 &amp; "_" &amp; D182 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2012012731/6_1.wav</v>
       </c>
     </row>
@@ -6271,10 +6280,10 @@
         <v>1</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F183" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B183 &amp; "/" &amp; C183 &amp; "_" &amp; D183 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013010773/4_1.wav</v>
       </c>
     </row>
@@ -6291,7 +6300,7 @@
       </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B184 &amp; "/" &amp; C184 &amp; "_" &amp; D184 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013010775/4_1.wav</v>
       </c>
     </row>
@@ -6307,10 +6316,10 @@
         <v>1</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F185" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B185 &amp; "/" &amp; C185 &amp; "_" &amp; D185 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013011103/10_1.wav</v>
       </c>
     </row>
@@ -6326,10 +6335,10 @@
         <v>1</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F186" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B186 &amp; "/" &amp; C186 &amp; "_" &amp; D186 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013011392/7_1.wav</v>
       </c>
     </row>
@@ -6345,10 +6354,10 @@
         <v>1</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F187" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B187 &amp; "/" &amp; C187 &amp; "_" &amp; D187 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013011395/9_1.wav</v>
       </c>
     </row>
@@ -6364,10 +6373,10 @@
         <v>1</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F188" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B188 &amp; "/" &amp; C188 &amp; "_" &amp; D188 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013011400/3_1.wav</v>
       </c>
     </row>
@@ -6383,10 +6392,10 @@
         <v>1</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F189" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B189 &amp; "/" &amp; C189 &amp; "_" &amp; D189 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013011429/2_1.wav</v>
       </c>
     </row>
@@ -6402,10 +6411,10 @@
         <v>1</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F190" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B190 &amp; "/" &amp; C190 &amp; "_" &amp; D190 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013011437/6_1.wav</v>
       </c>
     </row>
@@ -6421,10 +6430,10 @@
         <v>1</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F191" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B191 &amp; "/" &amp; C191 &amp; "_" &amp; D191 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013012946/2_1.wav</v>
       </c>
     </row>
@@ -6440,10 +6449,10 @@
         <v>1</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F192" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B192 &amp; "/" &amp; C192 &amp; "_" &amp; D192 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013012949/4_1.wav</v>
       </c>
     </row>
@@ -6459,10 +6468,10 @@
         <v>1</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F193" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B193 &amp; "/" &amp; C193 &amp; "_" &amp; D193 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013013014/12_1.wav</v>
       </c>
     </row>
@@ -6478,10 +6487,10 @@
         <v>1</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F194" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B194 &amp; "/" &amp; C194 &amp; "_" &amp; D194 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014010219/8_1.wav</v>
       </c>
     </row>
@@ -6497,10 +6506,10 @@
         <v>1</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F195" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B195 &amp; "/" &amp; C195 &amp; "_" &amp; D195 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014010728/10_1.wav</v>
       </c>
     </row>
@@ -6516,10 +6525,10 @@
         <v>1</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F196" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B196 &amp; "/" &amp; C196 &amp; "_" &amp; D196 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014011004/1_1.wav</v>
       </c>
     </row>
@@ -6535,10 +6544,10 @@
         <v>1</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F197" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B197 &amp; "/" &amp; C197 &amp; "_" &amp; D197 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014012173/1_1.wav</v>
       </c>
     </row>
@@ -6554,10 +6563,10 @@
         <v>1</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F198" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B198 &amp; "/" &amp; C198 &amp; "_" &amp; D198 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014012337/7_1.wav</v>
       </c>
     </row>
@@ -6573,10 +6582,10 @@
         <v>1</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F199" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B199 &amp; "/" &amp; C199 &amp; "_" &amp; D199 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014012991/2_1.wav</v>
       </c>
     </row>
@@ -6592,10 +6601,10 @@
         <v>1</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F200" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B200 &amp; "/" &amp; C200 &amp; "_" &amp; D200 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014013072/11_1.wav</v>
       </c>
     </row>
@@ -6611,10 +6620,10 @@
         <v>1</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F201" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B201 &amp; "/" &amp; C201 &amp; "_" &amp; D201 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014013076/11_1.wav</v>
       </c>
     </row>
@@ -6630,10 +6639,10 @@
         <v>1</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F202" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B202 &amp; "/" &amp; C202 &amp; "_" &amp; D202 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014013409/10_1.wav</v>
       </c>
     </row>
@@ -6649,10 +6658,10 @@
         <v>1</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F203" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B203 &amp; "/" &amp; C203 &amp; "_" &amp; D203 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014620840/2_1.wav</v>
       </c>
     </row>
@@ -6671,7 +6680,7 @@
         <v>3</v>
       </c>
       <c r="F204" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B204 &amp; "/" &amp; C204 &amp; "_" &amp; D204 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2011010412/5_2.wav</v>
       </c>
     </row>
@@ -6687,10 +6696,10 @@
         <v>2</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F205" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B205 &amp; "/" &amp; C205 &amp; "_" &amp; D205 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2011011235/11_2.wav</v>
       </c>
     </row>
@@ -6706,10 +6715,10 @@
         <v>2</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F206" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B206 &amp; "/" &amp; C206 &amp; "_" &amp; D206 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2011011239/12_2.wav</v>
       </c>
     </row>
@@ -6725,10 +6734,10 @@
         <v>2</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F207" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B207 &amp; "/" &amp; C207 &amp; "_" &amp; D207 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2011011254/3_2.wav</v>
       </c>
     </row>
@@ -6744,10 +6753,10 @@
         <v>2</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F208" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B208 &amp; "/" &amp; C208 &amp; "_" &amp; D208 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2011011268/4_2.wav</v>
       </c>
     </row>
@@ -6763,10 +6772,10 @@
         <v>2</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F209" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B209 &amp; "/" &amp; C209 &amp; "_" &amp; D209 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2011012703/11_2.wav</v>
       </c>
     </row>
@@ -6783,7 +6792,7 @@
       </c>
       <c r="E210" s="1"/>
       <c r="F210" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B210 &amp; "/" &amp; C210 &amp; "_" &amp; D210 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2012011297/12_2.wav</v>
       </c>
     </row>
@@ -6799,10 +6808,10 @@
         <v>2</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F211" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B211 &amp; "/" &amp; C211 &amp; "_" &amp; D211 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2012012731/4_2.wav</v>
       </c>
     </row>
@@ -6818,10 +6827,10 @@
         <v>2</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F212" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B212 &amp; "/" &amp; C212 &amp; "_" &amp; D212 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013010773/6_2.wav</v>
       </c>
     </row>
@@ -6837,10 +6846,10 @@
         <v>2</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F213" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B213 &amp; "/" &amp; C213 &amp; "_" &amp; D213 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013010775/1_2.wav</v>
       </c>
     </row>
@@ -6856,10 +6865,10 @@
         <v>2</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F214" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B214 &amp; "/" &amp; C214 &amp; "_" &amp; D214 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013011103/9_2.wav</v>
       </c>
     </row>
@@ -6875,10 +6884,10 @@
         <v>2</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F215" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B215 &amp; "/" &amp; C215 &amp; "_" &amp; D215 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013011392/6_2.wav</v>
       </c>
     </row>
@@ -6894,10 +6903,10 @@
         <v>2</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F216" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B216 &amp; "/" &amp; C216 &amp; "_" &amp; D216 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013011395/10_2.wav</v>
       </c>
     </row>
@@ -6913,10 +6922,10 @@
         <v>2</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F217" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B217 &amp; "/" &amp; C217 &amp; "_" &amp; D217 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013011400/7_2.wav</v>
       </c>
     </row>
@@ -6932,10 +6941,10 @@
         <v>2</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F218" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B218 &amp; "/" &amp; C218 &amp; "_" &amp; D218 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013011429/1_2.wav</v>
       </c>
     </row>
@@ -6951,10 +6960,10 @@
         <v>2</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F219" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B219 &amp; "/" &amp; C219 &amp; "_" &amp; D219 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013011437/9_2.wav</v>
       </c>
     </row>
@@ -6970,10 +6979,10 @@
         <v>2</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F220" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B220 &amp; "/" &amp; C220 &amp; "_" &amp; D220 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013012946/7_2.wav</v>
       </c>
     </row>
@@ -6989,10 +6998,10 @@
         <v>2</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F221" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B221 &amp; "/" &amp; C221 &amp; "_" &amp; D221 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013012949/7_2.wav</v>
       </c>
     </row>
@@ -7008,10 +7017,10 @@
         <v>2</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F222" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B222 &amp; "/" &amp; C222 &amp; "_" &amp; D222 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013013014/8_2.wav</v>
       </c>
     </row>
@@ -7028,7 +7037,7 @@
       </c>
       <c r="E223" s="1"/>
       <c r="F223" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B223 &amp; "/" &amp; C223 &amp; "_" &amp; D223 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014010219/6_2.wav</v>
       </c>
     </row>
@@ -7044,10 +7053,10 @@
         <v>2</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F224" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B224 &amp; "/" &amp; C224 &amp; "_" &amp; D224 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014010728/11_2.wav</v>
       </c>
     </row>
@@ -7063,10 +7072,10 @@
         <v>2</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F225" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B225 &amp; "/" &amp; C225 &amp; "_" &amp; D225 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014011004/10_2.wav</v>
       </c>
     </row>
@@ -7082,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F226" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B226 &amp; "/" &amp; C226 &amp; "_" &amp; D226 &amp; ".wav"</f>
+        <f t="shared" ref="F226:F289" si="4">"http://59.66.209.26:23380/wav/" &amp; B226 &amp; "/" &amp; C226 &amp; "_" &amp; D226 &amp; ".wav"</f>
         <v>http://59.66.209.26:23380/wav/2014012173/10_2.wav</v>
       </c>
     </row>
@@ -7101,10 +7110,10 @@
         <v>2</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F227" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B227 &amp; "/" &amp; C227 &amp; "_" &amp; D227 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014012337/9_2.wav</v>
       </c>
     </row>
@@ -7120,10 +7129,10 @@
         <v>2</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F228" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B228 &amp; "/" &amp; C228 &amp; "_" &amp; D228 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014012991/5_2.wav</v>
       </c>
     </row>
@@ -7139,10 +7148,10 @@
         <v>2</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F229" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B229 &amp; "/" &amp; C229 &amp; "_" &amp; D229 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014013072/9_2.wav</v>
       </c>
     </row>
@@ -7158,10 +7167,10 @@
         <v>2</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F230" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B230 &amp; "/" &amp; C230 &amp; "_" &amp; D230 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014013076/8_2.wav</v>
       </c>
     </row>
@@ -7177,10 +7186,10 @@
         <v>2</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F231" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B231 &amp; "/" &amp; C231 &amp; "_" &amp; D231 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014013409/7_2.wav</v>
       </c>
     </row>
@@ -7196,10 +7205,10 @@
         <v>2</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F232" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B232 &amp; "/" &amp; C232 &amp; "_" &amp; D232 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014620840/1_2.wav</v>
       </c>
     </row>
@@ -7218,7 +7227,7 @@
         <v>2</v>
       </c>
       <c r="F233" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B233 &amp; "/" &amp; C233 &amp; "_" &amp; D233 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2011010412/4_3.wav</v>
       </c>
     </row>
@@ -7234,10 +7243,10 @@
         <v>3</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F234" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B234 &amp; "/" &amp; C234 &amp; "_" &amp; D234 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2011011235/12_3.wav</v>
       </c>
     </row>
@@ -7253,10 +7262,10 @@
         <v>3</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F235" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B235 &amp; "/" &amp; C235 &amp; "_" &amp; D235 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2011011239/6_3.wav</v>
       </c>
     </row>
@@ -7272,10 +7281,10 @@
         <v>3</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F236" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B236 &amp; "/" &amp; C236 &amp; "_" &amp; D236 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2011011254/7_3.wav</v>
       </c>
     </row>
@@ -7291,10 +7300,10 @@
         <v>3</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F237" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B237 &amp; "/" &amp; C237 &amp; "_" &amp; D237 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2011011268/6_3.wav</v>
       </c>
     </row>
@@ -7310,10 +7319,10 @@
         <v>3</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F238" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B238 &amp; "/" &amp; C238 &amp; "_" &amp; D238 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2011012703/9_3.wav</v>
       </c>
     </row>
@@ -7329,10 +7338,10 @@
         <v>3</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F239" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B239 &amp; "/" &amp; C239 &amp; "_" &amp; D239 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2012011297/1_3.wav</v>
       </c>
     </row>
@@ -7348,10 +7357,10 @@
         <v>3</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F240" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B240 &amp; "/" &amp; C240 &amp; "_" &amp; D240 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2012012731/10_3.wav</v>
       </c>
     </row>
@@ -7367,10 +7376,10 @@
         <v>3</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F241" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B241 &amp; "/" &amp; C241 &amp; "_" &amp; D241 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013010773/8_3.wav</v>
       </c>
     </row>
@@ -7386,10 +7395,10 @@
         <v>3</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F242" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B242 &amp; "/" &amp; C242 &amp; "_" &amp; D242 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013010775/2_3.wav</v>
       </c>
     </row>
@@ -7405,10 +7414,10 @@
         <v>3</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F243" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B243 &amp; "/" &amp; C243 &amp; "_" &amp; D243 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013011103/1_3.wav</v>
       </c>
     </row>
@@ -7424,10 +7433,10 @@
         <v>3</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F244" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B244 &amp; "/" &amp; C244 &amp; "_" &amp; D244 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013011392/12_3.wav</v>
       </c>
     </row>
@@ -7443,10 +7452,10 @@
         <v>3</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F245" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B245 &amp; "/" &amp; C245 &amp; "_" &amp; D245 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013011395/7_3.wav</v>
       </c>
     </row>
@@ -7462,10 +7471,10 @@
         <v>3</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F246" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B246 &amp; "/" &amp; C246 &amp; "_" &amp; D246 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013011400/11_3.wav</v>
       </c>
     </row>
@@ -7481,10 +7490,10 @@
         <v>3</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F247" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B247 &amp; "/" &amp; C247 &amp; "_" &amp; D247 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013011429/3_3.wav</v>
       </c>
     </row>
@@ -7500,10 +7509,10 @@
         <v>3</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F248" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B248 &amp; "/" &amp; C248 &amp; "_" &amp; D248 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013011437/8_3.wav</v>
       </c>
     </row>
@@ -7519,10 +7528,10 @@
         <v>3</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F249" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B249 &amp; "/" &amp; C249 &amp; "_" &amp; D249 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013012946/12_3.wav</v>
       </c>
     </row>
@@ -7538,10 +7547,10 @@
         <v>3</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F250" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B250 &amp; "/" &amp; C250 &amp; "_" &amp; D250 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013012949/11_3.wav</v>
       </c>
     </row>
@@ -7557,10 +7566,10 @@
         <v>3</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F251" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B251 &amp; "/" &amp; C251 &amp; "_" &amp; D251 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013013014/2_3.wav</v>
       </c>
     </row>
@@ -7576,10 +7585,10 @@
         <v>3</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F252" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B252 &amp; "/" &amp; C252 &amp; "_" &amp; D252 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014010219/9_3.wav</v>
       </c>
     </row>
@@ -7595,10 +7604,10 @@
         <v>3</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F253" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B253 &amp; "/" &amp; C253 &amp; "_" &amp; D253 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014010728/6_3.wav</v>
       </c>
     </row>
@@ -7614,10 +7623,10 @@
         <v>3</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F254" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B254 &amp; "/" &amp; C254 &amp; "_" &amp; D254 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014011004/5_3.wav</v>
       </c>
     </row>
@@ -7633,10 +7642,10 @@
         <v>3</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F255" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B255 &amp; "/" &amp; C255 &amp; "_" &amp; D255 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014012173/12_3.wav</v>
       </c>
     </row>
@@ -7652,10 +7661,10 @@
         <v>3</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F256" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B256 &amp; "/" &amp; C256 &amp; "_" &amp; D256 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014012337/12_3.wav</v>
       </c>
     </row>
@@ -7671,10 +7680,10 @@
         <v>3</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F257" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B257 &amp; "/" &amp; C257 &amp; "_" &amp; D257 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014012991/9_3.wav</v>
       </c>
     </row>
@@ -7690,10 +7699,10 @@
         <v>3</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F258" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B258 &amp; "/" &amp; C258 &amp; "_" &amp; D258 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014013072/6_3.wav</v>
       </c>
     </row>
@@ -7709,10 +7718,10 @@
         <v>3</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F259" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B259 &amp; "/" &amp; C259 &amp; "_" &amp; D259 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014013076/9_3.wav</v>
       </c>
     </row>
@@ -7728,10 +7737,10 @@
         <v>3</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F260" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B260 &amp; "/" &amp; C260 &amp; "_" &amp; D260 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014013409/1_3.wav</v>
       </c>
     </row>
@@ -7747,10 +7756,10 @@
         <v>3</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F261" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B261 &amp; "/" &amp; C261 &amp; "_" &amp; D261 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014620840/3_3.wav</v>
       </c>
     </row>
@@ -7766,10 +7775,10 @@
         <v>4</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F262" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B262 &amp; "/" &amp; C262 &amp; "_" &amp; D262 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2011010412/7_4.wav</v>
       </c>
     </row>
@@ -7785,10 +7794,10 @@
         <v>4</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F263" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B263 &amp; "/" &amp; C263 &amp; "_" &amp; D263 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2011011235/9_4.wav</v>
       </c>
     </row>
@@ -7804,10 +7813,10 @@
         <v>4</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F264" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B264 &amp; "/" &amp; C264 &amp; "_" &amp; D264 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2011011239/4_4.wav</v>
       </c>
     </row>
@@ -7823,10 +7832,10 @@
         <v>4</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F265" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B265 &amp; "/" &amp; C265 &amp; "_" &amp; D265 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2011011254/9_4.wav</v>
       </c>
     </row>
@@ -7842,10 +7851,10 @@
         <v>4</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F266" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B266 &amp; "/" &amp; C266 &amp; "_" &amp; D266 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2011011268/12_4.wav</v>
       </c>
     </row>
@@ -7861,10 +7870,10 @@
         <v>4</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F267" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B267 &amp; "/" &amp; C267 &amp; "_" &amp; D267 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2011012703/8_4.wav</v>
       </c>
     </row>
@@ -7880,10 +7889,10 @@
         <v>4</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F268" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B268 &amp; "/" &amp; C268 &amp; "_" &amp; D268 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2012011297/7_4.wav</v>
       </c>
     </row>
@@ -7899,10 +7908,10 @@
         <v>4</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F269" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B269 &amp; "/" &amp; C269 &amp; "_" &amp; D269 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2012012731/3_4.wav</v>
       </c>
     </row>
@@ -7918,10 +7927,10 @@
         <v>4</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F270" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B270 &amp; "/" &amp; C270 &amp; "_" &amp; D270 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013010773/2_4.wav</v>
       </c>
     </row>
@@ -7937,10 +7946,10 @@
         <v>4</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F271" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B271 &amp; "/" &amp; C271 &amp; "_" &amp; D271 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013010775/10_4.wav</v>
       </c>
     </row>
@@ -7956,10 +7965,10 @@
         <v>4</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F272" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B272 &amp; "/" &amp; C272 &amp; "_" &amp; D272 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013011103/12_4.wav</v>
       </c>
     </row>
@@ -7976,7 +7985,7 @@
       </c>
       <c r="E273" s="1"/>
       <c r="F273" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B273 &amp; "/" &amp; C273 &amp; "_" &amp; D273 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013011392/4_4.wav</v>
       </c>
     </row>
@@ -7992,10 +8001,10 @@
         <v>4</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F274" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B274 &amp; "/" &amp; C274 &amp; "_" &amp; D274 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013011395/4_4.wav</v>
       </c>
     </row>
@@ -8011,10 +8020,10 @@
         <v>4</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F275" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B275 &amp; "/" &amp; C275 &amp; "_" &amp; D275 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013011400/6_4.wav</v>
       </c>
     </row>
@@ -8030,10 +8039,10 @@
         <v>4</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F276" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B276 &amp; "/" &amp; C276 &amp; "_" &amp; D276 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013011429/4_4.wav</v>
       </c>
     </row>
@@ -8049,10 +8058,10 @@
         <v>4</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F277" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B277 &amp; "/" &amp; C277 &amp; "_" &amp; D277 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013011437/5_4.wav</v>
       </c>
     </row>
@@ -8068,10 +8077,10 @@
         <v>4</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F278" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B278 &amp; "/" &amp; C278 &amp; "_" &amp; D278 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013012946/11_4.wav</v>
       </c>
     </row>
@@ -8087,10 +8096,10 @@
         <v>4</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F279" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B279 &amp; "/" &amp; C279 &amp; "_" &amp; D279 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013012949/5_4.wav</v>
       </c>
     </row>
@@ -8106,10 +8115,10 @@
         <v>4</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F280" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B280 &amp; "/" &amp; C280 &amp; "_" &amp; D280 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013013014/9_4.wav</v>
       </c>
     </row>
@@ -8125,10 +8134,10 @@
         <v>4</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F281" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B281 &amp; "/" &amp; C281 &amp; "_" &amp; D281 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014010219/1_4.wav</v>
       </c>
     </row>
@@ -8144,10 +8153,10 @@
         <v>4</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F282" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B282 &amp; "/" &amp; C282 &amp; "_" &amp; D282 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014010728/2_4.wav</v>
       </c>
     </row>
@@ -8163,10 +8172,10 @@
         <v>4</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F283" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B283 &amp; "/" &amp; C283 &amp; "_" &amp; D283 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014011004/7_4.wav</v>
       </c>
     </row>
@@ -8182,10 +8191,10 @@
         <v>4</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F284" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B284 &amp; "/" &amp; C284 &amp; "_" &amp; D284 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014012173/4_4.wav</v>
       </c>
     </row>
@@ -8201,10 +8210,10 @@
         <v>4</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F285" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B285 &amp; "/" &amp; C285 &amp; "_" &amp; D285 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014012337/6_4.wav</v>
       </c>
     </row>
@@ -8220,10 +8229,10 @@
         <v>4</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F286" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B286 &amp; "/" &amp; C286 &amp; "_" &amp; D286 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014012991/4_4.wav</v>
       </c>
     </row>
@@ -8239,10 +8248,10 @@
         <v>4</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F287" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B287 &amp; "/" &amp; C287 &amp; "_" &amp; D287 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014013072/5_4.wav</v>
       </c>
     </row>
@@ -8258,10 +8267,10 @@
         <v>4</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F288" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B288 &amp; "/" &amp; C288 &amp; "_" &amp; D288 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014013076/2_4.wav</v>
       </c>
     </row>
@@ -8277,10 +8286,10 @@
         <v>4</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F289" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B289 &amp; "/" &amp; C289 &amp; "_" &amp; D289 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014013409/4_4.wav</v>
       </c>
     </row>
@@ -8296,10 +8305,10 @@
         <v>4</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F290" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B290 &amp; "/" &amp; C290 &amp; "_" &amp; D290 &amp; ".wav"</f>
+        <f t="shared" ref="F290:F348" si="5">"http://59.66.209.26:23380/wav/" &amp; B290 &amp; "/" &amp; C290 &amp; "_" &amp; D290 &amp; ".wav"</f>
         <v>http://59.66.209.26:23380/wav/2014620840/11_4.wav</v>
       </c>
     </row>
@@ -8318,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="F291" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B291 &amp; "/" &amp; C291 &amp; "_" &amp; D291 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2011010412/12_6.wav</v>
       </c>
     </row>
@@ -8334,10 +8343,10 @@
         <v>6</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F292" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B292 &amp; "/" &amp; C292 &amp; "_" &amp; D292 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2011011235/2_6.wav</v>
       </c>
     </row>
@@ -8353,10 +8362,10 @@
         <v>6</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F293" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B293 &amp; "/" &amp; C293 &amp; "_" &amp; D293 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2011011239/9_6.wav</v>
       </c>
     </row>
@@ -8372,10 +8381,10 @@
         <v>6</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F294" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B294 &amp; "/" &amp; C294 &amp; "_" &amp; D294 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2011011254/5_6.wav</v>
       </c>
     </row>
@@ -8391,10 +8400,10 @@
         <v>6</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F295" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B295 &amp; "/" &amp; C295 &amp; "_" &amp; D295 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2011011268/2_6.wav</v>
       </c>
     </row>
@@ -8410,10 +8419,10 @@
         <v>6</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F296" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B296 &amp; "/" &amp; C296 &amp; "_" &amp; D296 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2011012703/10_6.wav</v>
       </c>
     </row>
@@ -8429,10 +8438,10 @@
         <v>6</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F297" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B297 &amp; "/" &amp; C297 &amp; "_" &amp; D297 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2012011297/8_6.wav</v>
       </c>
     </row>
@@ -8448,10 +8457,10 @@
         <v>6</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F298" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B298 &amp; "/" &amp; C298 &amp; "_" &amp; D298 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2012012731/2_6.wav</v>
       </c>
     </row>
@@ -8468,7 +8477,7 @@
       </c>
       <c r="E299" s="1"/>
       <c r="F299" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B299 &amp; "/" &amp; C299 &amp; "_" &amp; D299 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013010773/3_6.wav</v>
       </c>
     </row>
@@ -8484,10 +8493,10 @@
         <v>6</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F300" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B300 &amp; "/" &amp; C300 &amp; "_" &amp; D300 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013010775/9_6.wav</v>
       </c>
     </row>
@@ -8503,10 +8512,10 @@
         <v>6</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F301" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B301 &amp; "/" &amp; C301 &amp; "_" &amp; D301 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013011103/4_6.wav</v>
       </c>
     </row>
@@ -8522,10 +8531,10 @@
         <v>6</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F302" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B302 &amp; "/" &amp; C302 &amp; "_" &amp; D302 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013011392/5_6.wav</v>
       </c>
     </row>
@@ -8541,10 +8550,10 @@
         <v>6</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F303" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B303 &amp; "/" &amp; C303 &amp; "_" &amp; D303 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013011395/3_6.wav</v>
       </c>
     </row>
@@ -8560,10 +8569,10 @@
         <v>6</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F304" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B304 &amp; "/" &amp; C304 &amp; "_" &amp; D304 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013011400/8_6.wav</v>
       </c>
     </row>
@@ -8579,10 +8588,10 @@
         <v>6</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F305" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B305 &amp; "/" &amp; C305 &amp; "_" &amp; D305 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013011429/9_6.wav</v>
       </c>
     </row>
@@ -8598,10 +8607,10 @@
         <v>6</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F306" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B306 &amp; "/" &amp; C306 &amp; "_" &amp; D306 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013011437/11_6.wav</v>
       </c>
     </row>
@@ -8617,10 +8626,10 @@
         <v>6</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F307" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B307 &amp; "/" &amp; C307 &amp; "_" &amp; D307 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013012946/1_6.wav</v>
       </c>
     </row>
@@ -8637,7 +8646,7 @@
       </c>
       <c r="E308" s="1"/>
       <c r="F308" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B308 &amp; "/" &amp; C308 &amp; "_" &amp; D308 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013012949/2_6.wav</v>
       </c>
     </row>
@@ -8653,10 +8662,10 @@
         <v>6</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F309" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B309 &amp; "/" &amp; C309 &amp; "_" &amp; D309 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013013014/4_6.wav</v>
       </c>
     </row>
@@ -8672,10 +8681,10 @@
         <v>6</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F310" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B310 &amp; "/" &amp; C310 &amp; "_" &amp; D310 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014010219/10_6.wav</v>
       </c>
     </row>
@@ -8691,10 +8700,10 @@
         <v>6</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F311" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B311 &amp; "/" &amp; C311 &amp; "_" &amp; D311 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014010728/5_6.wav</v>
       </c>
     </row>
@@ -8710,10 +8719,10 @@
         <v>6</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F312" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B312 &amp; "/" &amp; C312 &amp; "_" &amp; D312 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014011004/9_6.wav</v>
       </c>
     </row>
@@ -8729,10 +8738,10 @@
         <v>6</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F313" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B313 &amp; "/" &amp; C313 &amp; "_" &amp; D313 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014012173/5_6.wav</v>
       </c>
     </row>
@@ -8748,10 +8757,10 @@
         <v>6</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F314" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B314 &amp; "/" &amp; C314 &amp; "_" &amp; D314 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014012337/2_6.wav</v>
       </c>
     </row>
@@ -8767,10 +8776,10 @@
         <v>6</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F315" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B315 &amp; "/" &amp; C315 &amp; "_" &amp; D315 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014012991/7_6.wav</v>
       </c>
     </row>
@@ -8786,10 +8795,10 @@
         <v>6</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F316" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B316 &amp; "/" &amp; C316 &amp; "_" &amp; D316 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014013072/4_6.wav</v>
       </c>
     </row>
@@ -8805,10 +8814,10 @@
         <v>6</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F317" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B317 &amp; "/" &amp; C317 &amp; "_" &amp; D317 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014013076/4_6.wav</v>
       </c>
     </row>
@@ -8824,10 +8833,10 @@
         <v>6</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F318" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B318 &amp; "/" &amp; C318 &amp; "_" &amp; D318 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014013409/12_6.wav</v>
       </c>
     </row>
@@ -8843,10 +8852,10 @@
         <v>6</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F319" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B319 &amp; "/" &amp; C319 &amp; "_" &amp; D319 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014620840/10_6.wav</v>
       </c>
     </row>
@@ -8865,7 +8874,7 @@
         <v>1</v>
       </c>
       <c r="F320" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B320 &amp; "/" &amp; C320 &amp; "_" &amp; D320 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2011010412/2_10.wav</v>
       </c>
     </row>
@@ -8881,10 +8890,10 @@
         <v>10</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F321" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B321 &amp; "/" &amp; C321 &amp; "_" &amp; D321 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2011011235/6_10.wav</v>
       </c>
     </row>
@@ -8900,10 +8909,10 @@
         <v>10</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F322" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B322 &amp; "/" &amp; C322 &amp; "_" &amp; D322 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2011011239/10_10.wav</v>
       </c>
     </row>
@@ -8919,10 +8928,10 @@
         <v>10</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F323" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B323 &amp; "/" &amp; C323 &amp; "_" &amp; D323 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2011011254/12_10.wav</v>
       </c>
     </row>
@@ -8938,10 +8947,10 @@
         <v>10</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F324" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B324 &amp; "/" &amp; C324 &amp; "_" &amp; D324 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2011011268/10_10.wav</v>
       </c>
     </row>
@@ -8958,7 +8967,7 @@
       </c>
       <c r="E325" s="1"/>
       <c r="F325" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B325 &amp; "/" &amp; C325 &amp; "_" &amp; D325 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2011012703/7_10.wav</v>
       </c>
     </row>
@@ -8974,10 +8983,10 @@
         <v>10</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F326" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B326 &amp; "/" &amp; C326 &amp; "_" &amp; D326 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2012011297/5_10.wav</v>
       </c>
     </row>
@@ -8993,10 +9002,10 @@
         <v>10</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F327" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B327 &amp; "/" &amp; C327 &amp; "_" &amp; D327 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2012012731/7_10.wav</v>
       </c>
     </row>
@@ -9012,10 +9021,10 @@
         <v>10</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F328" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B328 &amp; "/" &amp; C328 &amp; "_" &amp; D328 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013010773/9_10.wav</v>
       </c>
     </row>
@@ -9031,10 +9040,10 @@
         <v>10</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F329" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B329 &amp; "/" &amp; C329 &amp; "_" &amp; D329 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013010775/8_10.wav</v>
       </c>
     </row>
@@ -9050,10 +9059,10 @@
         <v>10</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F330" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B330 &amp; "/" &amp; C330 &amp; "_" &amp; D330 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013011103/2_10.wav</v>
       </c>
     </row>
@@ -9069,10 +9078,10 @@
         <v>10</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F331" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B331 &amp; "/" &amp; C331 &amp; "_" &amp; D331 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013011392/10_10.wav</v>
       </c>
     </row>
@@ -9088,10 +9097,10 @@
         <v>10</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F332" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B332 &amp; "/" &amp; C332 &amp; "_" &amp; D332 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013011395/6_10.wav</v>
       </c>
     </row>
@@ -9107,10 +9116,10 @@
         <v>10</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F333" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B333 &amp; "/" &amp; C333 &amp; "_" &amp; D333 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013011400/5_10.wav</v>
       </c>
     </row>
@@ -9126,10 +9135,10 @@
         <v>10</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F334" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B334 &amp; "/" &amp; C334 &amp; "_" &amp; D334 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013011429/6_10.wav</v>
       </c>
     </row>
@@ -9145,10 +9154,10 @@
         <v>10</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F335" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B335 &amp; "/" &amp; C335 &amp; "_" &amp; D335 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013011437/7_10.wav</v>
       </c>
     </row>
@@ -9164,10 +9173,10 @@
         <v>10</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F336" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B336 &amp; "/" &amp; C336 &amp; "_" &amp; D336 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013012946/10_10.wav</v>
       </c>
     </row>
@@ -9184,7 +9193,7 @@
       </c>
       <c r="E337" s="1"/>
       <c r="F337" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B337 &amp; "/" &amp; C337 &amp; "_" &amp; D337 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013012949/1_10.wav</v>
       </c>
     </row>
@@ -9200,10 +9209,10 @@
         <v>10</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F338" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B338 &amp; "/" &amp; C338 &amp; "_" &amp; D338 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013013014/7_10.wav</v>
       </c>
     </row>
@@ -9219,10 +9228,10 @@
         <v>10</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F339" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B339 &amp; "/" &amp; C339 &amp; "_" &amp; D339 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014010219/4_10.wav</v>
       </c>
     </row>
@@ -9238,10 +9247,10 @@
         <v>10</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F340" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B340 &amp; "/" &amp; C340 &amp; "_" &amp; D340 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014010728/7_10.wav</v>
       </c>
     </row>
@@ -9257,10 +9266,10 @@
         <v>10</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F341" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B341 &amp; "/" &amp; C341 &amp; "_" &amp; D341 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014011004/2_10.wav</v>
       </c>
     </row>
@@ -9276,10 +9285,10 @@
         <v>10</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F342" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B342 &amp; "/" &amp; C342 &amp; "_" &amp; D342 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014012173/2_10.wav</v>
       </c>
     </row>
@@ -9295,10 +9304,10 @@
         <v>10</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F343" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B343 &amp; "/" &amp; C343 &amp; "_" &amp; D343 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014012337/1_10.wav</v>
       </c>
     </row>
@@ -9314,10 +9323,10 @@
         <v>10</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F344" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B344 &amp; "/" &amp; C344 &amp; "_" &amp; D344 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014012991/10_10.wav</v>
       </c>
     </row>
@@ -9333,10 +9342,10 @@
         <v>10</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F345" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B345 &amp; "/" &amp; C345 &amp; "_" &amp; D345 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014013072/10_10.wav</v>
       </c>
     </row>
@@ -9352,10 +9361,10 @@
         <v>10</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F346" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B346 &amp; "/" &amp; C346 &amp; "_" &amp; D346 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014013076/1_10.wav</v>
       </c>
     </row>
@@ -9371,10 +9380,10 @@
         <v>10</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F347" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B347 &amp; "/" &amp; C347 &amp; "_" &amp; D347 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014013409/3_10.wav</v>
       </c>
     </row>
@@ -9390,10 +9399,10 @@
         <v>10</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F348" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; B348 &amp; "/" &amp; C348 &amp; "_" &amp; D348 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014620840/6_10.wav</v>
       </c>
     </row>
@@ -9414,12 +9423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="A1:B12"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="1">
-      <selection sqref="A1:B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9455,7 +9459,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
@@ -9469,7 +9473,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
@@ -9477,7 +9481,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="54" x14ac:dyDescent="0.15">
@@ -9485,7 +9489,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -9499,7 +9503,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
@@ -9507,7 +9511,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -9521,10 +9525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -9539,10 +9540,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E1" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A1 &amp; "/" &amp; B1 &amp; "_" &amp; C1 &amp; ".wav"</f>
+        <f t="shared" ref="E1:E32" si="0">"http://59.66.209.26:23380/wav/" &amp; A1 &amp; "/" &amp; B1 &amp; "_" &amp; C1 &amp; ".wav"</f>
         <v>http://59.66.209.26:23380/wav/2011010412/6_5.wav</v>
       </c>
     </row>
@@ -9557,10 +9558,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A2 &amp; "/" &amp; B2 &amp; "_" &amp; C2 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2011011235/8_5.wav</v>
       </c>
     </row>
@@ -9575,10 +9576,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A3 &amp; "/" &amp; B3 &amp; "_" &amp; C3 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2011011239/11_5.wav</v>
       </c>
     </row>
@@ -9593,10 +9594,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A4 &amp; "/" &amp; B4 &amp; "_" &amp; C4 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2011011254/2_5.wav</v>
       </c>
     </row>
@@ -9611,10 +9612,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A5 &amp; "/" &amp; B5 &amp; "_" &amp; C5 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2011011268/9_5.wav</v>
       </c>
     </row>
@@ -9629,10 +9630,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A6 &amp; "/" &amp; B6 &amp; "_" &amp; C6 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2011012703/1_5.wav</v>
       </c>
     </row>
@@ -9647,10 +9648,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A7 &amp; "/" &amp; B7 &amp; "_" &amp; C7 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2012011297/4_5.wav</v>
       </c>
     </row>
@@ -9665,10 +9666,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A8 &amp; "/" &amp; B8 &amp; "_" &amp; C8 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2012012731/12_5.wav</v>
       </c>
     </row>
@@ -9683,10 +9684,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A9 &amp; "/" &amp; B9 &amp; "_" &amp; C9 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2013010773/11_5.wav</v>
       </c>
     </row>
@@ -9701,10 +9702,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A10 &amp; "/" &amp; B10 &amp; "_" &amp; C10 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2013010775/11_5.wav</v>
       </c>
     </row>
@@ -9719,10 +9720,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A11 &amp; "/" &amp; B11 &amp; "_" &amp; C11 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2013011103/6_5.wav</v>
       </c>
     </row>
@@ -9737,10 +9738,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A12 &amp; "/" &amp; B12 &amp; "_" &amp; C12 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2013011392/1_5.wav</v>
       </c>
     </row>
@@ -9755,10 +9756,10 @@
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A13 &amp; "/" &amp; B13 &amp; "_" &amp; C13 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2013011395/11_5.wav</v>
       </c>
     </row>
@@ -9773,10 +9774,10 @@
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A14 &amp; "/" &amp; B14 &amp; "_" &amp; C14 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2013011400/12_5.wav</v>
       </c>
     </row>
@@ -9791,10 +9792,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A15 &amp; "/" &amp; B15 &amp; "_" &amp; C15 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2013011429/5_5.wav</v>
       </c>
     </row>
@@ -9809,10 +9810,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A16 &amp; "/" &amp; B16 &amp; "_" &amp; C16 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2013011437/1_5.wav</v>
       </c>
     </row>
@@ -9827,10 +9828,10 @@
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A17 &amp; "/" &amp; B17 &amp; "_" &amp; C17 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2013012946/5_5.wav</v>
       </c>
     </row>
@@ -9845,10 +9846,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A18 &amp; "/" &amp; B18 &amp; "_" &amp; C18 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2013012949/6_5.wav</v>
       </c>
     </row>
@@ -9863,10 +9864,10 @@
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A19 &amp; "/" &amp; B19 &amp; "_" &amp; C19 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2013013014/5_5.wav</v>
       </c>
     </row>
@@ -9881,10 +9882,10 @@
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A20 &amp; "/" &amp; B20 &amp; "_" &amp; C20 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2014010219/12_5.wav</v>
       </c>
     </row>
@@ -9899,10 +9900,10 @@
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A21 &amp; "/" &amp; B21 &amp; "_" &amp; C21 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2014010728/12_5.wav</v>
       </c>
     </row>
@@ -9917,10 +9918,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A22 &amp; "/" &amp; B22 &amp; "_" &amp; C22 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2014011004/3_5.wav</v>
       </c>
     </row>
@@ -9935,10 +9936,10 @@
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A23 &amp; "/" &amp; B23 &amp; "_" &amp; C23 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2014012173/3_5.wav</v>
       </c>
     </row>
@@ -9953,10 +9954,10 @@
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A24 &amp; "/" &amp; B24 &amp; "_" &amp; C24 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2014012337/5_5.wav</v>
       </c>
     </row>
@@ -9971,10 +9972,10 @@
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A25 &amp; "/" &amp; B25 &amp; "_" &amp; C25 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2014012991/6_5.wav</v>
       </c>
     </row>
@@ -9989,10 +9990,10 @@
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A26 &amp; "/" &amp; B26 &amp; "_" &amp; C26 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2014013072/1_5.wav</v>
       </c>
     </row>
@@ -10007,10 +10008,10 @@
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A27 &amp; "/" &amp; B27 &amp; "_" &amp; C27 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2014013076/12_5.wav</v>
       </c>
     </row>
@@ -10025,10 +10026,10 @@
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A28 &amp; "/" &amp; B28 &amp; "_" &amp; C28 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2014013409/9_5.wav</v>
       </c>
     </row>
@@ -10043,10 +10044,10 @@
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A29 &amp; "/" &amp; B29 &amp; "_" &amp; C29 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2014620840/7_5.wav</v>
       </c>
     </row>
@@ -10061,10 +10062,10 @@
         <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A30 &amp; "/" &amp; B30 &amp; "_" &amp; C30 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2011010412/1_7.wav</v>
       </c>
     </row>
@@ -10079,10 +10080,10 @@
         <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A31 &amp; "/" &amp; B31 &amp; "_" &amp; C31 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2011011235/5_7.wav</v>
       </c>
     </row>
@@ -10097,10 +10098,10 @@
         <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A32 &amp; "/" &amp; B32 &amp; "_" &amp; C32 &amp; ".wav"</f>
+        <f t="shared" si="0"/>
         <v>http://59.66.209.26:23380/wav/2011011239/5_7.wav</v>
       </c>
     </row>
@@ -10115,7 +10116,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E33" s="1" t="str">
         <f>E31</f>
@@ -10133,10 +10134,10 @@
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A34 &amp; "/" &amp; B34 &amp; "_" &amp; C34 &amp; ".wav"</f>
+        <f t="shared" ref="E34:E65" si="1">"http://59.66.209.26:23380/wav/" &amp; A34 &amp; "/" &amp; B34 &amp; "_" &amp; C34 &amp; ".wav"</f>
         <v>http://59.66.209.26:23380/wav/2011011268/7_7.wav</v>
       </c>
     </row>
@@ -10151,10 +10152,10 @@
         <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A35 &amp; "/" &amp; B35 &amp; "_" &amp; C35 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2011012703/5_7.wav</v>
       </c>
     </row>
@@ -10169,10 +10170,10 @@
         <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A36 &amp; "/" &amp; B36 &amp; "_" &amp; C36 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2012011297/11_7.wav</v>
       </c>
     </row>
@@ -10187,10 +10188,10 @@
         <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A37 &amp; "/" &amp; B37 &amp; "_" &amp; C37 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2012012731/1_7.wav</v>
       </c>
     </row>
@@ -10205,10 +10206,10 @@
         <v>7</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A38 &amp; "/" &amp; B38 &amp; "_" &amp; C38 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013010773/5_7.wav</v>
       </c>
     </row>
@@ -10223,10 +10224,10 @@
         <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A39 &amp; "/" &amp; B39 &amp; "_" &amp; C39 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013010775/6_7.wav</v>
       </c>
     </row>
@@ -10241,10 +10242,10 @@
         <v>7</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A40 &amp; "/" &amp; B40 &amp; "_" &amp; C40 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013011103/5_7.wav</v>
       </c>
     </row>
@@ -10259,10 +10260,10 @@
         <v>7</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A41 &amp; "/" &amp; B41 &amp; "_" &amp; C41 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013011392/2_7.wav</v>
       </c>
     </row>
@@ -10277,10 +10278,10 @@
         <v>7</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A42 &amp; "/" &amp; B42 &amp; "_" &amp; C42 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013011395/2_7.wav</v>
       </c>
     </row>
@@ -10295,10 +10296,10 @@
         <v>7</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A43 &amp; "/" &amp; B43 &amp; "_" &amp; C43 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013011400/1_7.wav</v>
       </c>
     </row>
@@ -10313,10 +10314,10 @@
         <v>7</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A44 &amp; "/" &amp; B44 &amp; "_" &amp; C44 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013011429/11_7.wav</v>
       </c>
     </row>
@@ -10331,10 +10332,10 @@
         <v>7</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A45 &amp; "/" &amp; B45 &amp; "_" &amp; C45 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013011437/12_7.wav</v>
       </c>
     </row>
@@ -10349,10 +10350,10 @@
         <v>7</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A46 &amp; "/" &amp; B46 &amp; "_" &amp; C46 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013012946/9_7.wav</v>
       </c>
     </row>
@@ -10367,10 +10368,10 @@
         <v>7</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A47 &amp; "/" &amp; B47 &amp; "_" &amp; C47 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013012949/8_7.wav</v>
       </c>
     </row>
@@ -10385,10 +10386,10 @@
         <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A48 &amp; "/" &amp; B48 &amp; "_" &amp; C48 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2013013014/11_7.wav</v>
       </c>
     </row>
@@ -10403,10 +10404,10 @@
         <v>7</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A49 &amp; "/" &amp; B49 &amp; "_" &amp; C49 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014010219/2_7.wav</v>
       </c>
     </row>
@@ -10421,10 +10422,10 @@
         <v>7</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A50 &amp; "/" &amp; B50 &amp; "_" &amp; C50 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014010728/3_7.wav</v>
       </c>
     </row>
@@ -10439,10 +10440,10 @@
         <v>7</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A51 &amp; "/" &amp; B51 &amp; "_" &amp; C51 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014011004/8_7.wav</v>
       </c>
     </row>
@@ -10457,10 +10458,10 @@
         <v>7</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A52 &amp; "/" &amp; B52 &amp; "_" &amp; C52 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014012173/7_7.wav</v>
       </c>
     </row>
@@ -10475,10 +10476,10 @@
         <v>7</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A53 &amp; "/" &amp; B53 &amp; "_" &amp; C53 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014012337/4_7.wav</v>
       </c>
     </row>
@@ -10493,10 +10494,10 @@
         <v>7</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A54 &amp; "/" &amp; B54 &amp; "_" &amp; C54 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014012991/3_7.wav</v>
       </c>
     </row>
@@ -10511,10 +10512,10 @@
         <v>7</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A55 &amp; "/" &amp; B55 &amp; "_" &amp; C55 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014013072/12_7.wav</v>
       </c>
     </row>
@@ -10529,10 +10530,10 @@
         <v>7</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A56 &amp; "/" &amp; B56 &amp; "_" &amp; C56 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014013076/10_7.wav</v>
       </c>
     </row>
@@ -10547,10 +10548,10 @@
         <v>7</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A57 &amp; "/" &amp; B57 &amp; "_" &amp; C57 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014013409/8_7.wav</v>
       </c>
     </row>
@@ -10565,10 +10566,10 @@
         <v>7</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A58 &amp; "/" &amp; B58 &amp; "_" &amp; C58 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2014620840/8_7.wav</v>
       </c>
     </row>
@@ -10583,10 +10584,10 @@
         <v>8</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A59 &amp; "/" &amp; B59 &amp; "_" &amp; C59 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2011010412/10_8.wav</v>
       </c>
     </row>
@@ -10601,10 +10602,10 @@
         <v>8</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A60 &amp; "/" &amp; B60 &amp; "_" &amp; C60 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2011011235/4_8.wav</v>
       </c>
     </row>
@@ -10619,10 +10620,10 @@
         <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A61 &amp; "/" &amp; B61 &amp; "_" &amp; C61 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2011011239/1_8.wav</v>
       </c>
     </row>
@@ -10637,10 +10638,10 @@
         <v>8</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A62 &amp; "/" &amp; B62 &amp; "_" &amp; C62 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2011011254/8_8.wav</v>
       </c>
     </row>
@@ -10655,10 +10656,10 @@
         <v>8</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A63 &amp; "/" &amp; B63 &amp; "_" &amp; C63 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2011011268/1_8.wav</v>
       </c>
     </row>
@@ -10673,10 +10674,10 @@
         <v>8</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A64 &amp; "/" &amp; B64 &amp; "_" &amp; C64 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2011012703/6_8.wav</v>
       </c>
     </row>
@@ -10691,10 +10692,10 @@
         <v>8</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A65 &amp; "/" &amp; B65 &amp; "_" &amp; C65 &amp; ".wav"</f>
+        <f t="shared" si="1"/>
         <v>http://59.66.209.26:23380/wav/2012011297/3_8.wav</v>
       </c>
     </row>
@@ -10709,10 +10710,10 @@
         <v>8</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A66 &amp; "/" &amp; B66 &amp; "_" &amp; C66 &amp; ".wav"</f>
+        <f t="shared" ref="E66:E97" si="2">"http://59.66.209.26:23380/wav/" &amp; A66 &amp; "/" &amp; B66 &amp; "_" &amp; C66 &amp; ".wav"</f>
         <v>http://59.66.209.26:23380/wav/2012012731/8_8.wav</v>
       </c>
     </row>
@@ -10727,10 +10728,10 @@
         <v>8</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A67 &amp; "/" &amp; B67 &amp; "_" &amp; C67 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013010773/7_8.wav</v>
       </c>
     </row>
@@ -10745,10 +10746,10 @@
         <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A68 &amp; "/" &amp; B68 &amp; "_" &amp; C68 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013010775/12_8.wav</v>
       </c>
     </row>
@@ -10763,10 +10764,10 @@
         <v>8</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A69 &amp; "/" &amp; B69 &amp; "_" &amp; C69 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013011103/7_8.wav</v>
       </c>
     </row>
@@ -10781,10 +10782,10 @@
         <v>8</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A70 &amp; "/" &amp; B70 &amp; "_" &amp; C70 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013011392/8_8.wav</v>
       </c>
     </row>
@@ -10799,10 +10800,10 @@
         <v>8</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E71" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A71 &amp; "/" &amp; B71 &amp; "_" &amp; C71 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013011395/8_8.wav</v>
       </c>
     </row>
@@ -10817,10 +10818,10 @@
         <v>8</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E72" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A72 &amp; "/" &amp; B72 &amp; "_" &amp; C72 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013011400/4_8.wav</v>
       </c>
     </row>
@@ -10835,10 +10836,10 @@
         <v>8</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E73" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A73 &amp; "/" &amp; B73 &amp; "_" &amp; C73 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013011429/12_8.wav</v>
       </c>
     </row>
@@ -10853,10 +10854,10 @@
         <v>8</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E74" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A74 &amp; "/" &amp; B74 &amp; "_" &amp; C74 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013011437/4_8.wav</v>
       </c>
     </row>
@@ -10871,10 +10872,10 @@
         <v>8</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E75" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A75 &amp; "/" &amp; B75 &amp; "_" &amp; C75 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013012946/8_8.wav</v>
       </c>
     </row>
@@ -10889,10 +10890,10 @@
         <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A76 &amp; "/" &amp; B76 &amp; "_" &amp; C76 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013012949/3_8.wav</v>
       </c>
     </row>
@@ -10907,10 +10908,10 @@
         <v>8</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A77 &amp; "/" &amp; B77 &amp; "_" &amp; C77 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013013014/3_8.wav</v>
       </c>
     </row>
@@ -10925,10 +10926,10 @@
         <v>8</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A78 &amp; "/" &amp; B78 &amp; "_" &amp; C78 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014010219/5_8.wav</v>
       </c>
     </row>
@@ -10943,10 +10944,10 @@
         <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A79 &amp; "/" &amp; B79 &amp; "_" &amp; C79 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014010728/4_8.wav</v>
       </c>
     </row>
@@ -10961,10 +10962,10 @@
         <v>8</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E80" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A80 &amp; "/" &amp; B80 &amp; "_" &amp; C80 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014011004/12_8.wav</v>
       </c>
     </row>
@@ -10979,10 +10980,10 @@
         <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E81" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A81 &amp; "/" &amp; B81 &amp; "_" &amp; C81 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014012173/6_8.wav</v>
       </c>
     </row>
@@ -10997,10 +10998,10 @@
         <v>8</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E82" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A82 &amp; "/" &amp; B82 &amp; "_" &amp; C82 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014012337/10_8.wav</v>
       </c>
     </row>
@@ -11015,10 +11016,10 @@
         <v>8</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E83" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A83 &amp; "/" &amp; B83 &amp; "_" &amp; C83 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014012991/1_8.wav</v>
       </c>
     </row>
@@ -11033,10 +11034,10 @@
         <v>8</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E84" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A84 &amp; "/" &amp; B84 &amp; "_" &amp; C84 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014013072/7_8.wav</v>
       </c>
     </row>
@@ -11051,10 +11052,10 @@
         <v>8</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E85" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A85 &amp; "/" &amp; B85 &amp; "_" &amp; C85 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014013076/3_8.wav</v>
       </c>
     </row>
@@ -11069,10 +11070,10 @@
         <v>8</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E86" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A86 &amp; "/" &amp; B86 &amp; "_" &amp; C86 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014013409/5_8.wav</v>
       </c>
     </row>
@@ -11087,10 +11088,10 @@
         <v>8</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E87" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A87 &amp; "/" &amp; B87 &amp; "_" &amp; C87 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2014620840/4_8.wav</v>
       </c>
     </row>
@@ -11105,10 +11106,10 @@
         <v>9</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E88" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A88 &amp; "/" &amp; B88 &amp; "_" &amp; C88 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2011010412/3_9.wav</v>
       </c>
     </row>
@@ -11123,10 +11124,10 @@
         <v>9</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E89" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A89 &amp; "/" &amp; B89 &amp; "_" &amp; C89 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2011011235/3_9.wav</v>
       </c>
     </row>
@@ -11141,10 +11142,10 @@
         <v>9</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E90" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A90 &amp; "/" &amp; B90 &amp; "_" &amp; C90 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2011011239/3_9.wav</v>
       </c>
     </row>
@@ -11159,10 +11160,10 @@
         <v>9</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E91" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A91 &amp; "/" &amp; B91 &amp; "_" &amp; C91 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2011011254/4_9.wav</v>
       </c>
     </row>
@@ -11177,10 +11178,10 @@
         <v>9</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E92" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A92 &amp; "/" &amp; B92 &amp; "_" &amp; C92 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2011011268/8_9.wav</v>
       </c>
     </row>
@@ -11195,10 +11196,10 @@
         <v>9</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E93" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A93 &amp; "/" &amp; B93 &amp; "_" &amp; C93 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2011012703/3_9.wav</v>
       </c>
     </row>
@@ -11213,10 +11214,10 @@
         <v>9</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E94" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A94 &amp; "/" &amp; B94 &amp; "_" &amp; C94 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2012011297/2_9.wav</v>
       </c>
     </row>
@@ -11231,10 +11232,10 @@
         <v>9</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E95" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A95 &amp; "/" &amp; B95 &amp; "_" &amp; C95 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2012012731/5_9.wav</v>
       </c>
     </row>
@@ -11249,10 +11250,10 @@
         <v>9</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E96" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A96 &amp; "/" &amp; B96 &amp; "_" &amp; C96 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013010773/1_9.wav</v>
       </c>
     </row>
@@ -11267,10 +11268,10 @@
         <v>9</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E97" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A97 &amp; "/" &amp; B97 &amp; "_" &amp; C97 &amp; ".wav"</f>
+        <f t="shared" si="2"/>
         <v>http://59.66.209.26:23380/wav/2013010775/5_9.wav</v>
       </c>
     </row>
@@ -11285,10 +11286,10 @@
         <v>9</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E98" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A98 &amp; "/" &amp; B98 &amp; "_" &amp; C98 &amp; ".wav"</f>
+        <f t="shared" ref="E98:E129" si="3">"http://59.66.209.26:23380/wav/" &amp; A98 &amp; "/" &amp; B98 &amp; "_" &amp; C98 &amp; ".wav"</f>
         <v>http://59.66.209.26:23380/wav/2013011103/3_9.wav</v>
       </c>
     </row>
@@ -11303,10 +11304,10 @@
         <v>9</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E99" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A99 &amp; "/" &amp; B99 &amp; "_" &amp; C99 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013011392/9_9.wav</v>
       </c>
     </row>
@@ -11321,10 +11322,10 @@
         <v>9</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E100" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A100 &amp; "/" &amp; B100 &amp; "_" &amp; C100 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013011395/12_9.wav</v>
       </c>
     </row>
@@ -11339,10 +11340,10 @@
         <v>9</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E101" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A101 &amp; "/" &amp; B101 &amp; "_" &amp; C101 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013011400/10_9.wav</v>
       </c>
     </row>
@@ -11357,10 +11358,10 @@
         <v>9</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E102" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A102 &amp; "/" &amp; B102 &amp; "_" &amp; C102 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013011429/10_9.wav</v>
       </c>
     </row>
@@ -11375,10 +11376,10 @@
         <v>9</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E103" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A103 &amp; "/" &amp; B103 &amp; "_" &amp; C103 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013011437/2_9.wav</v>
       </c>
     </row>
@@ -11393,10 +11394,10 @@
         <v>9</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E104" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A104 &amp; "/" &amp; B104 &amp; "_" &amp; C104 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013012946/6_9.wav</v>
       </c>
     </row>
@@ -11411,10 +11412,10 @@
         <v>9</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E105" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A105 &amp; "/" &amp; B105 &amp; "_" &amp; C105 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013012949/10_9.wav</v>
       </c>
     </row>
@@ -11429,10 +11430,10 @@
         <v>9</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E106" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A106 &amp; "/" &amp; B106 &amp; "_" &amp; C106 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013013014/10_9.wav</v>
       </c>
     </row>
@@ -11447,10 +11448,10 @@
         <v>9</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E107" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A107 &amp; "/" &amp; B107 &amp; "_" &amp; C107 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014010219/3_9.wav</v>
       </c>
     </row>
@@ -11465,10 +11466,10 @@
         <v>9</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E108" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A108 &amp; "/" &amp; B108 &amp; "_" &amp; C108 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014010728/8_9.wav</v>
       </c>
     </row>
@@ -11483,10 +11484,10 @@
         <v>9</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E109" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A109 &amp; "/" &amp; B109 &amp; "_" &amp; C109 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014011004/6_9.wav</v>
       </c>
     </row>
@@ -11501,10 +11502,10 @@
         <v>9</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E110" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A110 &amp; "/" &amp; B110 &amp; "_" &amp; C110 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014012173/9_9.wav</v>
       </c>
     </row>
@@ -11519,10 +11520,10 @@
         <v>9</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E111" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A111 &amp; "/" &amp; B111 &amp; "_" &amp; C111 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014012337/11_9.wav</v>
       </c>
     </row>
@@ -11537,10 +11538,10 @@
         <v>9</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E112" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A112 &amp; "/" &amp; B112 &amp; "_" &amp; C112 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014012991/8_9.wav</v>
       </c>
     </row>
@@ -11555,10 +11556,10 @@
         <v>9</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E113" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A113 &amp; "/" &amp; B113 &amp; "_" &amp; C113 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014013072/3_9.wav</v>
       </c>
     </row>
@@ -11573,10 +11574,10 @@
         <v>9</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E114" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A114 &amp; "/" &amp; B114 &amp; "_" &amp; C114 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014013076/5_9.wav</v>
       </c>
     </row>
@@ -11591,10 +11592,10 @@
         <v>9</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E115" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A115 &amp; "/" &amp; B115 &amp; "_" &amp; C115 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014013409/6_9.wav</v>
       </c>
     </row>
@@ -11609,10 +11610,10 @@
         <v>9</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E116" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A116 &amp; "/" &amp; B116 &amp; "_" &amp; C116 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014620840/12_9.wav</v>
       </c>
     </row>
@@ -11627,10 +11628,10 @@
         <v>11</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E117" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A117 &amp; "/" &amp; B117 &amp; "_" &amp; C117 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2011010412/11_11.wav</v>
       </c>
     </row>
@@ -11645,10 +11646,10 @@
         <v>11</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E118" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A118 &amp; "/" &amp; B118 &amp; "_" &amp; C118 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2011011235/7_11.wav</v>
       </c>
     </row>
@@ -11663,10 +11664,10 @@
         <v>11</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E119" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A119 &amp; "/" &amp; B119 &amp; "_" &amp; C119 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2011011239/8_11.wav</v>
       </c>
     </row>
@@ -11681,10 +11682,10 @@
         <v>11</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E120" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A120 &amp; "/" &amp; B120 &amp; "_" &amp; C120 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2011011254/1_11.wav</v>
       </c>
     </row>
@@ -11699,10 +11700,10 @@
         <v>11</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E121" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A121 &amp; "/" &amp; B121 &amp; "_" &amp; C121 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2011011268/3_11.wav</v>
       </c>
     </row>
@@ -11717,10 +11718,10 @@
         <v>11</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E122" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A122 &amp; "/" &amp; B122 &amp; "_" &amp; C122 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2011012703/4_11.wav</v>
       </c>
     </row>
@@ -11735,10 +11736,10 @@
         <v>11</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E123" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A123 &amp; "/" &amp; B123 &amp; "_" &amp; C123 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2012011297/6_11.wav</v>
       </c>
     </row>
@@ -11753,10 +11754,10 @@
         <v>11</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E124" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A124 &amp; "/" &amp; B124 &amp; "_" &amp; C124 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2012012731/9_11.wav</v>
       </c>
     </row>
@@ -11771,10 +11772,10 @@
         <v>11</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E125" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A125 &amp; "/" &amp; B125 &amp; "_" &amp; C125 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013010773/10_11.wav</v>
       </c>
     </row>
@@ -11789,10 +11790,10 @@
         <v>11</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E126" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A126 &amp; "/" &amp; B126 &amp; "_" &amp; C126 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013010775/3_11.wav</v>
       </c>
     </row>
@@ -11807,10 +11808,10 @@
         <v>11</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E127" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A127 &amp; "/" &amp; B127 &amp; "_" &amp; C127 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013011103/8_11.wav</v>
       </c>
     </row>
@@ -11825,10 +11826,10 @@
         <v>11</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E128" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A128 &amp; "/" &amp; B128 &amp; "_" &amp; C128 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013011392/3_11.wav</v>
       </c>
     </row>
@@ -11843,10 +11844,10 @@
         <v>11</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E129" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A129 &amp; "/" &amp; B129 &amp; "_" &amp; C129 &amp; ".wav"</f>
+        <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013011395/1_11.wav</v>
       </c>
     </row>
@@ -11861,10 +11862,10 @@
         <v>11</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E130" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A130 &amp; "/" &amp; B130 &amp; "_" &amp; C130 &amp; ".wav"</f>
+        <f t="shared" ref="E130:E161" si="4">"http://59.66.209.26:23380/wav/" &amp; A130 &amp; "/" &amp; B130 &amp; "_" &amp; C130 &amp; ".wav"</f>
         <v>http://59.66.209.26:23380/wav/2013011400/9_11.wav</v>
       </c>
     </row>
@@ -11879,10 +11880,10 @@
         <v>11</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E131" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A131 &amp; "/" &amp; B131 &amp; "_" &amp; C131 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013011429/7_11.wav</v>
       </c>
     </row>
@@ -11897,10 +11898,10 @@
         <v>11</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E132" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A132 &amp; "/" &amp; B132 &amp; "_" &amp; C132 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013011437/3_11.wav</v>
       </c>
     </row>
@@ -11915,10 +11916,10 @@
         <v>11</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E133" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A133 &amp; "/" &amp; B133 &amp; "_" &amp; C133 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013012946/3_11.wav</v>
       </c>
     </row>
@@ -11933,10 +11934,10 @@
         <v>11</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E134" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A134 &amp; "/" &amp; B134 &amp; "_" &amp; C134 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013012949/12_11.wav</v>
       </c>
     </row>
@@ -11951,10 +11952,10 @@
         <v>11</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E135" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A135 &amp; "/" &amp; B135 &amp; "_" &amp; C135 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013013014/6_11.wav</v>
       </c>
     </row>
@@ -11969,10 +11970,10 @@
         <v>11</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E136" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A136 &amp; "/" &amp; B136 &amp; "_" &amp; C136 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014010219/7_11.wav</v>
       </c>
     </row>
@@ -11987,10 +11988,10 @@
         <v>11</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E137" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A137 &amp; "/" &amp; B137 &amp; "_" &amp; C137 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014010728/9_11.wav</v>
       </c>
     </row>
@@ -12005,10 +12006,10 @@
         <v>11</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E138" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A138 &amp; "/" &amp; B138 &amp; "_" &amp; C138 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014011004/4_11.wav</v>
       </c>
     </row>
@@ -12023,10 +12024,10 @@
         <v>11</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E139" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A139 &amp; "/" &amp; B139 &amp; "_" &amp; C139 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014012173/11_11.wav</v>
       </c>
     </row>
@@ -12041,10 +12042,10 @@
         <v>11</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E140" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A140 &amp; "/" &amp; B140 &amp; "_" &amp; C140 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014012337/3_11.wav</v>
       </c>
     </row>
@@ -12059,10 +12060,10 @@
         <v>11</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E141" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A141 &amp; "/" &amp; B141 &amp; "_" &amp; C141 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014012991/12_11.wav</v>
       </c>
     </row>
@@ -12077,10 +12078,10 @@
         <v>11</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E142" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A142 &amp; "/" &amp; B142 &amp; "_" &amp; C142 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014013072/8_11.wav</v>
       </c>
     </row>
@@ -12095,10 +12096,10 @@
         <v>11</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E143" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A143 &amp; "/" &amp; B143 &amp; "_" &amp; C143 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014013076/7_11.wav</v>
       </c>
     </row>
@@ -12113,10 +12114,10 @@
         <v>11</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E144" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A144 &amp; "/" &amp; B144 &amp; "_" &amp; C144 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014013409/11_11.wav</v>
       </c>
     </row>
@@ -12131,10 +12132,10 @@
         <v>11</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E145" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A145 &amp; "/" &amp; B145 &amp; "_" &amp; C145 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2014620840/9_11.wav</v>
       </c>
     </row>
@@ -12149,10 +12150,10 @@
         <v>12</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E146" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A146 &amp; "/" &amp; B146 &amp; "_" &amp; C146 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2011010412/8_12.wav</v>
       </c>
     </row>
@@ -12167,10 +12168,10 @@
         <v>12</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E147" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A147 &amp; "/" &amp; B147 &amp; "_" &amp; C147 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2011011235/1_12.wav</v>
       </c>
     </row>
@@ -12185,10 +12186,10 @@
         <v>12</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E148" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A148 &amp; "/" &amp; B148 &amp; "_" &amp; C148 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2011011239/2_12.wav</v>
       </c>
     </row>
@@ -12203,10 +12204,10 @@
         <v>12</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E149" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A149 &amp; "/" &amp; B149 &amp; "_" &amp; C149 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2011011254/11_12.wav</v>
       </c>
     </row>
@@ -12221,10 +12222,10 @@
         <v>12</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E150" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A150 &amp; "/" &amp; B150 &amp; "_" &amp; C150 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2011011268/11_12.wav</v>
       </c>
     </row>
@@ -12239,10 +12240,10 @@
         <v>12</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E151" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A151 &amp; "/" &amp; B151 &amp; "_" &amp; C151 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2011012703/12_12.wav</v>
       </c>
     </row>
@@ -12257,10 +12258,10 @@
         <v>12</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E152" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A152 &amp; "/" &amp; B152 &amp; "_" &amp; C152 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2012011297/9_12.wav</v>
       </c>
     </row>
@@ -12275,10 +12276,10 @@
         <v>12</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E153" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A153 &amp; "/" &amp; B153 &amp; "_" &amp; C153 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2012012731/11_12.wav</v>
       </c>
     </row>
@@ -12293,10 +12294,10 @@
         <v>12</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E154" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A154 &amp; "/" &amp; B154 &amp; "_" &amp; C154 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013010773/12_12.wav</v>
       </c>
     </row>
@@ -12311,10 +12312,10 @@
         <v>12</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E155" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A155 &amp; "/" &amp; B155 &amp; "_" &amp; C155 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013010775/7_12.wav</v>
       </c>
     </row>
@@ -12329,10 +12330,10 @@
         <v>12</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E156" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A156 &amp; "/" &amp; B156 &amp; "_" &amp; C156 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013011103/11_12.wav</v>
       </c>
     </row>
@@ -12347,10 +12348,10 @@
         <v>12</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E157" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A157 &amp; "/" &amp; B157 &amp; "_" &amp; C157 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013011392/11_12.wav</v>
       </c>
     </row>
@@ -12365,10 +12366,10 @@
         <v>12</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E158" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A158 &amp; "/" &amp; B158 &amp; "_" &amp; C158 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013011395/5_12.wav</v>
       </c>
     </row>
@@ -12383,10 +12384,10 @@
         <v>12</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="E159" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A159 &amp; "/" &amp; B159 &amp; "_" &amp; C159 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013011400/2_12.wav</v>
       </c>
     </row>
@@ -12401,10 +12402,10 @@
         <v>12</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E160" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A160 &amp; "/" &amp; B160 &amp; "_" &amp; C160 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013011429/8_12.wav</v>
       </c>
     </row>
@@ -12419,10 +12420,10 @@
         <v>12</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E161" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A161 &amp; "/" &amp; B161 &amp; "_" &amp; C161 &amp; ".wav"</f>
+        <f t="shared" si="4"/>
         <v>http://59.66.209.26:23380/wav/2013011437/10_12.wav</v>
       </c>
     </row>
@@ -12437,10 +12438,10 @@
         <v>12</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E162" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A162 &amp; "/" &amp; B162 &amp; "_" &amp; C162 &amp; ".wav"</f>
+        <f t="shared" ref="E162:E174" si="5">"http://59.66.209.26:23380/wav/" &amp; A162 &amp; "/" &amp; B162 &amp; "_" &amp; C162 &amp; ".wav"</f>
         <v>http://59.66.209.26:23380/wav/2013012946/4_12.wav</v>
       </c>
     </row>
@@ -12455,10 +12456,10 @@
         <v>12</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="E163" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A163 &amp; "/" &amp; B163 &amp; "_" &amp; C163 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013012949/9_12.wav</v>
       </c>
     </row>
@@ -12473,10 +12474,10 @@
         <v>12</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E164" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A164 &amp; "/" &amp; B164 &amp; "_" &amp; C164 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2013013014/1_12.wav</v>
       </c>
     </row>
@@ -12491,10 +12492,10 @@
         <v>12</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E165" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A165 &amp; "/" &amp; B165 &amp; "_" &amp; C165 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014010219/11_12.wav</v>
       </c>
     </row>
@@ -12509,10 +12510,10 @@
         <v>12</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E166" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A166 &amp; "/" &amp; B166 &amp; "_" &amp; C166 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014010728/1_12.wav</v>
       </c>
     </row>
@@ -12527,10 +12528,10 @@
         <v>12</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E167" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A167 &amp; "/" &amp; B167 &amp; "_" &amp; C167 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014011004/11_12.wav</v>
       </c>
     </row>
@@ -12545,10 +12546,10 @@
         <v>12</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E168" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A168 &amp; "/" &amp; B168 &amp; "_" &amp; C168 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014012173/8_12.wav</v>
       </c>
     </row>
@@ -12563,10 +12564,10 @@
         <v>12</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E169" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A169 &amp; "/" &amp; B169 &amp; "_" &amp; C169 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014012337/8_12.wav</v>
       </c>
     </row>
@@ -12581,10 +12582,10 @@
         <v>12</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E170" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A170 &amp; "/" &amp; B170 &amp; "_" &amp; C170 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014012991/11_12.wav</v>
       </c>
     </row>
@@ -12599,10 +12600,10 @@
         <v>12</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E171" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A171 &amp; "/" &amp; B171 &amp; "_" &amp; C171 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014013072/2_12.wav</v>
       </c>
     </row>
@@ -12617,10 +12618,10 @@
         <v>12</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E172" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A172 &amp; "/" &amp; B172 &amp; "_" &amp; C172 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014013076/6_12.wav</v>
       </c>
     </row>
@@ -12635,10 +12636,10 @@
         <v>12</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E173" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A173 &amp; "/" &amp; B173 &amp; "_" &amp; C173 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014013409/2_12.wav</v>
       </c>
     </row>
@@ -12647,16 +12648,16 @@
         <v>2014620840</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C174" s="2">
         <v>12</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="E174" s="1" t="str">
-        <f>"http://59.66.209.26:23380/wav/" &amp; A174 &amp; "/" &amp; B174 &amp; "_" &amp; C174 &amp; ".wav"</f>
+        <f t="shared" si="5"/>
         <v>http://59.66.209.26:23380/wav/2014620840/ _12.wav</v>
       </c>
     </row>

--- a/data/RecordCorrection.orig.xlsx
+++ b/data/RecordCorrection.orig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luocheng\IdeaProjects\BLEUAnalysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ideaproj\BLEUAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="349">
   <si>
     <t>想，僵尸，携程，再冲需要，现在转，任，一高的人瘦，还有些偏瘦的地方，瘦，然后选购的话，一般是，他们名字，后面的，小鱼转，了一家，那就约炮，然后一般来说从三十岁开始投保，啊，大概平均每年，</t>
   </si>
@@ -110,15 +110,9 @@
     <t>呵呵就是他又要去北京周边玩费劲周岁我觉得，根据我的经验然后一般的了解哈只是一般小怀柔玩儿女人戏，余额彻底查处就都会好的然后如果走远一点的哈像喝醉咋成的啊然后，而在我姐也有就是发生草原啊也就是外，指猴，额就是有自然风光和有骨既我觉都挺好的然后，因为我是一直用百度旅游在查阅东西然后，哦，我觉得最好的，我觉最好，有习题，哦我看到，主角最后有可能，还是就是我之前去过的地方实在是在河北一个特别篇的小智里面然后教育显然会受灾，就是在周六的网上查到的在乎，我觉因为里面人特别少退安井然后谷姐特原为所以我觉挺好的，</t>
   </si>
   <si>
-    <t>印象最深应该是一个叫做跑步着跑入无人的刘浦鱼游戏就是，二二一句话，恩瑞格，索兰，的很然后就是这是对是两个人进行暗访然后他们两个看到就他喵描述的这个话但是他们两个就是在另外一个人面前就是，描述这个东西两个互相沟通的而且不存暂时不提到他们描述的事件的名字然后有另外一个人去猜他们要表述的实践然后之后组长会出来高层就是，而在别人面前朋友文讲话的感受，再然后，臭作其他的准备吧就是，就是，希望他们可以可以理解尊重别人懂想学又又有娱乐性在此只，一种叫史可，</t>
-  </si>
-  <si>
     <t>五港版ｉｐｈｏｎｅ五次成高尔夫六的还是骨茶倒是支持国内移动网络的基本上然后，而不管是六还是六五六杀虽然厚度是，都是可以的吧二级三级四级都是支持的，然后关水，恩光说了哇我看的是百分之十，而是十左右然后她说要根据具体的就当月情况然后会有所增减，</t>
   </si>
   <si>
-    <t>偶印象最深的一个应该是，啊，叫名字叫大混蛋，意思是让大家分成两个人来用直传什么了，啊人的人就像人生修养，不过这款游戏稍微ｏ感觉稍微适合你大家熟悉一点之后玩这种，啊，他准备，基本上么有了也就是准备一些纸之类的波，啊，在最开始大家比较生疏的情况下还是建议网友们像，啊看不踩死啊，之类的这方面，</t>
-  </si>
-  <si>
     <t>啊，我比较推荐的是，主要是看你个人喜欢哪方面还如果你稍微喜欢风景区这里那去游玩的话可能是，怀柔哪门了，嘛，因为还有句话有很多呢，王立军，啊难道你，而且因为风景区各种恶心，门票之类的也不会很贵，住宿方面在北京购书热地方旅行方式差不多总能当我们找到桂林找个便宜，然后如果你稍微全公园性质一点的话，恩最近去常平，的那个地方可以，吗？因为那，公园比较多而且公然办法，门票能便宜，所以花费，俺妹的问题不是很大，只方便程度的话因为宝哥哥鸡鸡鸡晚上也都有公交车或者是地铁，这个只要自己熟悉地图应该就玩了，</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
     <t>偶超级会报警的话是一种适合老年人进行，额木有一种保险三十一组然后他们，有一个叫坤坤，昆仑的什么健康保险公司ｂ级为了保险，王玄谟的话，存在价格方面的话还有几率免得金牛区成华是宝贝说的的，然后他交费期限也会有段时间有一年我是长期的，猥琐的证据赶紧状况来选择一下，哦，保险的利用时间，</t>
   </si>
   <si>
-    <t>恩那个接受函然后内个，小包的准备就吃，嗯就是主办方只要没得瘾，嗯，主办方做好就因为格式前的那个，知道，主办方做好组织工作，血盟升级在街上晃，</t>
-  </si>
-  <si>
     <t>手机迅雷的话重量那，就说普通苍蝇来十五公斤然后那个头头寸还是十五年，然后就是最高价哦哦那咋，能进入深有些危险品哦，嗯还有一些的就说超过一百毫升的液体，然后是不可以带的好，嗯手机清理还要注意它的体积应该是三，嗯心思生一下，哦，哦，嗯可以的都报过案后如果，不了好小腿，</t>
   </si>
   <si>
@@ -170,9 +161,6 @@
     <t>一九，九一，如果在北京，的话，可以，可以局部红好甜，天坛，奥林匹克广场，还有国家，国家博物馆首都博物馆，然后，清华大学北京大学等政治地方，都去看一遍，的去北京周边的话，伊人成，地方不支持，一，但是在北京市内的话可能住宿和交通就不会太方便，出去周边可以考虑，如果想方便受刑的话可以考虑跟旅游团过去，后，嗯，我觉得最好的一个地方可以去，因为十五五月份吗？可以距离，天津逛一下，意大利风情街，</t>
   </si>
   <si>
-    <t>最好了一个游戏，可以加深员工之间互相认识的，就是村民就没有，可以继续使用，这个游戏所做的准备，都需要准备员工组成的圈，然后一直说自己的名字和所在，自己身边所有的，事就，</t>
-  </si>
-  <si>
     <t>嗯周边目的地大概有六个，怀柔那边，嗯怀柔，而称玉米为军都旅游的，然后你觉得，月份在这，最好一个地方，ａ应该是将军路那边吧，一边靠近十三陵，还一些，飞行棋其他的给你的份，也别给别人比的，你在北京郊外比较比较近的安静，哦，耳边还听一些，会所水哦说内容，开开会因为邪淫休会所车开会什么？哦，</t>
   </si>
   <si>
@@ -188,15 +176,9 @@
     <t>吃完看一个女二手市场话一三四六四四的新车但是两百多到三百多之间非彼此一辆二手的，好虐心的话得交那些没找到，嗯，有什么你了解的可能购买渠道，哦，即使网上说你二婶那个表多很会标便宜点，恶心晕车了啊，可买的地方表多吧，</t>
   </si>
   <si>
-    <t>而对一位剩女一个破ｂ游戏就是一个串名字游戏据说，比较适合就是在出境的时候待会安全自动忽然记住别人的名字就说一个原因而九十一拳，哦顺路和女人开始，好就做介绍说我是说回家生名字，然后说一些，嗯，而一直和子有关的然后后面的人就说我是谁谁谁后面的，阿谁谁要再自我介绍一下姐姐一直下去，嗯，最后每人一把情人羽泉的介绍介绍一下，额这个有信不需要做一些准备，在那不就可以了，</t>
-  </si>
-  <si>
     <t>如果是清华大学附近的话哥们诛神，晕车的话可以到清华西门和清华西北门中间有一格，了吗？有水公园的，存在感还啊哈价格三千五百块钱买了名车，那几次也可以通过互联网，啊上网联系店主这样交易，</t>
   </si>
   <si>
-    <t>一行为，给文强退审核并有西施串名字我就有几张，我们系迎新的时候也使用，嗯这个你还真有心的话因为一开始大家都不认识不知道见面的对方名字及他们的身份或者给一些其他信息，价么，苹果将游戏，嗯哪敢在家都能比自己，的心境了解，而且最流行特别适合的才开始都不太认识，能在这里找，这个任务总是将新员工也是十个人左右，我觉得在干非常适合，你这留级了基本不怎么要准备只要游戏中但认真倾听，对方所说的个人信息，然后，嗯，每个人，你都能秒二每个人的号，她前面人所说的，呢，说说的内容，然后复述一遍，讲的话大家也能彼此了解，解决，</t>
-  </si>
-  <si>
     <t>刚买的，最，累，移动的，我看你看到一个博客讲这一个事情，因为香港，的网络的话，哦支持的，服务，与大陆有些，同学是比较累的，中国移动网上值机和中国联通达成自己都可以正常使用，但中国电信的时间没的话在香港，没有，这样说嗯哪行就是支持这个服务暂时，比较难用，你目前的话，可能不是特别稳定，</t>
   </si>
   <si>
@@ -212,9 +194,6 @@
     <t>长的像范冰冰，找的找了个地点比较少，然后我就，因为一个是，主要都是些路线之类的，哦哦，找到一个就是承德避暑山庄还有一个师，秦皇岛还有山海关这三个，主要的话，感觉那个，ｎｂ初生装内存那个还是，比较不错的，他那个，嗯，嗯活动来说比较，比较多了哦，话费的话要稍微高一点，的能让感觉也比较好，然后，方便程度的话，然后就都差不多了都是火车值得，</t>
   </si>
   <si>
-    <t>这个差距不跟你聊超了，有，一二三，嗯，回答，比较傲好，一直最印象最深刻的是一个名字叫结手链的游戏，然后，这个，就是，一名哦，嗯就是那些参加培训的这些事个员工，然后，每个人先伸出左手哦，和，其他人都有嗯那所谓的我我想然后伸出右手，在和另外一个人的右手，嗯我去了老婆，要在最短时间内，把啊，把这个那个，这个结要也要你把这个，事个人觉得手臂打哪种的这个结要解开，嗯然后说啊，你的手也不困阿不可以松开，然后就是为了你个，哦培养团队协作能力，然后这个，一般情一般就两种情况一种是，那就是能给个话能解开然后这个就是出现两个环套的情况，我就去，</t>
-  </si>
-  <si>
     <t>嗯这个，嗯，后，只要不满渠道就是，通过王工，控王工忙后，主要就是，因为，阿奎有些二手的了我以为，你先试，行等有改装的，哦，大概得花，嗯，嗯，从你的价格从，嗯，从两百到那个一千多的有，嗯不懂哦，从网购的话只要是女光棍话就比较便宜些，我改装车的话就，感觉比较贵，</t>
   </si>
   <si>
@@ -233,9 +212,6 @@
     <t>瘦的胸有重量不得超过七公斤，嗯，禁止携带大量的液体物质，恩液体必须放在，软毫升以内的容器内，病区所有的，液体物品应该装好放在一个可重复封口的老在那，你需要的容积不得超过一升，恩提车，初三不应该超过二尺二，</t>
   </si>
   <si>
-    <t>印象最深的图片陆续的名称是一家子，做这个游戏的时候准备，多准备一些原型就是不同的大学，同色彩的圆形图案，就行，</t>
-  </si>
-  <si>
     <t>恩装版送支持，移动和联通的二ｇ三ｇ四ｇ网络但对于电信的网名，就是情况并不理想，</t>
   </si>
   <si>
@@ -257,27 +233,18 @@
     <t>一会，就需针对，老年人，需要比较长期的，照顾，人是，他们有一定的思维能力，哦解决这种矛盾提供拥抱，你家公司提供流畅，为什么？</t>
   </si>
   <si>
-    <t>恩，继续，你的怀抱只，想象一下，向上一三报纸然后让全部人，再叫，那个，再让全部人都这么说报纸上然后，就不能再保持了，</t>
-  </si>
-  <si>
     <t>嗯，你去群的，系你个就因为他，聊城有一种尿路车，一睁眼一，线呢，与，时间太多，根据生源，则的话，一个避暑山庄，就嗯，原文里面，昆明呆，久了，嗯，</t>
   </si>
   <si>
     <t>恩小名可以在赶集网或者五八同城上购买然后也可以在清华西门外的，噢电实体店里购买然后直飞的话根据价格和是否适应，二十二一手车不太一样如果是二手车的话现在网上的价格基本上在，三百到五百然后好一点的可能要一到两千，金属，</t>
   </si>
   <si>
-    <t>我印象最深的一个破冰勇士名称是，嗯，蛋子二人工智能嗯就是游戏需要，嗯就是几位成员各自，ｎ当做，当作机器的一部分就是需要先给这些成员分工那么办某机器的一部分然后让其他的成员或者，嗯或者是培训者，二也就小明来抬举自己是什么，让，王志军要这游戏主要是需要一方面是想给他分功率方面是需要，让，大家有一个比较，良好的配合也所以说也能够，二十和玄工培训的时候破冰，金属，</t>
-  </si>
-  <si>
     <t>嗯，的一点是，额手对于手提行李里面液体的规定不同人的哦木帝国有不同的要求欧盟现在是一上线就在一百毫升以内但是去我勒个完全不能用手提行李里面不能包含液体，嗯，第二点是手提行李重量，哦一般不能国内规定一般不能超过七公斤的三点式手提行李的尺寸应该啊，尺寸的话又的两种计算方法一种是长宽高和不能超过，一百五十厘米还有一种是长宽高各就不能超过多少黎明这点记不太清楚金属，</t>
   </si>
   <si>
     <t>我去根据搜索结果来看，按使用价值搜索非常少，然后可行的备选的可能是木兰围场丰宁坝上草原，嗯，哪他和何成的，嗯，我觉得最好一个地方可能是，马上草原因为他跟北京的，嗯，商场不让他们北京警官身上比较大然后花费的话，俺去的交通就是跟团游的话交通住宿都比较少而且费用都比较小，然后就可以去班上草原一方面视频看景观和那方面她也有一些，啊户外的活动，嗯比如说些游戏然后，嗯起码吃烤羊之类的ｉｐｈｏｎｅ二太暂离北京比较近一点的比较方便但是总体来说我觉得，啊，因为他比较近虽说可能不能充分利用一周的假期，让人智商不好的房间数，</t>
   </si>
   <si>
-    <t>结束游戏，四，岁，是那些准备不用准备大家围成个圈，然后做介绍，后来就是说，我是，一个的原则，做人就这自我介绍完毕之后就是，从一个人先开始说我是谁然后第二个人说是我是谁后面的水的三人组是谁后面的水后面的水，继续下去，在在录一段话好像还没我的，嗯，角色游戏时不都需要做特殊准备所有人围成一个圈，恩，大家先做自我介绍，做完一轮之后从某一个人开始，说我是我叫什名字然后第二个人说我是水后面的是，第三人说我是谁后面的谁后面的水，一直受到的是个人，</t>
-  </si>
-  <si>
     <t>嗯清华大学附近实体店，就，专门卖死的是死飞的实体店就算，了如果想要，价格区间较低的话可以在网上购买也可以买二手自行车，嗯，我想要买比较专业的，就可以去我到银河，嗯，呵呵呵，三里屯附近，的有几家，枕着慢慢死飞的实体店购买，然后二手自行车一般在这个期间，都是在一百到三百之间，然后，实体店里的，价位比较高，可能在我五百到三千之间，</t>
   </si>
   <si>
@@ -302,15 +269,9 @@
     <t>对移动和那个联通的支持比较好电信因为港版就是香港，电信不怎么用盐水，对电信不怎么支持，那个，带回来需要缴税，我插了他那个就是，手教程，售价，五二八八六零八八六八八八，</t>
   </si>
   <si>
-    <t>又一个缩小包围圈还有一个系的一起还有一个是啊，互相自我介绍了一个游戏适合那个新员工培训然后，一般是三两个人自我介绍然后交换角色，然后进入对方优点然后在多个人推广下去将一转的可以互相熟悉下，</t>
-  </si>
-  <si>
     <t>这个，我觉得一百到两百之间的事应该是假的吧但是淘宝和京东上面都有从一百到两百之间的，然后五百到六百之间的也有然后一千两千的也有，下个区见，吧，</t>
   </si>
   <si>
-    <t>额就是额十个人通过龌龊，不同的人的不同和左右手形成一个，捣乱的我，然后，他们，通过，自己的协调，把这让我重新变回一个圆圈或者是，与两个连着的源泉，而这个游戏需要一个人，好像不太受打击准备，需要一个主持的人，</t>
-  </si>
-  <si>
     <t>看，一周的话可以去很多地方而且，北京周边，他给规定的，时间都比较短，一周用不完然后，搜可以去远点地方，啊请说，云南，或者，木有，东北，都挺好的，</t>
   </si>
   <si>
@@ -329,9 +290,6 @@
     <t>一堆题给个你觉得可以进去，叔叔，对拒绝你说为什，可选择，目的地的哦哟，有一个延庆的人，什么张雨生的城堡，我决定要有地方就是，南戴河，国际娱乐中心，因为他那边如果北京过去的话，额首先交通非常方便与，他那边火车飞机把我自家然后大巴都可以到那边，然后娱乐因为他那个中心的娱乐方式很多，然后活动很多，挺方便的吧，</t>
   </si>
   <si>
-    <t>一个，这游戏名字叫做，交换名字然后就是大概十个人左右围坐成一桌然后，嗯每个人记住他右边的乡里的人的名字然后和一个什么主持人之类的问，然后就说什么某某某，做了什么事情然后就是他，应该他，假装的那人的名字然后回答不是真实的那个人的，不是真是那个名字那个人回答这个问题，然后，答对了可以继续下一轮打错将被淘汰最后一格留下那人是胜者，</t>
-  </si>
-  <si>
     <t>是支持移动和联通的二居三居四居电信的卡可以，识别但是不能提供服务，人们讲的就是，都对其他的单位售价是，尽可能回忆下攻略看，宿迁好像，港版的就是，哦十六ｇ的十五前一左右吧五钱一个零头，港版的话，灌水，需要缴纳关税，在香港购买的话，而或说是，官网上预定了，预约需要有香港身份证的一些，咆哮增加后然后，或者可以去直营店购买，</t>
   </si>
   <si>
@@ -350,9 +308,6 @@
     <t>哦，实体店被秒查到还是，最好是网购，但是要注意是网上有很多人说是，就是如果地狱两千块钱的车一般基本上都是，我们江浙的小厂子里做的非常的就是这样不好也，哎，也怨名家那个成本价应该也很低也不因为就是刚才到家就去买，待带两千块钱的预算的时候再去考一些专业厂家的车大舅的，</t>
   </si>
   <si>
-    <t>嗯就是一个，你一个一个将这个十人分成两到三组然后，准备一个黑板上么有九点就是三乘三正方形拍的，九个点，然后，给一段时间让他们讨论用一笔画成的四条直线能否，通过这九个点一笔通过九点，嗯然后，看来租用的旋转然后最后来讨论讨论一下大家怎么降了一级，恩有什么心得体会，</t>
-  </si>
-  <si>
     <t>嗯，对联通和移动的网络是完全支持的但对电信的网络是不支持的，就是，对那个教官说，哦，快睡的话网上一般说是如果一般是如果买一台还不会被发现也就不会也不用交税，万一被发现了网上的说法不太统一有由的说两百的五百有个说是百分之十，</t>
   </si>
   <si>
@@ -374,18 +329,12 @@
     <t>手提其形也注意事项与中药处元彪成龙公斤然后进入频么哦易燃易爆的有毒的都不耐然后呢，化妆品之类的，有没加容量不超过，一百毫升就可以了后，嗯，晕，</t>
   </si>
   <si>
-    <t>最印象深的是阿一块钱两块钱的游戏就是，如果男生的数量大于女生的话啊，就能挣到两块钱你是那一块钱而反之就是女生当两块钱然后能弄一块钱，然后老大说是十分左右完然后当主持人一哈，就说行了八块钱然后现场立马戒烟，不同的天气与组合让我达到他的数量多是，啊剩下的那几个人，就出来当鬼然后了这样子，然后准备的话么有什么有玩就可以了，</t>
-  </si>
-  <si>
     <t>你可能被选中啊有长城故宫然后颐和园，嗯这个好最好应该是武功，老公的话时间段是阿奇在王朝的最高皇皇家，附带的吧然后她女儿就有非常安徽的建筑一些他的后花园还也不错，然后他的什么？厚街镇也挺近，你然后，工作为的旅店有比较便宜的嗯呢两百到三百之间的也已经说了而且红哦，前门天安门天安门远哦，地铁公交都特别方便然后也比较适合，去其他地方再赚荣誉，而，与推荐功能，</t>
   </si>
   <si>
     <t>全部支持，全部都识，</t>
   </si>
   <si>
-    <t>去屎，嗯，据说男的和女的分别代表不同的洗漱水河南代表议案的代表五角然后组成，随即快速说出一个数，然后，恩有十三块然后继续三个女的喝了六男的在一起然后就可以，在接下来然后这样就不让淘汰人，又洗被子，</t>
-  </si>
-  <si>
     <t>见此时不得超过七公斤的手提行李不能超过虚荣心也就是，最大超过，那个托运的最大不超过二十乘四十乘五十五厘米，然后，手提行李中液体最多可以贷，再在一声然后四爷自己西装蕾丝透明袋里然后要分成小盒每个小盒的容积不超过一百毫升，嗯，必须首先行李包和一个电脑什么证件，我懂了华贵人无限的，后超过胸襟的什么过于大了就去洗脱液，</t>
   </si>
   <si>
@@ -401,9 +350,6 @@
     <t>刚买ｉｐｈｏｎｅ六可以支持国内联通的三ｇ四ｇ网络一起，嗯移动的，嗯嗯，呵呵，干嘛说牛逼支持国内移动的二ｇ三ｇ四ｇ网络一起你懂的，三ｇ网络而掉落的地点现在一点没来说不至是不需要进行破解和更改进，</t>
   </si>
   <si>
-    <t>应该是一个算命的游戏，众人围成一圈大约十人左右恐惧选择卫生间，每个人把这个名字换成有房姜堰的名字，然后主持人可以开去提问，但是一听到我没跟您咨询真名的人不给回答，而现实中的女的时候可以回答，想可以，提高，爱的先攻的接口对接合作弄的，</t>
-  </si>
-  <si>
     <t>长期护理保险是指任一年老疾病和伤残透支五零无法自理的一种保险，那，在这个保险出去却只能交换一种保险的欧美遇上知己，吧年代出现在一本与二零零年出现，在中国目前只有国泰安俺不太熟和，提供的一个康路还有衣食无忧提供一个全全无油，汀长期护理保险，对长期护理保险而言保费较高，可能很累而已毕竟我并没哟，一个固定值，所以在选购长颈鹿不理解保险时应咨询相关人士，并且你，还可以给你些，老人和，小伤病者ｎｔ陷阱够长久的保险也可以充吗？</t>
   </si>
   <si>
@@ -416,9 +362,6 @@
     <t>下面可以选择去沽源的草原之行我的事，天津有我也许去上海甚至可以直接去，嗯嗯在北京附近，毕竟，我觉得好应该是固原的幸运，你五月份的哇草原汇票与美，嗯，嗯交通方便了固原离北京很近，住宿也没人会说我们要多在多加十个一级的可以当的起什么人的草原，还得很还有和其他一些，度假村活动，方方面也行嗯果然你的理解健身方面随便推荐给跪了，</t>
   </si>
   <si>
-    <t>嗯，是春玲子，哦，最近有一个人先说出名字，嗯然后由身边的人最虽然说他是学生谁后面的谁谁谁，以此类推，然后随机点，随机点出，哦同学让他，帮复述这个过程，嗯，ｓｏ，嗯，哦名称是创立，创林仔，准备实施个人坐成一圈，有其他事，</t>
-  </si>
-  <si>
     <t>嗯中国移动和联通的网络，支持分流，嗯然后电信的，他是恩被系统自动的屏蔽但是可以激活但是激活过后好像还是，不太支持，滚水，欧冠说的话消肿了闻说，恩冈本最的是四千三百左右，然后，美的事物五千二百度使，哦吴桥百八十或者只是官方的报价而可爱是，如此，</t>
   </si>
   <si>
@@ -434,9 +377,6 @@
     <t>恩入门可以去五八同城找清华西门附近卖四轮自行车，嗯或者说不网购的话大概车程从一二百到七八百不等，嗯，然后如果实在只能自己网购的话，基本上造成的三百左右，工作恩珠和西门的店哦自行车店大概是七八百，二手的能收到了什么？恩这个可以在本群暂时，走到外处，清华西门的车，这就是春秋，很可能是，</t>
   </si>
   <si>
-    <t>影响最深的是看名字有一点然后准备的话，不需要什么特殊的准备就是人员到齐了大家开始就可以，</t>
-  </si>
-  <si>
     <t>嗯现在一般的厂都一般了保险公司都有提供产品会保险长期护理保险是，嗯，健康保险中一种侧重于提供长期护理保障的人啊尤其是那个高龄人群然后再，出现一些的因为身体方面营销护理的时候有保险责任给付保险金的帐一种保险，然后选购长期保鲜库里保险要根据自己的经济能力因为你与他的保费，额有多种方式有多种，方式基本上是平准时然后，阿保机也是有长有短需要根据自己的实际情况，擦，</t>
   </si>
   <si>
@@ -459,9 +399,6 @@
   </si>
   <si>
     <t>哦，我给他选择的备选目的地是，这个八达岭长城还有十三陵还有这个鸟巢水立方的一日游，还因为这个网上搜索结果一广告居多很难找到，这个五月份北京合适周边出游的地点的最佳选择可能需要大量的时间去寻找所以我就给他找了一个最便捷可能是最经济可能的是稍微累点的一个一日游的图形发，</t>
-  </si>
-  <si>
-    <t>哦印象最深的一个破冰游戏叫做这个，猜拳然后孵小鸡和这事大家都是开始中的地上当鸡蛋然后鸡蛋跟鸡蛋，去猜拳然后赢的人站起来升级成小鸡小鸡跟小舅在猜拳分析成母鸡母鸡在采泉州中升记者凤凰的过程中熟的人被淘汰到上一个阶段继续和其他的人ｐｋ才去了这个活动我觉得，嗯比较简单，嗯别叫我这个不我不需要特别多的道具和场地的准备然后同最能够取得非常好的破冰交流的效果，</t>
   </si>
   <si>
     <t>哦，搜索结果比较集中地指向了赶集网五八城同盛这儿的一些这种书卖的网站然后了解了下一辆死飞均价大概刷的是在这些网站上可以很轻易的找到李清华表近的很多家店，所以应该可以是直接到这些实体店中区，去挑选和购买这个死飞自行车，</t>
@@ -1490,7 +1427,95 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>唉我印象最深的一个普遍游戏就是，嗯就是而能够很有效的帮助大家尽快，记住彼此名字，就是第一个人先说我是，啊生什么样的事是谁，哦哦名称名称就是，名称名称是什么？嗯，呢，哦，哦就是新人是我是什么样的身世然后第二个人，按在按要记着的人说，那就是说我是，是么什么样的是谁旁边的什么样了谁是，然后因为他们人不是很多所以，俺就接到最后一个人大概，也，不算太长，然后，嗯做这个游戏，也不需要做任何的准备，按就可以让大家很快的记住名字然后还有，那个那个人对自己非常简单的一个词评价，</t>
+    <t>唉我印象最深的一个破冰游戏就是，嗯就是而能够很有效地帮助大家尽快，记住彼此名字，就是第一个人先说我是什么样的是谁，名称就是，然后第二个人接着第一个人说，我是什么样的旁边的谁谁谁旁边的什么样的谁谁谁，因为他们人不是很多，接到最后一个人大概也不算太长，然后，做这个游戏，也不需要做任何的准备，就可以让大家很快的记住名字然后还有那个人对自己非常简单的一个评价。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>印象最深应该是一个叫做旁若无人的破冰游戏就是两个人进一间暗房，然后他们两个看到他们要描述的话但是他们两个就是在另外一个人面前就是，描述这个东西，两个人互相沟通的而且不存，暂时不提到他们描述的事件的名字，然后有另外一个人去猜他们要表述的事件然后之后组长会出来告诉他们就是，而在别人面前旁若无人讲话的感受，再然后，不需要做其他的准备就是希望他们可以理解尊重别人，又有娱乐性在。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我印象最深的一个应该是，啊，叫名字叫大混战，意思是让大家分成两队，可以用纸团什么的，扔来扔去，像扔雪球一样。不过这款游戏感觉稍微适合大家熟悉一点之后玩这种游戏。准备基本上没有了也就是准备一些纸之类的东西，在最开始大家比较生疏的情况下还是建议玩一些看图猜词啊这之类的游戏。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一个叫做解手链的游戏，就是一个人用右手握住对面一个人的手，左手握住旁边的人的手，然后他们围成错综复杂的结，需要在有限的时间内解开，有两种情况，一种是大家围成一个大圈，或者套着的小圈，如果解不开的话可以允许他们临时把手断开然后迅速连上，就是这个意思。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>接手环，需要做的准备就是主办发做好事前的，主办发做好组织工作就可以了。游戏的名称是解手环。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好了一个游戏，可以加深员工之间互相认识的，就是串名字的游戏，可以所有员工一起，这个游戏所做的准备，不需要做什么准备，员工坐成一个圈，然后一直说自己的名字和之前所有人的名字就可以了。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>印象最深的一个游戏就是一个串名字游戏，据说，比较适合就是在初次见面的的时候大家互相记住别人的名字。十个人围成一圈，顺时针或逆时针开始，就自我介绍说我叫什么名字，然后说一些和自己有关的，后面的人就说我是谁谁谁后面的谁谁谁，再自我介绍一下。就这样依次下去，嗯，最后面一个人要把前面的人介绍一下，这个游戏不需要做一些准备，只要人全部到就可以了。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>给我印象最深的一个游戏是串名字，因为这个游戏我们系迎新的时候也使用。嗯这个游戏的话，因为一开始大家都不认识，不知道对方的名字及他们的身份或者给一些其他信息，经过这样一个游戏，大家彼此都能进行一定的了解，而且这个游戏特别适合的大家开始都不太认识，这个任务主要是讲新员工，也是十个人左右，我觉得非常适合，这个游戏基本不怎么要准备只要游戏中认真倾听对方所说的个人信息，然后，嗯，每个人，你都能几号她前面人所说的内容，然后复述一遍，讲的话大家也能彼此了解。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>印象最深刻的是一个名字叫解手链的游戏，然后，这个，就是那些参加培训的这些十个员工，然后，每个人先伸出左手哦，和，其他人左手握起来，然后伸出右手，在和另外一个人的右手握起来，要在最短时间内，把这个这个结，十个人手臂打成的这个结要解开，然后手也不可以松开，然后就是为了培养团队协作能力，然后这个一般就两种情况一种是，一种就是这个环可以解开，然后这个就是出现两个环套的情况。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>印象最深的破冰游戏的名称叫做毕加索，做这个游戏的时候多准备一些圆形，就是不同的大小，不同色彩的圆形图案。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>印象最深的游戏是踩报纸，需要一张一开的报纸，让全部的人都站在报纸上，脚不能落到报纸以外的地方。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我印象最深的一个破冰游戏名称是，人工智能，这个游戏需要，几位成员各自扮作机器的一部分就是需要先给这些成员分工那么扮某机器的一部分然后让其他的成员或者，嗯或者是培训者，也就是小明来猜这个机器是什么，这游戏主要是需要一方面给大家分工，另外一方面是需要大家有一个比较良好的配合也所以说也比较适合破冰。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>印象最深的就是串名字游戏，不需要什么特殊的准备就是人员到齐，大家开始就可以。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦印象最深的一个破冰游戏叫做这个猜拳,然后孵小鸡，大家都是开始蹲在地上当鸡蛋然后鸡蛋跟鸡蛋，去猜拳然后赢的人站起来升级成小鸡，小鸡跟小鸡再猜拳，升级成母鸡，母鸡在猜拳，升级成凤凰，这个过程中输的人被淘汰到上一个阶段继续和其他的人pk。这个活动我觉得比较简单，不需要特别多的道具和场地的准备,然后同时也能够取得非常好的破冰交流的效果，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>接手游戏，不需要做特殊准备所有人围成一个圈，恩，大家先做自我介绍，做完一轮之后从某一个人开始，说我是我叫什名字然后第二个人说我是谁后面的谁，第三人说我是谁后面的谁后面的水，一直说到的第十个人。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一个缩小包围圈，还有一个系在一起，还有一个是互相自我介绍的一个游戏适合那个新员工培训。然后，一般是先两个人自我介绍，然后交换角色，然后记录对方优点，然后在多个人推广下去，可以互相熟悉下。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>十个人通过握住不同的人的不同的左右手形成一个打乱的网，然后，他们通过自己的协调，把这张网新变回一个圆圈或者是两个连着的圆圈，而这个游戏需要一个人，好像不太需要哪些准备，需要一个主持的人。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>这游戏名字叫做，交换名字，然后就是大概十个人左右围坐成一桌然后，嗯每个人记住他右边的相邻的人的名字。然后一个什么主持人之类的问，然后就说什么某某某，做了什么事情然后就是他，应该他，假装的那人的名字然后回答不是真实的那个人的，不是真是那个名字那个人回答这个问题，然后，答对了可以继续下一轮打错将被淘汰最后一格留下那人是胜者。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>将这个十人分成两到三组然后，准备一个黑板上么有九点就是三乘三正方形排的，九个点，然后，给一段时间让他们讨论用一笔画成的四条直线能否，通过这九个点一笔通过九点，嗯然后，看来哪组用的时间最短，然后最后来讨论一下看大家怎么想的，有什么心得体会。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最印象深的是阿一块钱两块钱的游戏就是，如果男生的数量大于女生的话啊，男生当两块钱女生当一块钱而反之就是女生当两块钱然后男生当一块钱，然后大约是十个人左右玩，然后当主持人一喊比如说八块钱现场立马组合，达到他的数量，剩下的那几个人，就出来当鬼然后就这样子，然后准备的话么有什么，玩就可以了。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>男的和女的分别代表不同的钱数，比如说男的当一元，女生当五角，主持人随机快速说出一个数，然后，比如说三块然后三个女的和六个男的在一起然后就可以，再进行下一轮，然后这样就不断淘汰人。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该是一个换命的游戏，众人围成一圈大约十人左右，每个人把这个名字换成有右方向的人的名字，然后主持人可以开去提问，但是一听到提问，真名的人不给回答，而暂时充当那个人的人可以回答，这样可以提高对新员工的认可度以及合作动力。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是串名字，哦，先由一个人说出名字，嗯然后由身边的人说他是谁谁谁后面的谁谁谁，依次类推，然后随机点，随机点出一个同学让他复述这个过程，准备是十个人坐成一圈，没有其他准备。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2451,8 +2476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="E232" sqref="E232"/>
+    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="E201" sqref="E201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2464,7 +2489,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B1" s="1">
         <v>2011010412</v>
@@ -2476,7 +2501,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="F1" s="1" t="str">
         <f t="shared" ref="F1:F32" si="0">"http://59.66.209.26:23380/wav/" &amp; B1 &amp; "/" &amp; C1 &amp; "_" &amp; D1 &amp; ".wav"</f>
@@ -2485,7 +2510,7 @@
     </row>
     <row r="2" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B2" s="1">
         <v>2011011235</v>
@@ -2497,7 +2522,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F2" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2506,7 +2531,7 @@
     </row>
     <row r="3" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B3" s="1">
         <v>2011011239</v>
@@ -2518,7 +2543,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="F3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2527,7 +2552,7 @@
     </row>
     <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B4" s="1">
         <v>2011011254</v>
@@ -2539,7 +2564,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2548,7 +2573,7 @@
     </row>
     <row r="5" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B5" s="1">
         <v>2011011268</v>
@@ -2560,7 +2585,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2569,7 +2594,7 @@
     </row>
     <row r="6" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B6" s="1">
         <v>2011012703</v>
@@ -2581,7 +2606,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2590,7 +2615,7 @@
     </row>
     <row r="7" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B7" s="1">
         <v>2012011297</v>
@@ -2602,7 +2627,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2611,7 +2636,7 @@
     </row>
     <row r="8" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B8" s="1">
         <v>2012012731</v>
@@ -2623,7 +2648,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2632,7 +2657,7 @@
     </row>
     <row r="9" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B9" s="1">
         <v>2013010773</v>
@@ -2644,7 +2669,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2653,7 +2678,7 @@
     </row>
     <row r="10" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B10" s="1">
         <v>2013010775</v>
@@ -2665,7 +2690,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2674,7 +2699,7 @@
     </row>
     <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B11" s="1">
         <v>2013011103</v>
@@ -2686,7 +2711,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2695,7 +2720,7 @@
     </row>
     <row r="12" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B12" s="1">
         <v>2013011392</v>
@@ -2707,7 +2732,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="F12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2716,7 +2741,7 @@
     </row>
     <row r="13" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B13" s="1">
         <v>2013011395</v>
@@ -2728,7 +2753,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2737,7 +2762,7 @@
     </row>
     <row r="14" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B14" s="1">
         <v>2013011400</v>
@@ -2749,7 +2774,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="F14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2758,7 +2783,7 @@
     </row>
     <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B15" s="1">
         <v>2013011429</v>
@@ -2770,7 +2795,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2779,7 +2804,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B16" s="1">
         <v>2013011437</v>
@@ -2791,7 +2816,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="F16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2800,7 +2825,7 @@
     </row>
     <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B17" s="1">
         <v>2013012946</v>
@@ -2812,7 +2837,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="F17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2821,7 +2846,7 @@
     </row>
     <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B18" s="1">
         <v>2013012949</v>
@@ -2833,7 +2858,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="F18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2842,7 +2867,7 @@
     </row>
     <row r="19" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B19" s="1">
         <v>2013013014</v>
@@ -2854,7 +2879,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="F19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2863,7 +2888,7 @@
     </row>
     <row r="20" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B20" s="1">
         <v>2014010219</v>
@@ -2875,7 +2900,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="F20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2884,7 +2909,7 @@
     </row>
     <row r="21" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B21" s="1">
         <v>2014010728</v>
@@ -2896,7 +2921,7 @@
         <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="F21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2905,7 +2930,7 @@
     </row>
     <row r="22" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B22" s="1">
         <v>2014011004</v>
@@ -2917,7 +2942,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="F22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2926,7 +2951,7 @@
     </row>
     <row r="23" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B23" s="1">
         <v>2014012173</v>
@@ -2938,7 +2963,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="F23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2947,7 +2972,7 @@
     </row>
     <row r="24" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B24" s="1">
         <v>2014012337</v>
@@ -2959,7 +2984,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="F24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2968,7 +2993,7 @@
     </row>
     <row r="25" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B25" s="1">
         <v>2014012991</v>
@@ -2980,7 +3005,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="F25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2989,7 +3014,7 @@
     </row>
     <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B26" s="1">
         <v>2014013072</v>
@@ -3001,7 +3026,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="F26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3010,7 +3035,7 @@
     </row>
     <row r="27" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B27" s="1">
         <v>2014013076</v>
@@ -3022,7 +3047,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="F27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3031,7 +3056,7 @@
     </row>
     <row r="28" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B28" s="1">
         <v>2014013409</v>
@@ -3043,7 +3068,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="F28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3052,7 +3077,7 @@
     </row>
     <row r="29" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B29" s="1">
         <v>2014620840</v>
@@ -3064,7 +3089,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="F29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3073,7 +3098,7 @@
     </row>
     <row r="30" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B30" s="1">
         <v>2011010412</v>
@@ -3085,7 +3110,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="F30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3094,7 +3119,7 @@
     </row>
     <row r="31" spans="1:6" ht="135" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B31" s="1">
         <v>2011011235</v>
@@ -3106,7 +3131,7 @@
         <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3115,7 +3140,7 @@
     </row>
     <row r="32" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B32" s="1">
         <v>2011011239</v>
@@ -3127,7 +3152,7 @@
         <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="F32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3136,7 +3161,7 @@
     </row>
     <row r="33" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B33" s="1">
         <v>2011011254</v>
@@ -3148,7 +3173,7 @@
         <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="F33" s="1" t="str">
         <f>F31</f>
@@ -3157,7 +3182,7 @@
     </row>
     <row r="34" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B34" s="1">
         <v>2011011268</v>
@@ -3169,7 +3194,7 @@
         <v>7</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F34" s="1" t="str">
         <f t="shared" ref="F34:F97" si="1">"http://59.66.209.26:23380/wav/" &amp; B34 &amp; "/" &amp; C34 &amp; "_" &amp; D34 &amp; ".wav"</f>
@@ -3178,7 +3203,7 @@
     </row>
     <row r="35" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B35" s="1">
         <v>2011012703</v>
@@ -3190,7 +3215,7 @@
         <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="F35" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3199,7 +3224,7 @@
     </row>
     <row r="36" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B36" s="1">
         <v>2012011297</v>
@@ -3211,7 +3236,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="F36" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3220,7 +3245,7 @@
     </row>
     <row r="37" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B37" s="1">
         <v>2012012731</v>
@@ -3232,7 +3257,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="F37" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3241,7 +3266,7 @@
     </row>
     <row r="38" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B38" s="1">
         <v>2013010773</v>
@@ -3253,7 +3278,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="F38" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3262,7 +3287,7 @@
     </row>
     <row r="39" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B39" s="1">
         <v>2013010775</v>
@@ -3274,7 +3299,7 @@
         <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="F39" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3283,7 +3308,7 @@
     </row>
     <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B40" s="1">
         <v>2013011103</v>
@@ -3295,7 +3320,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F40" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3304,7 +3329,7 @@
     </row>
     <row r="41" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B41" s="1">
         <v>2013011392</v>
@@ -3316,7 +3341,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="F41" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3325,7 +3350,7 @@
     </row>
     <row r="42" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B42" s="1">
         <v>2013011395</v>
@@ -3337,7 +3362,7 @@
         <v>7</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F42" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3346,7 +3371,7 @@
     </row>
     <row r="43" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B43" s="1">
         <v>2013011400</v>
@@ -3358,7 +3383,7 @@
         <v>7</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="F43" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3367,7 +3392,7 @@
     </row>
     <row r="44" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B44" s="1">
         <v>2013011429</v>
@@ -3379,7 +3404,7 @@
         <v>7</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="F44" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3388,7 +3413,7 @@
     </row>
     <row r="45" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B45" s="1">
         <v>2013011437</v>
@@ -3400,7 +3425,7 @@
         <v>7</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="F45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3409,7 +3434,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B46" s="1">
         <v>2013012946</v>
@@ -3421,7 +3446,7 @@
         <v>7</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="F46" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3430,7 +3455,7 @@
     </row>
     <row r="47" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B47" s="1">
         <v>2013012949</v>
@@ -3442,7 +3467,7 @@
         <v>7</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="F47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3451,7 +3476,7 @@
     </row>
     <row r="48" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B48" s="1">
         <v>2013013014</v>
@@ -3463,7 +3488,7 @@
         <v>7</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="F48" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3472,7 +3497,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B49" s="1">
         <v>2014010219</v>
@@ -3484,7 +3509,7 @@
         <v>7</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="F49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3493,7 +3518,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B50" s="1">
         <v>2014010728</v>
@@ -3505,7 +3530,7 @@
         <v>7</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="F50" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3514,7 +3539,7 @@
     </row>
     <row r="51" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B51" s="1">
         <v>2014011004</v>
@@ -3526,7 +3551,7 @@
         <v>7</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="F51" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3535,7 +3560,7 @@
     </row>
     <row r="52" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B52" s="1">
         <v>2014012173</v>
@@ -3547,7 +3572,7 @@
         <v>7</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="F52" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3556,7 +3581,7 @@
     </row>
     <row r="53" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B53" s="1">
         <v>2014012337</v>
@@ -3568,7 +3593,7 @@
         <v>7</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="F53" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3577,7 +3602,7 @@
     </row>
     <row r="54" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B54" s="1">
         <v>2014012991</v>
@@ -3589,7 +3614,7 @@
         <v>7</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="F54" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3598,7 +3623,7 @@
     </row>
     <row r="55" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B55" s="1">
         <v>2014013072</v>
@@ -3610,7 +3635,7 @@
         <v>7</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="F55" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3619,7 +3644,7 @@
     </row>
     <row r="56" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B56" s="1">
         <v>2014013076</v>
@@ -3631,7 +3656,7 @@
         <v>7</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="F56" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3640,7 +3665,7 @@
     </row>
     <row r="57" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B57" s="1">
         <v>2014013409</v>
@@ -3652,7 +3677,7 @@
         <v>7</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="F57" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3661,7 +3686,7 @@
     </row>
     <row r="58" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B58" s="1">
         <v>2014620840</v>
@@ -3673,7 +3698,7 @@
         <v>7</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="F58" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3682,7 +3707,7 @@
     </row>
     <row r="59" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B59" s="1">
         <v>2011010412</v>
@@ -3694,7 +3719,7 @@
         <v>8</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F59" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3703,7 +3728,7 @@
     </row>
     <row r="60" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B60" s="1">
         <v>2011011235</v>
@@ -3715,7 +3740,7 @@
         <v>8</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="F60" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3724,7 +3749,7 @@
     </row>
     <row r="61" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B61" s="1">
         <v>2011011239</v>
@@ -3736,7 +3761,7 @@
         <v>8</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="F61" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3745,7 +3770,7 @@
     </row>
     <row r="62" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B62" s="1">
         <v>2011011254</v>
@@ -3757,7 +3782,7 @@
         <v>8</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="F62" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3766,7 +3791,7 @@
     </row>
     <row r="63" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B63" s="1">
         <v>2011011268</v>
@@ -3778,7 +3803,7 @@
         <v>8</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="F63" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3787,7 +3812,7 @@
     </row>
     <row r="64" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B64" s="1">
         <v>2011012703</v>
@@ -3799,7 +3824,7 @@
         <v>8</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F64" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3808,7 +3833,7 @@
     </row>
     <row r="65" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B65" s="1">
         <v>2012011297</v>
@@ -3820,7 +3845,7 @@
         <v>8</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="F65" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3829,7 +3854,7 @@
     </row>
     <row r="66" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B66" s="1">
         <v>2012012731</v>
@@ -3841,7 +3866,7 @@
         <v>8</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="F66" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3850,7 +3875,7 @@
     </row>
     <row r="67" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B67" s="1">
         <v>2013010773</v>
@@ -3862,7 +3887,7 @@
         <v>8</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="F67" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3871,7 +3896,7 @@
     </row>
     <row r="68" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B68" s="1">
         <v>2013010775</v>
@@ -3883,7 +3908,7 @@
         <v>8</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="F68" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3892,7 +3917,7 @@
     </row>
     <row r="69" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B69" s="1">
         <v>2013011103</v>
@@ -3904,7 +3929,7 @@
         <v>8</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="F69" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3913,7 +3938,7 @@
     </row>
     <row r="70" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B70" s="1">
         <v>2013011392</v>
@@ -3925,7 +3950,7 @@
         <v>8</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F70" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3934,7 +3959,7 @@
     </row>
     <row r="71" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B71" s="1">
         <v>2013011395</v>
@@ -3946,7 +3971,7 @@
         <v>8</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="F71" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3955,7 +3980,7 @@
     </row>
     <row r="72" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B72" s="1">
         <v>2013011400</v>
@@ -3967,7 +3992,7 @@
         <v>8</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="F72" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3976,7 +4001,7 @@
     </row>
     <row r="73" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B73" s="1">
         <v>2013011429</v>
@@ -3988,7 +4013,7 @@
         <v>8</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="F73" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3997,7 +4022,7 @@
     </row>
     <row r="74" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B74" s="1">
         <v>2013011437</v>
@@ -4009,7 +4034,7 @@
         <v>8</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="F74" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4018,7 +4043,7 @@
     </row>
     <row r="75" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B75" s="1">
         <v>2013012946</v>
@@ -4030,7 +4055,7 @@
         <v>8</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="F75" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4039,7 +4064,7 @@
     </row>
     <row r="76" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B76" s="1">
         <v>2013012949</v>
@@ -4051,7 +4076,7 @@
         <v>8</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="F76" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4060,7 +4085,7 @@
     </row>
     <row r="77" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B77" s="1">
         <v>2013013014</v>
@@ -4072,7 +4097,7 @@
         <v>8</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="F77" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4081,7 +4106,7 @@
     </row>
     <row r="78" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B78" s="1">
         <v>2014010219</v>
@@ -4093,7 +4118,7 @@
         <v>8</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="F78" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4102,7 +4127,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B79" s="1">
         <v>2014010728</v>
@@ -4114,7 +4139,7 @@
         <v>8</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F79" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4123,7 +4148,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B80" s="1">
         <v>2014011004</v>
@@ -4135,7 +4160,7 @@
         <v>8</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="F80" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4144,7 +4169,7 @@
     </row>
     <row r="81" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B81" s="1">
         <v>2014012173</v>
@@ -4156,7 +4181,7 @@
         <v>8</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="F81" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4165,7 +4190,7 @@
     </row>
     <row r="82" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B82" s="1">
         <v>2014012337</v>
@@ -4177,7 +4202,7 @@
         <v>8</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="F82" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4186,7 +4211,7 @@
     </row>
     <row r="83" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B83" s="1">
         <v>2014012991</v>
@@ -4198,7 +4223,7 @@
         <v>8</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="F83" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4207,7 +4232,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B84" s="1">
         <v>2014013072</v>
@@ -4219,7 +4244,7 @@
         <v>8</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="F84" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4228,7 +4253,7 @@
     </row>
     <row r="85" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B85" s="1">
         <v>2014013076</v>
@@ -4240,7 +4265,7 @@
         <v>8</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="F85" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4249,7 +4274,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B86" s="1">
         <v>2014013409</v>
@@ -4261,7 +4286,7 @@
         <v>8</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="F86" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4270,7 +4295,7 @@
     </row>
     <row r="87" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B87" s="1">
         <v>2014620840</v>
@@ -4282,7 +4307,7 @@
         <v>8</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="F87" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4291,7 +4316,7 @@
     </row>
     <row r="88" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B88" s="1">
         <v>2011010412</v>
@@ -4303,7 +4328,7 @@
         <v>9</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="F88" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4312,7 +4337,7 @@
     </row>
     <row r="89" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B89" s="1">
         <v>2011011235</v>
@@ -4324,7 +4349,7 @@
         <v>9</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="F89" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4333,7 +4358,7 @@
     </row>
     <row r="90" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B90" s="1">
         <v>2011011239</v>
@@ -4345,7 +4370,7 @@
         <v>9</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="F90" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4354,7 +4379,7 @@
     </row>
     <row r="91" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B91" s="1">
         <v>2011011254</v>
@@ -4366,7 +4391,7 @@
         <v>9</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="F91" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4375,7 +4400,7 @@
     </row>
     <row r="92" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B92" s="1">
         <v>2011011268</v>
@@ -4387,7 +4412,7 @@
         <v>9</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="F92" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4396,7 +4421,7 @@
     </row>
     <row r="93" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B93" s="1">
         <v>2011012703</v>
@@ -4408,7 +4433,7 @@
         <v>9</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F93" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4417,7 +4442,7 @@
     </row>
     <row r="94" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B94" s="1">
         <v>2012011297</v>
@@ -4429,7 +4454,7 @@
         <v>9</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="F94" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4438,7 +4463,7 @@
     </row>
     <row r="95" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B95" s="1">
         <v>2012012731</v>
@@ -4450,7 +4475,7 @@
         <v>9</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="F95" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4459,7 +4484,7 @@
     </row>
     <row r="96" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B96" s="1">
         <v>2013010773</v>
@@ -4471,7 +4496,7 @@
         <v>9</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="F96" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4480,7 +4505,7 @@
     </row>
     <row r="97" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B97" s="1">
         <v>2013010775</v>
@@ -4492,7 +4517,7 @@
         <v>9</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="F97" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4501,7 +4526,7 @@
     </row>
     <row r="98" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B98" s="1">
         <v>2013011103</v>
@@ -4513,7 +4538,7 @@
         <v>9</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="F98" s="1" t="str">
         <f t="shared" ref="F98:F161" si="2">"http://59.66.209.26:23380/wav/" &amp; B98 &amp; "/" &amp; C98 &amp; "_" &amp; D98 &amp; ".wav"</f>
@@ -4522,7 +4547,7 @@
     </row>
     <row r="99" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B99" s="1">
         <v>2013011392</v>
@@ -4534,7 +4559,7 @@
         <v>9</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="F99" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4543,7 +4568,7 @@
     </row>
     <row r="100" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B100" s="1">
         <v>2013011395</v>
@@ -4555,7 +4580,7 @@
         <v>9</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="F100" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4564,7 +4589,7 @@
     </row>
     <row r="101" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B101" s="1">
         <v>2013011400</v>
@@ -4576,7 +4601,7 @@
         <v>9</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="F101" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4585,7 +4610,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B102" s="1">
         <v>2013011429</v>
@@ -4597,7 +4622,7 @@
         <v>9</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="F102" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4606,7 +4631,7 @@
     </row>
     <row r="103" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B103" s="1">
         <v>2013011437</v>
@@ -4618,7 +4643,7 @@
         <v>9</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="F103" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4627,7 +4652,7 @@
     </row>
     <row r="104" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B104" s="1">
         <v>2013012946</v>
@@ -4639,7 +4664,7 @@
         <v>9</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="F104" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4648,7 +4673,7 @@
     </row>
     <row r="105" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B105" s="1">
         <v>2013012949</v>
@@ -4660,7 +4685,7 @@
         <v>9</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="F105" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4669,7 +4694,7 @@
     </row>
     <row r="106" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B106" s="1">
         <v>2013013014</v>
@@ -4681,7 +4706,7 @@
         <v>9</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="F106" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4690,7 +4715,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B107" s="1">
         <v>2014010219</v>
@@ -4702,7 +4727,7 @@
         <v>9</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="F107" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4711,7 +4736,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B108" s="1">
         <v>2014010728</v>
@@ -4723,7 +4748,7 @@
         <v>9</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="F108" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4732,7 +4757,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B109" s="1">
         <v>2014011004</v>
@@ -4744,7 +4769,7 @@
         <v>9</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="F109" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4753,7 +4778,7 @@
     </row>
     <row r="110" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B110" s="1">
         <v>2014012173</v>
@@ -4765,7 +4790,7 @@
         <v>9</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="F110" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4774,7 +4799,7 @@
     </row>
     <row r="111" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B111" s="1">
         <v>2014012337</v>
@@ -4786,7 +4811,7 @@
         <v>9</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="F111" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4795,7 +4820,7 @@
     </row>
     <row r="112" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B112" s="1">
         <v>2014012991</v>
@@ -4807,7 +4832,7 @@
         <v>9</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="F112" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4816,7 +4841,7 @@
     </row>
     <row r="113" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B113" s="1">
         <v>2014013072</v>
@@ -4828,7 +4853,7 @@
         <v>9</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="F113" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4837,7 +4862,7 @@
     </row>
     <row r="114" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B114" s="1">
         <v>2014013076</v>
@@ -4849,7 +4874,7 @@
         <v>9</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="F114" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4858,7 +4883,7 @@
     </row>
     <row r="115" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B115" s="1">
         <v>2014013409</v>
@@ -4870,7 +4895,7 @@
         <v>9</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="F115" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4879,7 +4904,7 @@
     </row>
     <row r="116" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B116" s="1">
         <v>2014620840</v>
@@ -4891,7 +4916,7 @@
         <v>9</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="F116" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4900,7 +4925,7 @@
     </row>
     <row r="117" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B117" s="1">
         <v>2011010412</v>
@@ -4912,7 +4937,7 @@
         <v>11</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="F117" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4921,7 +4946,7 @@
     </row>
     <row r="118" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B118" s="1">
         <v>2011011235</v>
@@ -4933,7 +4958,7 @@
         <v>11</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="F118" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4942,7 +4967,7 @@
     </row>
     <row r="119" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B119" s="1">
         <v>2011011239</v>
@@ -4954,7 +4979,7 @@
         <v>11</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="F119" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4963,7 +4988,7 @@
     </row>
     <row r="120" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B120" s="1">
         <v>2011011254</v>
@@ -4975,7 +5000,7 @@
         <v>11</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="F120" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4984,7 +5009,7 @@
     </row>
     <row r="121" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B121" s="1">
         <v>2011011268</v>
@@ -4996,7 +5021,7 @@
         <v>11</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="F121" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5005,7 +5030,7 @@
     </row>
     <row r="122" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B122" s="1">
         <v>2011012703</v>
@@ -5017,7 +5042,7 @@
         <v>11</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="F122" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5026,7 +5051,7 @@
     </row>
     <row r="123" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B123" s="1">
         <v>2012011297</v>
@@ -5038,7 +5063,7 @@
         <v>11</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="F123" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5047,7 +5072,7 @@
     </row>
     <row r="124" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B124" s="1">
         <v>2012012731</v>
@@ -5059,7 +5084,7 @@
         <v>11</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="F124" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5068,7 +5093,7 @@
     </row>
     <row r="125" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B125" s="1">
         <v>2013010773</v>
@@ -5080,7 +5105,7 @@
         <v>11</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="F125" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5089,7 +5114,7 @@
     </row>
     <row r="126" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B126" s="1">
         <v>2013010775</v>
@@ -5101,7 +5126,7 @@
         <v>11</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="F126" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5110,7 +5135,7 @@
     </row>
     <row r="127" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B127" s="1">
         <v>2013011103</v>
@@ -5122,7 +5147,7 @@
         <v>11</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="F127" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5131,7 +5156,7 @@
     </row>
     <row r="128" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B128" s="1">
         <v>2013011392</v>
@@ -5143,7 +5168,7 @@
         <v>11</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="F128" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5152,7 +5177,7 @@
     </row>
     <row r="129" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B129" s="1">
         <v>2013011395</v>
@@ -5164,7 +5189,7 @@
         <v>11</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="F129" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5173,7 +5198,7 @@
     </row>
     <row r="130" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B130" s="1">
         <v>2013011400</v>
@@ -5185,7 +5210,7 @@
         <v>11</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="F130" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5194,7 +5219,7 @@
     </row>
     <row r="131" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B131" s="1">
         <v>2013011429</v>
@@ -5206,7 +5231,7 @@
         <v>11</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="F131" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5215,7 +5240,7 @@
     </row>
     <row r="132" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B132" s="1">
         <v>2013011437</v>
@@ -5227,7 +5252,7 @@
         <v>11</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="F132" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5236,7 +5261,7 @@
     </row>
     <row r="133" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B133" s="1">
         <v>2013012946</v>
@@ -5248,7 +5273,7 @@
         <v>11</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="F133" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5257,7 +5282,7 @@
     </row>
     <row r="134" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B134" s="1">
         <v>2013012949</v>
@@ -5269,7 +5294,7 @@
         <v>11</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F134" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5278,7 +5303,7 @@
     </row>
     <row r="135" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B135" s="1">
         <v>2013013014</v>
@@ -5290,7 +5315,7 @@
         <v>11</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="F135" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5299,7 +5324,7 @@
     </row>
     <row r="136" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B136" s="1">
         <v>2014010219</v>
@@ -5311,7 +5336,7 @@
         <v>11</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="F136" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5320,7 +5345,7 @@
     </row>
     <row r="137" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B137" s="1">
         <v>2014010728</v>
@@ -5332,7 +5357,7 @@
         <v>11</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="F137" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5341,7 +5366,7 @@
     </row>
     <row r="138" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B138" s="1">
         <v>2014011004</v>
@@ -5353,7 +5378,7 @@
         <v>11</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="F138" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5362,7 +5387,7 @@
     </row>
     <row r="139" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B139" s="1">
         <v>2014012173</v>
@@ -5374,7 +5399,7 @@
         <v>11</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="F139" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5383,7 +5408,7 @@
     </row>
     <row r="140" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B140" s="1">
         <v>2014012337</v>
@@ -5395,7 +5420,7 @@
         <v>11</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="F140" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5404,7 +5429,7 @@
     </row>
     <row r="141" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B141" s="1">
         <v>2014012991</v>
@@ -5416,7 +5441,7 @@
         <v>11</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="F141" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5425,7 +5450,7 @@
     </row>
     <row r="142" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B142" s="1">
         <v>2014013072</v>
@@ -5437,7 +5462,7 @@
         <v>11</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="F142" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5446,7 +5471,7 @@
     </row>
     <row r="143" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B143" s="1">
         <v>2014013076</v>
@@ -5458,7 +5483,7 @@
         <v>11</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="F143" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5467,7 +5492,7 @@
     </row>
     <row r="144" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B144" s="1">
         <v>2014013409</v>
@@ -5479,7 +5504,7 @@
         <v>11</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="F144" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5488,7 +5513,7 @@
     </row>
     <row r="145" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B145" s="1">
         <v>2014620840</v>
@@ -5500,7 +5525,7 @@
         <v>11</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F145" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5509,7 +5534,7 @@
     </row>
     <row r="146" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B146" s="1">
         <v>2011010412</v>
@@ -5521,7 +5546,7 @@
         <v>12</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="F146" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5530,7 +5555,7 @@
     </row>
     <row r="147" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B147" s="1">
         <v>2011011235</v>
@@ -5542,7 +5567,7 @@
         <v>12</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="F147" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5551,7 +5576,7 @@
     </row>
     <row r="148" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B148" s="1">
         <v>2011011239</v>
@@ -5563,7 +5588,7 @@
         <v>12</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="F148" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5572,7 +5597,7 @@
     </row>
     <row r="149" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B149" s="1">
         <v>2011011254</v>
@@ -5584,7 +5609,7 @@
         <v>12</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="F149" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5593,7 +5618,7 @@
     </row>
     <row r="150" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B150" s="1">
         <v>2011011268</v>
@@ -5605,7 +5630,7 @@
         <v>12</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="F150" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5614,7 +5639,7 @@
     </row>
     <row r="151" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B151" s="1">
         <v>2011012703</v>
@@ -5626,7 +5651,7 @@
         <v>12</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="F151" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5635,7 +5660,7 @@
     </row>
     <row r="152" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B152" s="1">
         <v>2012011297</v>
@@ -5647,7 +5672,7 @@
         <v>12</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="F152" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5656,7 +5681,7 @@
     </row>
     <row r="153" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B153" s="1">
         <v>2012012731</v>
@@ -5668,7 +5693,7 @@
         <v>12</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="F153" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5677,7 +5702,7 @@
     </row>
     <row r="154" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B154" s="1">
         <v>2013010773</v>
@@ -5689,7 +5714,7 @@
         <v>12</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="F154" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5698,7 +5723,7 @@
     </row>
     <row r="155" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B155" s="1">
         <v>2013010775</v>
@@ -5710,7 +5735,7 @@
         <v>12</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="F155" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5719,7 +5744,7 @@
     </row>
     <row r="156" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B156" s="1">
         <v>2013011103</v>
@@ -5731,7 +5756,7 @@
         <v>12</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="F156" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5740,7 +5765,7 @@
     </row>
     <row r="157" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B157" s="1">
         <v>2013011392</v>
@@ -5752,7 +5777,7 @@
         <v>12</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="F157" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5761,7 +5786,7 @@
     </row>
     <row r="158" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B158" s="1">
         <v>2013011395</v>
@@ -5773,7 +5798,7 @@
         <v>12</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="F158" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5782,7 +5807,7 @@
     </row>
     <row r="159" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B159" s="1">
         <v>2013011400</v>
@@ -5794,7 +5819,7 @@
         <v>12</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="F159" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5803,7 +5828,7 @@
     </row>
     <row r="160" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B160" s="1">
         <v>2013011429</v>
@@ -5815,7 +5840,7 @@
         <v>12</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="F160" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5824,7 +5849,7 @@
     </row>
     <row r="161" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B161" s="1">
         <v>2013011437</v>
@@ -5836,7 +5861,7 @@
         <v>12</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="F161" s="1" t="str">
         <f t="shared" si="2"/>
@@ -5845,7 +5870,7 @@
     </row>
     <row r="162" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B162" s="1">
         <v>2013012946</v>
@@ -5857,7 +5882,7 @@
         <v>12</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="F162" s="1" t="str">
         <f t="shared" ref="F162:F225" si="3">"http://59.66.209.26:23380/wav/" &amp; B162 &amp; "/" &amp; C162 &amp; "_" &amp; D162 &amp; ".wav"</f>
@@ -5866,7 +5891,7 @@
     </row>
     <row r="163" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B163" s="1">
         <v>2013012949</v>
@@ -5878,7 +5903,7 @@
         <v>12</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="F163" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5887,7 +5912,7 @@
     </row>
     <row r="164" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B164" s="1">
         <v>2013013014</v>
@@ -5899,7 +5924,7 @@
         <v>12</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="F164" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5908,7 +5933,7 @@
     </row>
     <row r="165" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B165" s="1">
         <v>2014010219</v>
@@ -5920,7 +5945,7 @@
         <v>12</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="F165" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5929,7 +5954,7 @@
     </row>
     <row r="166" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B166" s="1">
         <v>2014010728</v>
@@ -5941,7 +5966,7 @@
         <v>12</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="F166" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5950,7 +5975,7 @@
     </row>
     <row r="167" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B167" s="1">
         <v>2014011004</v>
@@ -5962,7 +5987,7 @@
         <v>12</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="F167" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5971,7 +5996,7 @@
     </row>
     <row r="168" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B168" s="1">
         <v>2014012173</v>
@@ -5983,7 +6008,7 @@
         <v>12</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="F168" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5992,7 +6017,7 @@
     </row>
     <row r="169" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B169" s="1">
         <v>2014012337</v>
@@ -6004,7 +6029,7 @@
         <v>12</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="F169" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6013,7 +6038,7 @@
     </row>
     <row r="170" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B170" s="1">
         <v>2014012991</v>
@@ -6025,7 +6050,7 @@
         <v>12</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="F170" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6034,7 +6059,7 @@
     </row>
     <row r="171" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B171" s="1">
         <v>2014013072</v>
@@ -6046,7 +6071,7 @@
         <v>12</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="F171" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6055,7 +6080,7 @@
     </row>
     <row r="172" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B172" s="1">
         <v>2014013076</v>
@@ -6067,7 +6092,7 @@
         <v>12</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="F172" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6076,7 +6101,7 @@
     </row>
     <row r="173" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B173" s="1">
         <v>2014013409</v>
@@ -6088,7 +6113,7 @@
         <v>12</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="F173" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6097,19 +6122,19 @@
     </row>
     <row r="174" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B174" s="1">
         <v>2014620840</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="D174" s="2">
         <v>12</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="F174" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6128,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="F175" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6147,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="F176" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6166,7 +6191,7 @@
         <v>1</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="F177" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6185,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="F178" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6204,7 +6229,7 @@
         <v>1</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="F179" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6223,14 +6248,14 @@
         <v>1</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="F180" s="1" t="str">
         <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2011012703/2_1.wav</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A181" s="1"/>
       <c r="B181" s="1">
         <v>2012011297</v>
@@ -6238,18 +6263,18 @@
       <c r="C181" s="1">
         <v>10</v>
       </c>
-      <c r="D181" s="1">
+      <c r="D181" s="2">
         <v>1</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="F181" s="1" t="str">
         <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2012011297/10_1.wav</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A182" s="1"/>
       <c r="B182" s="1">
         <v>2012012731</v>
@@ -6257,11 +6282,11 @@
       <c r="C182" s="1">
         <v>6</v>
       </c>
-      <c r="D182" s="1">
+      <c r="D182" s="2">
         <v>1</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>29</v>
+        <v>327</v>
       </c>
       <c r="F182" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6276,18 +6301,18 @@
       <c r="C183" s="1">
         <v>4</v>
       </c>
-      <c r="D183" s="1">
+      <c r="D183" s="2">
         <v>1</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>31</v>
+        <v>328</v>
       </c>
       <c r="F183" s="1" t="str">
         <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013010773/4_1.wav</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A184" s="1"/>
       <c r="B184" s="1">
         <v>2013010775</v>
@@ -6295,10 +6320,12 @@
       <c r="C184" s="1">
         <v>4</v>
       </c>
-      <c r="D184" s="1">
+      <c r="D184" s="2">
         <v>1</v>
       </c>
-      <c r="E184" s="1"/>
+      <c r="E184" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="F184" s="1" t="str">
         <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013010775/4_1.wav</v>
@@ -6312,11 +6339,11 @@
       <c r="C185" s="1">
         <v>10</v>
       </c>
-      <c r="D185" s="1">
+      <c r="D185" s="2">
         <v>1</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>39</v>
+        <v>330</v>
       </c>
       <c r="F185" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6331,11 +6358,11 @@
       <c r="C186" s="1">
         <v>7</v>
       </c>
-      <c r="D186" s="1">
+      <c r="D186" s="2">
         <v>1</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>49</v>
+        <v>331</v>
       </c>
       <c r="F186" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6350,18 +6377,18 @@
       <c r="C187" s="1">
         <v>9</v>
       </c>
-      <c r="D187" s="1">
+      <c r="D187" s="2">
         <v>1</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>55</v>
+        <v>332</v>
       </c>
       <c r="F187" s="1" t="str">
         <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013011395/9_1.wav</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A188" s="1"/>
       <c r="B188" s="1">
         <v>2013011400</v>
@@ -6369,18 +6396,18 @@
       <c r="C188" s="1">
         <v>3</v>
       </c>
-      <c r="D188" s="1">
+      <c r="D188" s="2">
         <v>1</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>57</v>
+        <v>333</v>
       </c>
       <c r="F188" s="1" t="str">
         <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013011400/3_1.wav</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A189" s="1"/>
       <c r="B189" s="1">
         <v>2013011429</v>
@@ -6388,11 +6415,11 @@
       <c r="C189" s="1">
         <v>2</v>
       </c>
-      <c r="D189" s="1">
+      <c r="D189" s="2">
         <v>1</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>63</v>
+        <v>334</v>
       </c>
       <c r="F189" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6407,11 +6434,11 @@
       <c r="C190" s="1">
         <v>6</v>
       </c>
-      <c r="D190" s="1">
+      <c r="D190" s="2">
         <v>1</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>70</v>
+        <v>335</v>
       </c>
       <c r="F190" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6426,18 +6453,18 @@
       <c r="C191" s="1">
         <v>2</v>
       </c>
-      <c r="D191" s="1">
+      <c r="D191" s="2">
         <v>1</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="F191" s="1" t="str">
         <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013012946/2_1.wav</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A192" s="1"/>
       <c r="B192" s="1">
         <v>2013012949</v>
@@ -6445,18 +6472,18 @@
       <c r="C192" s="1">
         <v>4</v>
       </c>
-      <c r="D192" s="1">
+      <c r="D192" s="2">
         <v>1</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>81</v>
+        <v>337</v>
       </c>
       <c r="F192" s="1" t="str">
         <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2013012949/4_1.wav</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A193" s="1"/>
       <c r="B193" s="1">
         <v>2013013014</v>
@@ -6464,11 +6491,11 @@
       <c r="C193" s="1">
         <v>12</v>
       </c>
-      <c r="D193" s="1">
+      <c r="D193" s="2">
         <v>1</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>84</v>
+        <v>340</v>
       </c>
       <c r="F193" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6483,11 +6510,11 @@
       <c r="C194" s="1">
         <v>8</v>
       </c>
-      <c r="D194" s="1">
+      <c r="D194" s="2">
         <v>1</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>93</v>
+        <v>341</v>
       </c>
       <c r="F194" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6502,11 +6529,11 @@
       <c r="C195" s="1">
         <v>10</v>
       </c>
-      <c r="D195" s="1">
+      <c r="D195" s="2">
         <v>1</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>95</v>
+        <v>342</v>
       </c>
       <c r="F195" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6521,18 +6548,18 @@
       <c r="C196" s="1">
         <v>1</v>
       </c>
-      <c r="D196" s="1">
+      <c r="D196" s="2">
         <v>1</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>102</v>
+        <v>343</v>
       </c>
       <c r="F196" s="1" t="str">
         <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014011004/1_1.wav</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A197" s="1"/>
       <c r="B197" s="1">
         <v>2014012173</v>
@@ -6540,11 +6567,11 @@
       <c r="C197" s="1">
         <v>1</v>
       </c>
-      <c r="D197" s="1">
+      <c r="D197" s="2">
         <v>1</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>109</v>
+        <v>344</v>
       </c>
       <c r="F197" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6559,11 +6586,11 @@
       <c r="C198" s="1">
         <v>7</v>
       </c>
-      <c r="D198" s="1">
+      <c r="D198" s="2">
         <v>1</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>117</v>
+        <v>345</v>
       </c>
       <c r="F198" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6578,11 +6605,11 @@
       <c r="C199" s="1">
         <v>2</v>
       </c>
-      <c r="D199" s="1">
+      <c r="D199" s="2">
         <v>1</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>120</v>
+        <v>346</v>
       </c>
       <c r="F199" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6597,11 +6624,11 @@
       <c r="C200" s="1">
         <v>11</v>
       </c>
-      <c r="D200" s="1">
+      <c r="D200" s="2">
         <v>1</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>126</v>
+        <v>347</v>
       </c>
       <c r="F200" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6616,18 +6643,18 @@
       <c r="C201" s="1">
         <v>11</v>
       </c>
-      <c r="D201" s="1">
+      <c r="D201" s="2">
         <v>1</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>131</v>
+        <v>348</v>
       </c>
       <c r="F201" s="1" t="str">
         <f t="shared" si="3"/>
         <v>http://59.66.209.26:23380/wav/2014013076/11_1.wav</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A202" s="1"/>
       <c r="B202" s="1">
         <v>2014013409</v>
@@ -6635,11 +6662,11 @@
       <c r="C202" s="1">
         <v>10</v>
       </c>
-      <c r="D202" s="1">
+      <c r="D202" s="2">
         <v>1</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>137</v>
+        <v>338</v>
       </c>
       <c r="F202" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6654,11 +6681,11 @@
       <c r="C203" s="1">
         <v>2</v>
       </c>
-      <c r="D203" s="1">
+      <c r="D203" s="2">
         <v>1</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>146</v>
+        <v>339</v>
       </c>
       <c r="F203" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6827,7 +6854,7 @@
         <v>2</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F212" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6846,7 +6873,7 @@
         <v>2</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F213" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6865,7 +6892,7 @@
         <v>2</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F214" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6884,7 +6911,7 @@
         <v>2</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F215" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6903,7 +6930,7 @@
         <v>2</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F216" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6922,7 +6949,7 @@
         <v>2</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F217" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6941,7 +6968,7 @@
         <v>2</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F218" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6960,7 +6987,7 @@
         <v>2</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F219" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6979,7 +7006,7 @@
         <v>2</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F220" s="1" t="str">
         <f t="shared" si="3"/>
@@ -6998,7 +7025,7 @@
         <v>2</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F221" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7017,7 +7044,7 @@
         <v>2</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F222" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7053,7 +7080,7 @@
         <v>2</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F224" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7072,7 +7099,7 @@
         <v>2</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F225" s="1" t="str">
         <f t="shared" si="3"/>
@@ -7091,7 +7118,7 @@
         <v>2</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F226" s="1" t="str">
         <f t="shared" ref="F226:F289" si="4">"http://59.66.209.26:23380/wav/" &amp; B226 &amp; "/" &amp; C226 &amp; "_" &amp; D226 &amp; ".wav"</f>
@@ -7110,7 +7137,7 @@
         <v>2</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F227" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7129,7 +7156,7 @@
         <v>2</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="F228" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7148,7 +7175,7 @@
         <v>2</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F229" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7167,7 +7194,7 @@
         <v>2</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="F230" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7186,7 +7213,7 @@
         <v>2</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="F231" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7205,7 +7232,7 @@
         <v>2</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F232" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7376,7 +7403,7 @@
         <v>3</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F241" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7395,7 +7422,7 @@
         <v>3</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F242" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7414,7 +7441,7 @@
         <v>3</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F243" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7433,7 +7460,7 @@
         <v>3</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F244" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7452,7 +7479,7 @@
         <v>3</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F245" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7471,7 +7498,7 @@
         <v>3</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F246" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7490,7 +7517,7 @@
         <v>3</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F247" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7509,7 +7536,7 @@
         <v>3</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F248" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7528,7 +7555,7 @@
         <v>3</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F249" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7547,7 +7574,7 @@
         <v>3</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F250" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7566,7 +7593,7 @@
         <v>3</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F251" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7585,7 +7612,7 @@
         <v>3</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F252" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7604,7 +7631,7 @@
         <v>3</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F253" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7623,7 +7650,7 @@
         <v>3</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F254" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7642,7 +7669,7 @@
         <v>3</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F255" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7661,7 +7688,7 @@
         <v>3</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F256" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7680,7 +7707,7 @@
         <v>3</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="F257" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7699,7 +7726,7 @@
         <v>3</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="F258" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7718,7 +7745,7 @@
         <v>3</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F259" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7737,7 +7764,7 @@
         <v>3</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F260" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7756,7 +7783,7 @@
         <v>3</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F261" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7775,7 +7802,7 @@
         <v>4</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="F262" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7794,7 +7821,7 @@
         <v>4</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="F263" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7813,7 +7840,7 @@
         <v>4</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="F264" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7832,7 +7859,7 @@
         <v>4</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="F265" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7851,7 +7878,7 @@
         <v>4</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="F266" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7870,7 +7897,7 @@
         <v>4</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="F267" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7889,7 +7916,7 @@
         <v>4</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="F268" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7908,7 +7935,7 @@
         <v>4</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="F269" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7927,7 +7954,7 @@
         <v>4</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="F270" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7946,7 +7973,7 @@
         <v>4</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="F271" s="1" t="str">
         <f t="shared" si="4"/>
@@ -7965,7 +7992,7 @@
         <v>4</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F272" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8001,7 +8028,7 @@
         <v>4</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F274" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8020,7 +8047,7 @@
         <v>4</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F275" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8039,7 +8066,7 @@
         <v>4</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F276" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8058,7 +8085,7 @@
         <v>4</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F277" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8077,7 +8104,7 @@
         <v>4</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F278" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8096,7 +8123,7 @@
         <v>4</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F279" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8115,7 +8142,7 @@
         <v>4</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F280" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8134,7 +8161,7 @@
         <v>4</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F281" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8153,7 +8180,7 @@
         <v>4</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F282" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8172,7 +8199,7 @@
         <v>4</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F283" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8191,7 +8218,7 @@
         <v>4</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F284" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8210,7 +8237,7 @@
         <v>4</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F285" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8229,7 +8256,7 @@
         <v>4</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F286" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8248,7 +8275,7 @@
         <v>4</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="F287" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8267,7 +8294,7 @@
         <v>4</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F288" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8286,7 +8313,7 @@
         <v>4</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="F289" s="1" t="str">
         <f t="shared" si="4"/>
@@ -8305,7 +8332,7 @@
         <v>4</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="F290" s="1" t="str">
         <f t="shared" ref="F290:F348" si="5">"http://59.66.209.26:23380/wav/" &amp; B290 &amp; "/" &amp; C290 &amp; "_" &amp; D290 &amp; ".wav"</f>
@@ -8493,7 +8520,7 @@
         <v>6</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F300" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8512,7 +8539,7 @@
         <v>6</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F301" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8531,7 +8558,7 @@
         <v>6</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F302" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8550,7 +8577,7 @@
         <v>6</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F303" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8569,7 +8596,7 @@
         <v>6</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F304" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8588,7 +8615,7 @@
         <v>6</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F305" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8607,7 +8634,7 @@
         <v>6</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F306" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8626,7 +8653,7 @@
         <v>6</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F307" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8662,7 +8689,7 @@
         <v>6</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F309" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8681,7 +8708,7 @@
         <v>6</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F310" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8700,7 +8727,7 @@
         <v>6</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F311" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8719,7 +8746,7 @@
         <v>6</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F312" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8738,7 +8765,7 @@
         <v>6</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F313" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8757,7 +8784,7 @@
         <v>6</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F314" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8776,7 +8803,7 @@
         <v>6</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F315" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8795,7 +8822,7 @@
         <v>6</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="F316" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8814,7 +8841,7 @@
         <v>6</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F317" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8833,7 +8860,7 @@
         <v>6</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="F318" s="1" t="str">
         <f t="shared" si="5"/>
@@ -8852,7 +8879,7 @@
         <v>6</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="F319" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9002,7 +9029,7 @@
         <v>10</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F327" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9021,7 +9048,7 @@
         <v>10</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F328" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9040,7 +9067,7 @@
         <v>10</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F329" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9059,7 +9086,7 @@
         <v>10</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F330" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9078,7 +9105,7 @@
         <v>10</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F331" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9097,7 +9124,7 @@
         <v>10</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F332" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9116,7 +9143,7 @@
         <v>10</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F333" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9135,7 +9162,7 @@
         <v>10</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F334" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9154,7 +9181,7 @@
         <v>10</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F335" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9173,7 +9200,7 @@
         <v>10</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F336" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9209,7 +9236,7 @@
         <v>10</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F338" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9228,7 +9255,7 @@
         <v>10</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F339" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9247,7 +9274,7 @@
         <v>10</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F340" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9266,7 +9293,7 @@
         <v>10</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F341" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9285,7 +9312,7 @@
         <v>10</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F342" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9304,7 +9331,7 @@
         <v>10</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F343" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9323,7 +9350,7 @@
         <v>10</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F344" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9342,7 +9369,7 @@
         <v>10</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F345" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9361,7 +9388,7 @@
         <v>10</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="F346" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9380,7 +9407,7 @@
         <v>10</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F347" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9399,7 +9426,7 @@
         <v>10</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F348" s="1" t="str">
         <f t="shared" si="5"/>
@@ -9459,7 +9486,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
@@ -9473,7 +9500,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
@@ -9481,7 +9508,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="54" x14ac:dyDescent="0.15">
@@ -9489,7 +9516,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -9503,7 +9530,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
@@ -9511,7 +9538,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -9540,7 +9567,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E1" s="1" t="str">
         <f t="shared" ref="E1:E32" si="0">"http://59.66.209.26:23380/wav/" &amp; A1 &amp; "/" &amp; B1 &amp; "_" &amp; C1 &amp; ".wav"</f>
@@ -9558,7 +9585,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="E2" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9576,7 +9603,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="E3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9594,7 +9621,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="E4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9612,7 +9639,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9630,7 +9657,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="E6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9648,7 +9675,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9666,7 +9693,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="E8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9684,7 +9711,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="E9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9702,7 +9729,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="E10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9720,7 +9747,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="E11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9738,7 +9765,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="E12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9756,7 +9783,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="E13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9774,7 +9801,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="E14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9792,7 +9819,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="E15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9810,7 +9837,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="E16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9828,7 +9855,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="E17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9846,7 +9873,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="E18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9864,7 +9891,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="E19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9882,7 +9909,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="E20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9900,7 +9927,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9918,7 +9945,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9936,7 +9963,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9954,7 +9981,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9972,7 +9999,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -9990,7 +10017,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10008,7 +10035,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10026,7 +10053,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10044,7 +10071,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10062,7 +10089,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10080,7 +10107,7 @@
         <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10098,7 +10125,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -10116,7 +10143,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="E33" s="1" t="str">
         <f>E31</f>
@@ -10134,7 +10161,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="E34" s="1" t="str">
         <f t="shared" ref="E34:E65" si="1">"http://59.66.209.26:23380/wav/" &amp; A34 &amp; "/" &amp; B34 &amp; "_" &amp; C34 &amp; ".wav"</f>
@@ -10152,7 +10179,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="E35" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10170,7 +10197,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="E36" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10188,7 +10215,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="E37" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10206,7 +10233,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="E38" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10224,7 +10251,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E39" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10242,7 +10269,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="E40" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10260,7 +10287,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="E41" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10278,7 +10305,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="E42" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10296,7 +10323,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="E43" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10314,7 +10341,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="E44" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10332,7 +10359,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="E45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10350,7 +10377,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="E46" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10368,7 +10395,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="E47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10386,7 +10413,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="E48" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10404,7 +10431,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="E49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10422,7 +10449,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="E50" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10440,7 +10467,7 @@
         <v>7</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="E51" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10458,7 +10485,7 @@
         <v>7</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="E52" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10476,7 +10503,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="E53" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10494,7 +10521,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="E54" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10512,7 +10539,7 @@
         <v>7</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="E55" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10530,7 +10557,7 @@
         <v>7</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="E56" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10548,7 +10575,7 @@
         <v>7</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="E57" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10566,7 +10593,7 @@
         <v>7</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="E58" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10584,7 +10611,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E59" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10602,7 +10629,7 @@
         <v>8</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="E60" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10620,7 +10647,7 @@
         <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="E61" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10638,7 +10665,7 @@
         <v>8</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E62" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10656,7 +10683,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E63" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10674,7 +10701,7 @@
         <v>8</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="E64" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10692,7 +10719,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E65" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10710,7 +10737,7 @@
         <v>8</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E66" s="1" t="str">
         <f t="shared" ref="E66:E97" si="2">"http://59.66.209.26:23380/wav/" &amp; A66 &amp; "/" &amp; B66 &amp; "_" &amp; C66 &amp; ".wav"</f>
@@ -10728,7 +10755,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="E67" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10746,7 +10773,7 @@
         <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="E68" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10764,7 +10791,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E69" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10782,7 +10809,7 @@
         <v>8</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E70" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10800,7 +10827,7 @@
         <v>8</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E71" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10818,7 +10845,7 @@
         <v>8</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="E72" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10836,7 +10863,7 @@
         <v>8</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="E73" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10854,7 +10881,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="E74" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10872,7 +10899,7 @@
         <v>8</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E75" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10890,7 +10917,7 @@
         <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="E76" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10908,7 +10935,7 @@
         <v>8</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E77" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10926,7 +10953,7 @@
         <v>8</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="E78" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10944,7 +10971,7 @@
         <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="E79" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10962,7 +10989,7 @@
         <v>8</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E80" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10980,7 +11007,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="E81" s="1" t="str">
         <f t="shared" si="2"/>
@@ -10998,7 +11025,7 @@
         <v>8</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E82" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11016,7 +11043,7 @@
         <v>8</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="E83" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11034,7 +11061,7 @@
         <v>8</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E84" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11052,7 +11079,7 @@
         <v>8</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="E85" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11070,7 +11097,7 @@
         <v>8</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E86" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11088,7 +11115,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E87" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11106,7 +11133,7 @@
         <v>9</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="E88" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11124,7 +11151,7 @@
         <v>9</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="E89" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11142,7 +11169,7 @@
         <v>9</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="E90" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11160,7 +11187,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="E91" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11178,7 +11205,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="E92" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11196,7 +11223,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="E93" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11214,7 +11241,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="E94" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11232,7 +11259,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="E95" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11250,7 +11277,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="E96" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11268,7 +11295,7 @@
         <v>9</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="E97" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11286,7 +11313,7 @@
         <v>9</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="E98" s="1" t="str">
         <f t="shared" ref="E98:E129" si="3">"http://59.66.209.26:23380/wav/" &amp; A98 &amp; "/" &amp; B98 &amp; "_" &amp; C98 &amp; ".wav"</f>
@@ -11304,7 +11331,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="E99" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11322,7 +11349,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="E100" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11340,7 +11367,7 @@
         <v>9</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="E101" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11358,7 +11385,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="E102" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11376,7 +11403,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="E103" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11394,7 +11421,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="E104" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11412,7 +11439,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="E105" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11430,7 +11457,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="E106" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11448,7 +11475,7 @@
         <v>9</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="E107" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11466,7 +11493,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E108" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11484,7 +11511,7 @@
         <v>9</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="E109" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11502,7 +11529,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="E110" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11520,7 +11547,7 @@
         <v>9</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="E111" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11538,7 +11565,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="E112" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11556,7 +11583,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="E113" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11574,7 +11601,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="E114" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11592,7 +11619,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="E115" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11610,7 +11637,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="E116" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11628,7 +11655,7 @@
         <v>11</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="E117" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11646,7 +11673,7 @@
         <v>11</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="E118" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11664,7 +11691,7 @@
         <v>11</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="E119" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11682,7 +11709,7 @@
         <v>11</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="E120" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11700,7 +11727,7 @@
         <v>11</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="E121" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11718,7 +11745,7 @@
         <v>11</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="E122" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11736,7 +11763,7 @@
         <v>11</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="E123" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11754,7 +11781,7 @@
         <v>11</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="E124" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11772,7 +11799,7 @@
         <v>11</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="E125" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11790,7 +11817,7 @@
         <v>11</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="E126" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11808,7 +11835,7 @@
         <v>11</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="E127" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11826,7 +11853,7 @@
         <v>11</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="E128" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11844,7 +11871,7 @@
         <v>11</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="E129" s="1" t="str">
         <f t="shared" si="3"/>
@@ -11862,7 +11889,7 @@
         <v>11</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="E130" s="1" t="str">
         <f t="shared" ref="E130:E161" si="4">"http://59.66.209.26:23380/wav/" &amp; A130 &amp; "/" &amp; B130 &amp; "_" &amp; C130 &amp; ".wav"</f>
@@ -11880,7 +11907,7 @@
         <v>11</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="E131" s="1" t="str">
         <f t="shared" si="4"/>
@@ -11898,7 +11925,7 @@
         <v>11</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="E132" s="1" t="str">
         <f t="shared" si="4"/>
@@ -11916,7 +11943,7 @@
         <v>11</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="E133" s="1" t="str">
         <f t="shared" si="4"/>
@@ -11934,7 +11961,7 @@
         <v>11</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="E134" s="1" t="str">
         <f t="shared" si="4"/>
@@ -11952,7 +11979,7 @@
         <v>11</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="E135" s="1" t="str">
         <f t="shared" si="4"/>
@@ -11970,7 +11997,7 @@
         <v>11</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="E136" s="1" t="str">
         <f t="shared" si="4"/>
@@ -11988,7 +12015,7 @@
         <v>11</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="E137" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12006,7 +12033,7 @@
         <v>11</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="E138" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12024,7 +12051,7 @@
         <v>11</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="E139" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12042,7 +12069,7 @@
         <v>11</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="E140" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12060,7 +12087,7 @@
         <v>11</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="E141" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12078,7 +12105,7 @@
         <v>11</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="E142" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12096,7 +12123,7 @@
         <v>11</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="E143" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12114,7 +12141,7 @@
         <v>11</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="E144" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12132,7 +12159,7 @@
         <v>11</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="E145" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12150,7 +12177,7 @@
         <v>12</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="E146" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12168,7 +12195,7 @@
         <v>12</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E147" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12186,7 +12213,7 @@
         <v>12</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="E148" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12204,7 +12231,7 @@
         <v>12</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="E149" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12222,7 +12249,7 @@
         <v>12</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E150" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12240,7 +12267,7 @@
         <v>12</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="E151" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12258,7 +12285,7 @@
         <v>12</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="E152" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12276,7 +12303,7 @@
         <v>12</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="E153" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12294,7 +12321,7 @@
         <v>12</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="E154" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12312,7 +12339,7 @@
         <v>12</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="E155" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12330,7 +12357,7 @@
         <v>12</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="E156" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12348,7 +12375,7 @@
         <v>12</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="E157" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12366,7 +12393,7 @@
         <v>12</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="E158" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12384,7 +12411,7 @@
         <v>12</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="E159" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12402,7 +12429,7 @@
         <v>12</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="E160" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12420,7 +12447,7 @@
         <v>12</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="E161" s="1" t="str">
         <f t="shared" si="4"/>
@@ -12438,7 +12465,7 @@
         <v>12</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="E162" s="1" t="str">
         <f t="shared" ref="E162:E174" si="5">"http://59.66.209.26:23380/wav/" &amp; A162 &amp; "/" &amp; B162 &amp; "_" &amp; C162 &amp; ".wav"</f>
@@ -12456,7 +12483,7 @@
         <v>12</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="E163" s="1" t="str">
         <f t="shared" si="5"/>
@@ -12474,7 +12501,7 @@
         <v>12</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="E164" s="1" t="str">
         <f t="shared" si="5"/>
@@ -12492,7 +12519,7 @@
         <v>12</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="E165" s="1" t="str">
         <f t="shared" si="5"/>
@@ -12510,7 +12537,7 @@
         <v>12</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="E166" s="1" t="str">
         <f t="shared" si="5"/>
@@ -12528,7 +12555,7 @@
         <v>12</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="E167" s="1" t="str">
         <f t="shared" si="5"/>
@@ -12546,7 +12573,7 @@
         <v>12</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="E168" s="1" t="str">
         <f t="shared" si="5"/>
@@ -12564,7 +12591,7 @@
         <v>12</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="E169" s="1" t="str">
         <f t="shared" si="5"/>
@@ -12582,7 +12609,7 @@
         <v>12</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="E170" s="1" t="str">
         <f t="shared" si="5"/>
@@ -12600,7 +12627,7 @@
         <v>12</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="E171" s="1" t="str">
         <f t="shared" si="5"/>
@@ -12618,7 +12645,7 @@
         <v>12</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="E172" s="1" t="str">
         <f t="shared" si="5"/>
@@ -12636,7 +12663,7 @@
         <v>12</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="E173" s="1" t="str">
         <f t="shared" si="5"/>
@@ -12648,13 +12675,13 @@
         <v>2014620840</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="C174" s="2">
         <v>12</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E174" s="1" t="str">
         <f t="shared" si="5"/>
